--- a/R_analysis/derived_data/SSFA_all_data.xlsx
+++ b/R_analysis/derived_data/SSFA_all_data.xlsx
@@ -63,7 +63,7 @@
     <t xml:space="preserve">ConfoMap</t>
   </si>
   <si>
-    <t xml:space="preserve">Dry Lucerne</t>
+    <t xml:space="preserve">Dry lucerne</t>
   </si>
   <si>
     <t xml:space="preserve">Toothfrax</t>
@@ -141,7 +141,7 @@
     <t xml:space="preserve">capor_2CC5B1_txP4_#1_1_100xL_1</t>
   </si>
   <si>
-    <t xml:space="preserve">Dry Grass</t>
+    <t xml:space="preserve">Dry grass</t>
   </si>
   <si>
     <t xml:space="preserve">capor_2CC5B1_txP4_#1_1_100xL_2</t>
@@ -210,7 +210,7 @@
     <t xml:space="preserve">capor_2CC6B1_txP4_#1_1_100xL_1</t>
   </si>
   <si>
-    <t xml:space="preserve">Dry Bamboo</t>
+    <t xml:space="preserve">Dry bamboo</t>
   </si>
   <si>
     <t xml:space="preserve">capor_2CC6B1_txP4_#1_1_100xL_2</t>
@@ -432,7 +432,7 @@
     <t xml:space="preserve">L6-Ovis-10106-lm2sin-a</t>
   </si>
   <si>
-    <t xml:space="preserve">Clover+Dust</t>
+    <t xml:space="preserve">Clover+dust</t>
   </si>
   <si>
     <t xml:space="preserve">L6-Ovis-11707-lm2sin-a</t>
@@ -498,7 +498,7 @@
     <t xml:space="preserve">L8-Ovis-00234-lm2sin-a</t>
   </si>
   <si>
-    <t xml:space="preserve">Grass+Dust</t>
+    <t xml:space="preserve">Grass+dust</t>
   </si>
   <si>
     <t xml:space="preserve">L8-Ovis-08043-lm2sin-a</t>
@@ -932,25 +932,25 @@
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>0.001960011</v>
+        <v>0.002067360545</v>
       </c>
       <c r="H2" t="n">
-        <v>0.998370268</v>
+        <v>0.9980104634</v>
       </c>
       <c r="I2" t="n">
-        <v>14.29322597</v>
+        <v>10.78159498</v>
       </c>
       <c r="J2" t="n">
-        <v>0.415393778</v>
+        <v>0.4484673392</v>
       </c>
       <c r="K2" t="n">
-        <v>0.164461792</v>
+        <v>0.1806015748</v>
       </c>
       <c r="L2" t="n">
-        <v>0.368123892</v>
+        <v>0.3645721331</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01842431</v>
+        <v>0.01846373024</v>
       </c>
     </row>
     <row r="3">
@@ -1004,25 +1004,25 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>0.003662312</v>
+        <v>0.003812139616</v>
       </c>
       <c r="H4" t="n">
-        <v>0.999112342</v>
+        <v>0.9984253117</v>
       </c>
       <c r="I4" t="n">
-        <v>12.90554867</v>
+        <v>10.03406338</v>
       </c>
       <c r="J4" t="n">
-        <v>0.440817926</v>
+        <v>0.5913959046</v>
       </c>
       <c r="K4" t="n">
-        <v>0.171361361</v>
+        <v>0.1895997081</v>
       </c>
       <c r="L4" t="n">
-        <v>0.417234053</v>
+        <v>0.4065172016</v>
       </c>
       <c r="M4" t="n">
-        <v>0.018888664</v>
+        <v>0.01896205204</v>
       </c>
     </row>
     <row r="5">
@@ -1076,25 +1076,25 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>0.003140386</v>
+        <v>0.0032705209</v>
       </c>
       <c r="H6" t="n">
-        <v>0.998934822</v>
+        <v>0.9984925822</v>
       </c>
       <c r="I6" t="n">
-        <v>13.66607046</v>
+        <v>10.49784966</v>
       </c>
       <c r="J6" t="n">
-        <v>0.440817926</v>
+        <v>0.5913959046</v>
       </c>
       <c r="K6" t="n">
-        <v>0.130528691</v>
+        <v>0.1137788648</v>
       </c>
       <c r="L6" t="n">
-        <v>0.352168709</v>
+        <v>0.3633146615</v>
       </c>
       <c r="M6" t="n">
-        <v>0.018703144</v>
+        <v>0.01875636554</v>
       </c>
     </row>
     <row r="7">
@@ -1148,25 +1148,25 @@
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>0.002768482</v>
+        <v>0.002905051355</v>
       </c>
       <c r="H8" t="n">
-        <v>0.998438105</v>
+        <v>0.9983854869</v>
       </c>
       <c r="I8" t="n">
-        <v>11.69780996</v>
+        <v>9.213448104</v>
       </c>
       <c r="J8" t="n">
-        <v>0.496429712</v>
+        <v>0.5913959046</v>
       </c>
       <c r="K8" t="n">
-        <v>0.428999312</v>
+        <v>0.4021779541</v>
       </c>
       <c r="L8" t="n">
-        <v>0.618111286</v>
+        <v>0.5843529378</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01874769</v>
+        <v>0.01880623489</v>
       </c>
     </row>
     <row r="9">
@@ -1220,25 +1220,25 @@
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10" t="n">
-        <v>0.001196562</v>
+        <v>0.001256082569</v>
       </c>
       <c r="H10" t="n">
-        <v>0.998787959</v>
+        <v>0.9981482811</v>
       </c>
       <c r="I10" t="n">
-        <v>13.96724829</v>
+        <v>10.70664486</v>
       </c>
       <c r="J10" t="n">
-        <v>0.415393778</v>
+        <v>0.6605980842</v>
       </c>
       <c r="K10" t="n">
-        <v>0.120905484</v>
+        <v>0.0982992664</v>
       </c>
       <c r="L10" t="n">
-        <v>0.381337164</v>
+        <v>0.3639581152</v>
       </c>
       <c r="M10" t="n">
-        <v>0.018092915</v>
+        <v>0.01812418726</v>
       </c>
     </row>
     <row r="11">
@@ -1292,25 +1292,25 @@
       <c r="E12"/>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>0.002076586</v>
+        <v>0.00216625291</v>
       </c>
       <c r="H12" t="n">
-        <v>0.999087134</v>
+        <v>0.9984843969</v>
       </c>
       <c r="I12" t="n">
-        <v>14.30217635</v>
+        <v>11.08783302</v>
       </c>
       <c r="J12" t="n">
-        <v>0.440817926</v>
+        <v>0.5913959046</v>
       </c>
       <c r="K12" t="n">
-        <v>0.171286315</v>
+        <v>0.1839794215</v>
       </c>
       <c r="L12" t="n">
-        <v>0.402287477</v>
+        <v>0.4416767432</v>
       </c>
       <c r="M12" t="n">
-        <v>0.018557445</v>
+        <v>0.01859686825</v>
       </c>
     </row>
     <row r="13">
@@ -1364,25 +1364,25 @@
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14" t="n">
-        <v>0.002243407</v>
+        <v>0.002329122824</v>
       </c>
       <c r="H14" t="n">
-        <v>0.998884668</v>
+        <v>0.9980501357</v>
       </c>
       <c r="I14" t="n">
-        <v>13.40110065</v>
+        <v>10.34937863</v>
       </c>
       <c r="J14" t="n">
-        <v>0.467798158</v>
+        <v>0.5913959046</v>
       </c>
       <c r="K14" t="n">
-        <v>0.194389173</v>
+        <v>0.2014663409</v>
       </c>
       <c r="L14" t="n">
-        <v>0.390500798</v>
+        <v>0.3738601095</v>
       </c>
       <c r="M14" t="n">
-        <v>0.018099969</v>
+        <v>0.01812683641</v>
       </c>
     </row>
     <row r="15">
@@ -1436,25 +1436,25 @@
       <c r="E16"/>
       <c r="F16"/>
       <c r="G16" t="n">
-        <v>0.002798591</v>
+        <v>0.002979540156</v>
       </c>
       <c r="H16" t="n">
-        <v>0.999103476</v>
+        <v>0.9986605569</v>
       </c>
       <c r="I16" t="n">
-        <v>14.76705164</v>
+        <v>11.2648305</v>
       </c>
       <c r="J16" t="n">
-        <v>0.415393778</v>
+        <v>0.5913959046</v>
       </c>
       <c r="K16" t="n">
-        <v>0.141126487</v>
+        <v>0.1267008418</v>
       </c>
       <c r="L16" t="n">
-        <v>0.376485825</v>
+        <v>0.3744819759</v>
       </c>
       <c r="M16" t="n">
-        <v>0.018786464</v>
+        <v>0.01885447729</v>
       </c>
     </row>
     <row r="17">
@@ -1508,25 +1508,25 @@
       <c r="E18"/>
       <c r="F18"/>
       <c r="G18" t="n">
-        <v>0.002215594</v>
+        <v>0.002359142165</v>
       </c>
       <c r="H18" t="n">
-        <v>0.998493777</v>
+        <v>0.9988543057</v>
       </c>
       <c r="I18" t="n">
-        <v>13.92211229</v>
+        <v>10.34681011</v>
       </c>
       <c r="J18" t="n">
-        <v>0.36885992</v>
+        <v>0.4739803294</v>
       </c>
       <c r="K18" t="n">
-        <v>0.276417135</v>
+        <v>0.2753693702</v>
       </c>
       <c r="L18" t="n">
-        <v>0.371585356</v>
+        <v>0.368393954</v>
       </c>
       <c r="M18" t="n">
-        <v>0.018206709</v>
+        <v>0.01825467099</v>
       </c>
     </row>
     <row r="19">
@@ -1580,25 +1580,25 @@
       <c r="E20"/>
       <c r="F20"/>
       <c r="G20" t="n">
-        <v>0.001822602</v>
+        <v>0.001957674067</v>
       </c>
       <c r="H20" t="n">
-        <v>0.998902359</v>
+        <v>0.9985564736</v>
       </c>
       <c r="I20" t="n">
-        <v>16.68481104</v>
+        <v>11.7449645</v>
       </c>
       <c r="J20" t="n">
-        <v>0.290846892</v>
+        <v>0.4014873099</v>
       </c>
       <c r="K20" t="n">
-        <v>0.188809059</v>
+        <v>0.1972258018</v>
       </c>
       <c r="L20" t="n">
-        <v>0.309204915</v>
+        <v>0.3176914814</v>
       </c>
       <c r="M20" t="n">
-        <v>0.018396108</v>
+        <v>0.01845889031</v>
       </c>
     </row>
     <row r="21">
@@ -1652,25 +1652,25 @@
       <c r="E22"/>
       <c r="F22"/>
       <c r="G22" t="n">
-        <v>0.001195386</v>
+        <v>0.001262324071</v>
       </c>
       <c r="H22" t="n">
-        <v>0.998836037</v>
+        <v>0.9989192509</v>
       </c>
       <c r="I22" t="n">
-        <v>13.97496596</v>
+        <v>9.995706299</v>
       </c>
       <c r="J22" t="n">
-        <v>0.347585945</v>
+        <v>0.5595627735</v>
       </c>
       <c r="K22" t="n">
-        <v>0.142846338</v>
+        <v>0.1427693559</v>
       </c>
       <c r="L22" t="n">
-        <v>0.35436911</v>
+        <v>0.3554464415</v>
       </c>
       <c r="M22" t="n">
-        <v>0.01808377</v>
+        <v>0.01811654818</v>
       </c>
     </row>
     <row r="23">
@@ -1724,25 +1724,25 @@
       <c r="E24"/>
       <c r="F24"/>
       <c r="G24" t="n">
-        <v>0.001549638</v>
+        <v>0.001630660524</v>
       </c>
       <c r="H24" t="n">
-        <v>0.998881244</v>
+        <v>0.9985356569</v>
       </c>
       <c r="I24" t="n">
-        <v>13.05343267</v>
+        <v>9.336848568</v>
       </c>
       <c r="J24" t="n">
-        <v>0.327538946</v>
+        <v>0.4484673392</v>
       </c>
       <c r="K24" t="n">
-        <v>0.162233111</v>
+        <v>0.1907005473</v>
       </c>
       <c r="L24" t="n">
-        <v>0.374577162</v>
+        <v>0.3631057954</v>
       </c>
       <c r="M24" t="n">
-        <v>0.018262853</v>
+        <v>0.01830189158</v>
       </c>
     </row>
     <row r="25">
@@ -1796,25 +1796,25 @@
       <c r="E26"/>
       <c r="F26"/>
       <c r="G26" t="n">
-        <v>0.003795656</v>
+        <v>0.003929549878</v>
       </c>
       <c r="H26" t="n">
-        <v>0.997779083</v>
+        <v>0.998252843</v>
       </c>
       <c r="I26" t="n">
-        <v>9.198882044</v>
+        <v>6.466741226</v>
       </c>
       <c r="J26" t="n">
-        <v>0.229333441</v>
+        <v>0.5294431279</v>
       </c>
       <c r="K26" t="n">
-        <v>0.359553297</v>
+        <v>0.3714519093</v>
       </c>
       <c r="L26" t="n">
-        <v>0.612984794</v>
+        <v>0.6287885129</v>
       </c>
       <c r="M26" t="n">
-        <v>0.019249182</v>
+        <v>0.01930272211</v>
       </c>
     </row>
     <row r="27">
@@ -1868,25 +1868,25 @@
       <c r="E28"/>
       <c r="F28"/>
       <c r="G28" t="n">
-        <v>0.003107149</v>
+        <v>0.003268662423</v>
       </c>
       <c r="H28" t="n">
-        <v>0.998459016</v>
+        <v>0.9984441562</v>
       </c>
       <c r="I28" t="n">
-        <v>8.951343639</v>
+        <v>5.524081785</v>
       </c>
       <c r="J28" t="n">
-        <v>0.216106648</v>
+        <v>0.3400817502</v>
       </c>
       <c r="K28" t="n">
-        <v>0.216203797</v>
+        <v>0.218989173</v>
       </c>
       <c r="L28" t="n">
-        <v>0.465230414</v>
+        <v>0.4534555845</v>
       </c>
       <c r="M28" t="n">
-        <v>0.018844878</v>
+        <v>0.01891031759</v>
       </c>
     </row>
     <row r="29">
@@ -1940,25 +1940,25 @@
       <c r="E30"/>
       <c r="F30"/>
       <c r="G30" t="n">
-        <v>0.003620257</v>
+        <v>0.003796207059</v>
       </c>
       <c r="H30" t="n">
-        <v>0.998451979</v>
+        <v>0.9984525507</v>
       </c>
       <c r="I30" t="n">
-        <v>12.69495698</v>
+        <v>8.94383515</v>
       </c>
       <c r="J30" t="n">
-        <v>0.290846892</v>
+        <v>0.4014873099</v>
       </c>
       <c r="K30" t="n">
-        <v>0.329425381</v>
+        <v>0.3553912332</v>
       </c>
       <c r="L30" t="n">
-        <v>0.506567784</v>
+        <v>0.4932898395</v>
       </c>
       <c r="M30" t="n">
-        <v>0.018733928</v>
+        <v>0.01880308052</v>
       </c>
     </row>
     <row r="31">
@@ -2012,25 +2012,25 @@
       <c r="E32"/>
       <c r="F32"/>
       <c r="G32" t="n">
-        <v>0.002175306</v>
+        <v>0.002354811272</v>
       </c>
       <c r="H32" t="n">
-        <v>0.998600483</v>
+        <v>0.9981375962</v>
       </c>
       <c r="I32" t="n">
-        <v>14.54498781</v>
+        <v>11.54435729</v>
       </c>
       <c r="J32" t="n">
-        <v>0.36885992</v>
+        <v>0.5595627735</v>
       </c>
       <c r="K32" t="n">
-        <v>0.317777021</v>
+        <v>0.3440217544</v>
       </c>
       <c r="L32" t="n">
-        <v>0.855690281</v>
+        <v>0.9249893402</v>
       </c>
       <c r="M32" t="n">
-        <v>0.018357147</v>
+        <v>0.01839624876</v>
       </c>
     </row>
     <row r="33">
@@ -2084,25 +2084,25 @@
       <c r="E34"/>
       <c r="F34"/>
       <c r="G34" t="n">
-        <v>0.001591789</v>
+        <v>0.001663628121</v>
       </c>
       <c r="H34" t="n">
-        <v>0.997532386</v>
+        <v>0.9987746354</v>
       </c>
       <c r="I34" t="n">
-        <v>9.82824833</v>
+        <v>7.055495681</v>
       </c>
       <c r="J34" t="n">
-        <v>0.308648157</v>
+        <v>0.62504</v>
       </c>
       <c r="K34" t="n">
-        <v>0.266301696</v>
+        <v>0.3060963179</v>
       </c>
       <c r="L34" t="n">
-        <v>0.43967751</v>
+        <v>0.5001416965</v>
       </c>
       <c r="M34" t="n">
-        <v>0.018264982</v>
+        <v>0.01829563078</v>
       </c>
     </row>
     <row r="35">
@@ -2156,25 +2156,25 @@
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36" t="n">
-        <v>0.002970947</v>
+        <v>0.003115539578</v>
       </c>
       <c r="H36" t="n">
-        <v>0.999056544</v>
+        <v>0.9982992722</v>
       </c>
       <c r="I36" t="n">
-        <v>19.46945807</v>
+        <v>15.45003357</v>
       </c>
       <c r="J36" t="n">
-        <v>0.391435966</v>
+        <v>0.4014873099</v>
       </c>
       <c r="K36" t="n">
-        <v>0.174551939</v>
+        <v>0.1727344328</v>
       </c>
       <c r="L36" t="n">
-        <v>0.357505425</v>
+        <v>0.3439220321</v>
       </c>
       <c r="M36" t="n">
-        <v>0.018811522</v>
+        <v>0.01887225737</v>
       </c>
     </row>
     <row r="37">
@@ -2228,25 +2228,25 @@
       <c r="E38"/>
       <c r="F38"/>
       <c r="G38" t="n">
-        <v>0.001601512</v>
+        <v>0.001705398015</v>
       </c>
       <c r="H38" t="n">
-        <v>0.99809759</v>
+        <v>0.9982986958</v>
       </c>
       <c r="I38" t="n">
-        <v>12.34565738</v>
+        <v>8.942898683</v>
       </c>
       <c r="J38" t="n">
-        <v>0.347585945</v>
+        <v>0.4014873099</v>
       </c>
       <c r="K38" t="n">
-        <v>0.165888947</v>
+        <v>0.1679042444</v>
       </c>
       <c r="L38" t="n">
-        <v>0.327854103</v>
+        <v>0.3339867358</v>
       </c>
       <c r="M38" t="n">
-        <v>0.018105923</v>
+        <v>0.01814504674</v>
       </c>
     </row>
     <row r="39">
@@ -2300,25 +2300,25 @@
       <c r="E40"/>
       <c r="F40"/>
       <c r="G40" t="n">
-        <v>0.002125456</v>
+        <v>0.002253830386</v>
       </c>
       <c r="H40" t="n">
-        <v>0.998572862</v>
+        <v>0.99831174</v>
       </c>
       <c r="I40" t="n">
-        <v>11.85442574</v>
+        <v>7.495995542</v>
       </c>
       <c r="J40" t="n">
-        <v>0.216106648</v>
+        <v>0.3400817502</v>
       </c>
       <c r="K40" t="n">
-        <v>0.322341529</v>
+        <v>0.3044743911</v>
       </c>
       <c r="L40" t="n">
-        <v>0.540434123</v>
+        <v>0.5371772648</v>
       </c>
       <c r="M40" t="n">
-        <v>0.018518889</v>
+        <v>0.01857516206</v>
       </c>
     </row>
     <row r="41">
@@ -2372,25 +2372,25 @@
       <c r="E42"/>
       <c r="F42"/>
       <c r="G42" t="n">
-        <v>0.004348138</v>
+        <v>0.004547933282</v>
       </c>
       <c r="H42" t="n">
-        <v>0.998926142</v>
+        <v>0.998428357</v>
       </c>
       <c r="I42" t="n">
-        <v>19.57223708</v>
+        <v>15.72230321</v>
       </c>
       <c r="J42" t="n">
-        <v>0.496429712</v>
+        <v>0.62504</v>
       </c>
       <c r="K42" t="n">
-        <v>0.272055042</v>
+        <v>0.2961005508</v>
       </c>
       <c r="L42" t="n">
-        <v>0.4447932</v>
+        <v>0.4392845422</v>
       </c>
       <c r="M42" t="n">
-        <v>0.019016673</v>
+        <v>0.01908976198</v>
       </c>
     </row>
     <row r="43">
@@ -2444,25 +2444,25 @@
       <c r="E44"/>
       <c r="F44"/>
       <c r="G44" t="n">
-        <v>0.002850841</v>
+        <v>0.002938725426</v>
       </c>
       <c r="H44" t="n">
-        <v>0.997779126</v>
+        <v>0.9979155975</v>
       </c>
       <c r="I44" t="n">
-        <v>10.58953187</v>
+        <v>7.907520979</v>
       </c>
       <c r="J44" t="n">
-        <v>0.36885992</v>
+        <v>0.62504</v>
       </c>
       <c r="K44" t="n">
-        <v>0.355257269</v>
+        <v>0.3604897494</v>
       </c>
       <c r="L44" t="n">
-        <v>0.44764112</v>
+        <v>0.4350251891</v>
       </c>
       <c r="M44" t="n">
-        <v>0.018068187</v>
+        <v>0.01811085623</v>
       </c>
     </row>
     <row r="45">
@@ -2516,25 +2516,25 @@
       <c r="E46"/>
       <c r="F46"/>
       <c r="G46" t="n">
-        <v>0.003797344</v>
+        <v>0.003969614705</v>
       </c>
       <c r="H46" t="n">
-        <v>0.998922708</v>
+        <v>0.9982339473</v>
       </c>
       <c r="I46" t="n">
-        <v>10.80422431</v>
+        <v>8.41067031</v>
       </c>
       <c r="J46" t="n">
-        <v>0.467798158</v>
+        <v>0.62504</v>
       </c>
       <c r="K46" t="n">
-        <v>0.390567081</v>
+        <v>0.3463455333</v>
       </c>
       <c r="L46" t="n">
-        <v>0.517974252</v>
+        <v>0.5005469836</v>
       </c>
       <c r="M46" t="n">
-        <v>0.018998086</v>
+        <v>0.01907269566</v>
       </c>
     </row>
     <row r="47">
@@ -2588,25 +2588,25 @@
       <c r="E48"/>
       <c r="F48"/>
       <c r="G48" t="n">
-        <v>0.003188218</v>
+        <v>0.003322627439</v>
       </c>
       <c r="H48" t="n">
-        <v>0.998977523</v>
+        <v>0.998245991</v>
       </c>
       <c r="I48" t="n">
-        <v>10.99011617</v>
+        <v>8.465339104</v>
       </c>
       <c r="J48" t="n">
-        <v>0.440817926</v>
+        <v>0.62504</v>
       </c>
       <c r="K48" t="n">
-        <v>0.261503983</v>
+        <v>0.2723396676</v>
       </c>
       <c r="L48" t="n">
-        <v>0.541313811</v>
+        <v>0.5133933412</v>
       </c>
       <c r="M48" t="n">
-        <v>0.018788637</v>
+        <v>0.01884591831</v>
       </c>
     </row>
     <row r="49">
@@ -2660,25 +2660,25 @@
       <c r="E50"/>
       <c r="F50"/>
       <c r="G50" t="n">
-        <v>0.002170894</v>
+        <v>0.002267447402</v>
       </c>
       <c r="H50" t="n">
-        <v>0.998886935</v>
+        <v>0.9986023958</v>
       </c>
       <c r="I50" t="n">
-        <v>14.47783465</v>
+        <v>11.70351676</v>
       </c>
       <c r="J50" t="n">
-        <v>0.559057254</v>
+        <v>0.6981790427</v>
       </c>
       <c r="K50" t="n">
-        <v>0.160252423</v>
+        <v>0.1612149107</v>
       </c>
       <c r="L50" t="n">
-        <v>0.334040064</v>
+        <v>0.360339211</v>
       </c>
       <c r="M50" t="n">
-        <v>0.018309949</v>
+        <v>0.01835327857</v>
       </c>
     </row>
     <row r="51">
@@ -2732,25 +2732,25 @@
       <c r="E52"/>
       <c r="F52"/>
       <c r="G52" t="n">
-        <v>0.002185925</v>
+        <v>0.002315536851</v>
       </c>
       <c r="H52" t="n">
-        <v>0.998755441</v>
+        <v>0.9984121867</v>
       </c>
       <c r="I52" t="n">
-        <v>11.36441184</v>
+        <v>8.651749525</v>
       </c>
       <c r="J52" t="n">
-        <v>0.467798158</v>
+        <v>0.5913959046</v>
       </c>
       <c r="K52" t="n">
-        <v>0.453796861</v>
+        <v>0.397064544</v>
       </c>
       <c r="L52" t="n">
-        <v>0.508169749</v>
+        <v>0.4682834602</v>
       </c>
       <c r="M52" t="n">
-        <v>0.017385439</v>
+        <v>0.01737486438</v>
       </c>
     </row>
     <row r="53">
@@ -2804,25 +2804,25 @@
       <c r="E54"/>
       <c r="F54"/>
       <c r="G54" t="n">
-        <v>0.002652807</v>
+        <v>0.002741027655</v>
       </c>
       <c r="H54" t="n">
-        <v>0.998841942</v>
+        <v>0.9981770193</v>
       </c>
       <c r="I54" t="n">
-        <v>20.76175031</v>
+        <v>17.3752942</v>
       </c>
       <c r="J54" t="n">
-        <v>0.62958563</v>
+        <v>0.6605980842</v>
       </c>
       <c r="K54" t="n">
-        <v>0.501616031</v>
+        <v>0.4849714377</v>
       </c>
       <c r="L54" t="n">
-        <v>0.475892986</v>
+        <v>0.4435263122</v>
       </c>
       <c r="M54" t="n">
-        <v>0.018138229</v>
+        <v>0.01817478153</v>
       </c>
     </row>
     <row r="55">
@@ -2876,25 +2876,25 @@
       <c r="E56"/>
       <c r="F56"/>
       <c r="G56" t="n">
-        <v>0.003228675</v>
+        <v>0.003375043862</v>
       </c>
       <c r="H56" t="n">
-        <v>0.999042079</v>
+        <v>0.9989523375</v>
       </c>
       <c r="I56" t="n">
-        <v>16.87545858</v>
+        <v>13.23971979</v>
       </c>
       <c r="J56" t="n">
-        <v>0.391435966</v>
+        <v>0.5595627735</v>
       </c>
       <c r="K56" t="n">
-        <v>0.167611762</v>
+        <v>0.1754716318</v>
       </c>
       <c r="L56" t="n">
-        <v>0.389406237</v>
+        <v>0.401973915</v>
       </c>
       <c r="M56" t="n">
-        <v>0.01900251</v>
+        <v>0.0190570765</v>
       </c>
     </row>
     <row r="57">
@@ -2948,25 +2948,25 @@
       <c r="E58"/>
       <c r="F58"/>
       <c r="G58" t="n">
-        <v>0.000998821</v>
+        <v>0.001068320011</v>
       </c>
       <c r="H58" t="n">
-        <v>0.998525009</v>
+        <v>0.9984505623</v>
       </c>
       <c r="I58" t="n">
-        <v>12.30119029</v>
+        <v>8.8637718</v>
       </c>
       <c r="J58" t="n">
-        <v>0.347585945</v>
+        <v>0.4243276394</v>
       </c>
       <c r="K58" t="n">
-        <v>0.187445128</v>
+        <v>0.1999493438</v>
       </c>
       <c r="L58" t="n">
-        <v>0.405302467</v>
+        <v>0.4329448827</v>
       </c>
       <c r="M58" t="n">
-        <v>0.017328018</v>
+        <v>0.01732131021</v>
       </c>
     </row>
     <row r="59">
@@ -3020,25 +3020,25 @@
       <c r="E60"/>
       <c r="F60"/>
       <c r="G60" t="n">
-        <v>0.001423758</v>
+        <v>0.001697884249</v>
       </c>
       <c r="H60" t="n">
-        <v>0.998262677</v>
+        <v>0.9983643454</v>
       </c>
       <c r="I60" t="n">
-        <v>12.51253614</v>
+        <v>9.255288307</v>
       </c>
       <c r="J60" t="n">
-        <v>0.36885992</v>
+        <v>0.5913959046</v>
       </c>
       <c r="K60" t="n">
-        <v>0.259315909</v>
+        <v>0.3242903422</v>
       </c>
       <c r="L60" t="n">
-        <v>0.411046973</v>
+        <v>0.4793412276</v>
       </c>
       <c r="M60" t="n">
-        <v>0.018032043</v>
+        <v>0.0181398183</v>
       </c>
     </row>
     <row r="61">
@@ -3092,25 +3092,25 @@
       <c r="E62"/>
       <c r="F62"/>
       <c r="G62" t="n">
-        <v>0.000533998</v>
+        <v>0.0005679653766</v>
       </c>
       <c r="H62" t="n">
-        <v>0.998737118</v>
+        <v>0.9979434565</v>
       </c>
       <c r="I62" t="n">
-        <v>19.8794206</v>
+        <v>15.59663467</v>
       </c>
       <c r="J62" t="n">
-        <v>0.440817926</v>
+        <v>0.5595627735</v>
       </c>
       <c r="K62" t="n">
-        <v>0.177831666</v>
+        <v>0.1745040884</v>
       </c>
       <c r="L62" t="n">
-        <v>0.277592374</v>
+        <v>0.267574094</v>
       </c>
       <c r="M62" t="n">
-        <v>0.017487828</v>
+        <v>0.01747712875</v>
       </c>
     </row>
     <row r="63">
@@ -3164,25 +3164,25 @@
       <c r="E64"/>
       <c r="F64"/>
       <c r="G64" t="n">
-        <v>0.00109822</v>
+        <v>0.001191898962</v>
       </c>
       <c r="H64" t="n">
-        <v>0.998321206</v>
+        <v>0.9979947225</v>
       </c>
       <c r="I64" t="n">
-        <v>11.46798993</v>
+        <v>8.196790974</v>
       </c>
       <c r="J64" t="n">
-        <v>0.347585963</v>
+        <v>0.4014873817</v>
       </c>
       <c r="K64" t="n">
-        <v>0.173338388</v>
+        <v>0.2140281067</v>
       </c>
       <c r="L64" t="n">
-        <v>0.42973279</v>
+        <v>0.4456738268</v>
       </c>
       <c r="M64" t="n">
-        <v>0.017288718</v>
+        <v>0.01727077648</v>
       </c>
     </row>
     <row r="65">
@@ -3236,25 +3236,25 @@
       <c r="E66"/>
       <c r="F66"/>
       <c r="G66" t="n">
-        <v>0.000321969</v>
+        <v>0.0003473793101</v>
       </c>
       <c r="H66" t="n">
-        <v>0.998792658</v>
+        <v>0.9973204701</v>
       </c>
       <c r="I66" t="n">
-        <v>14.55386508</v>
+        <v>9.770567506</v>
       </c>
       <c r="J66" t="n">
-        <v>0.243369779</v>
+        <v>0.3400817502</v>
       </c>
       <c r="K66" t="n">
-        <v>0.28447668</v>
+        <v>0.2651975511</v>
       </c>
       <c r="L66" t="n">
-        <v>0.373595397</v>
+        <v>0.3950040297</v>
       </c>
       <c r="M66" t="n">
-        <v>0.017576818</v>
+        <v>0.01755462297</v>
       </c>
     </row>
     <row r="67">
@@ -3308,25 +3308,25 @@
       <c r="E68"/>
       <c r="F68"/>
       <c r="G68" t="n">
-        <v>0.001482654</v>
+        <v>0.001498713878</v>
       </c>
       <c r="H68" t="n">
-        <v>0.998969383</v>
+        <v>0.9984477915</v>
       </c>
       <c r="I68" t="n">
-        <v>24.01503378</v>
+        <v>18.89177552</v>
       </c>
       <c r="J68" t="n">
-        <v>0.36885992</v>
+        <v>0.4243276394</v>
       </c>
       <c r="K68" t="n">
-        <v>0.183429427</v>
+        <v>0.1791966341</v>
       </c>
       <c r="L68" t="n">
-        <v>0.300328179</v>
+        <v>0.3255303847</v>
       </c>
       <c r="M68" t="n">
-        <v>0.018068293</v>
+        <v>0.01807943098</v>
       </c>
     </row>
     <row r="69">
@@ -3380,25 +3380,25 @@
       <c r="E70"/>
       <c r="F70"/>
       <c r="G70" t="n">
-        <v>0.003469694</v>
+        <v>0.003585660708</v>
       </c>
       <c r="H70" t="n">
-        <v>0.998775437</v>
+        <v>0.9973846685</v>
       </c>
       <c r="I70" t="n">
-        <v>20.84387933</v>
+        <v>17.18893711</v>
       </c>
       <c r="J70" t="n">
-        <v>0.391435966</v>
+        <v>0.5294431279</v>
       </c>
       <c r="K70" t="n">
-        <v>0.293413444</v>
+        <v>0.3011933298</v>
       </c>
       <c r="L70" t="n">
-        <v>0.42258362</v>
+        <v>0.4479456515</v>
       </c>
       <c r="M70" t="n">
-        <v>0.018884189</v>
+        <v>0.01893229649</v>
       </c>
     </row>
     <row r="71">
@@ -3452,25 +3452,25 @@
       <c r="E72"/>
       <c r="F72"/>
       <c r="G72" t="n">
-        <v>0.001843514</v>
+        <v>0.001891695447</v>
       </c>
       <c r="H72" t="n">
-        <v>0.998657092</v>
+        <v>0.9988383002</v>
       </c>
       <c r="I72" t="n">
-        <v>12.93881906</v>
+        <v>10.00959712</v>
       </c>
       <c r="J72" t="n">
-        <v>0.467798158</v>
+        <v>0.6605980842</v>
       </c>
       <c r="K72" t="n">
-        <v>0.340552735</v>
+        <v>0.3256696491</v>
       </c>
       <c r="L72" t="n">
-        <v>0.479995679</v>
+        <v>0.4138827043</v>
       </c>
       <c r="M72" t="n">
-        <v>0.017387198</v>
+        <v>0.01738577082</v>
       </c>
     </row>
     <row r="73">
@@ -3524,25 +3524,25 @@
       <c r="E74"/>
       <c r="F74"/>
       <c r="G74" t="n">
-        <v>0.001747159</v>
+        <v>0.001814799783</v>
       </c>
       <c r="H74" t="n">
-        <v>0.998680209</v>
+        <v>0.997794</v>
       </c>
       <c r="I74" t="n">
-        <v>10.92157209</v>
+        <v>8.380991851</v>
       </c>
       <c r="J74" t="n">
-        <v>0.440817926</v>
+        <v>0.5913959046</v>
       </c>
       <c r="K74" t="n">
-        <v>0.525251468</v>
+        <v>0.4931165163</v>
       </c>
       <c r="L74" t="n">
-        <v>0.613802752</v>
+        <v>0.599353621</v>
       </c>
       <c r="M74" t="n">
-        <v>0.018443029</v>
+        <v>0.01847120542</v>
       </c>
     </row>
     <row r="75">
@@ -3596,25 +3596,25 @@
       <c r="E76"/>
       <c r="F76"/>
       <c r="G76" t="n">
-        <v>0.001186751</v>
+        <v>0.0012734324</v>
       </c>
       <c r="H76" t="n">
-        <v>0.998277295</v>
+        <v>0.9983386357</v>
       </c>
       <c r="I76" t="n">
-        <v>11.15392509</v>
+        <v>7.720424386</v>
       </c>
       <c r="J76" t="n">
-        <v>0.308648157</v>
+        <v>0.4739803294</v>
       </c>
       <c r="K76" t="n">
-        <v>0.307433316</v>
+        <v>0.2755574015</v>
       </c>
       <c r="L76" t="n">
-        <v>0.519540666</v>
+        <v>0.486423232</v>
       </c>
       <c r="M76" t="n">
-        <v>0.018014835</v>
+        <v>0.01803366552</v>
       </c>
     </row>
     <row r="77">
@@ -3668,25 +3668,25 @@
       <c r="E78"/>
       <c r="F78"/>
       <c r="G78" t="n">
-        <v>0.002789307</v>
+        <v>0.002914695687</v>
       </c>
       <c r="H78" t="n">
-        <v>0.998732092</v>
+        <v>0.9981671246</v>
       </c>
       <c r="I78" t="n">
-        <v>15.49400055</v>
+        <v>11.28379287</v>
       </c>
       <c r="J78" t="n">
-        <v>0.327538946</v>
+        <v>0.4014873099</v>
       </c>
       <c r="K78" t="n">
-        <v>0.386489339</v>
+        <v>0.4266643684</v>
       </c>
       <c r="L78" t="n">
-        <v>0.511177841</v>
+        <v>0.5620192203</v>
       </c>
       <c r="M78" t="n">
-        <v>0.018289394</v>
+        <v>0.01832784718</v>
       </c>
     </row>
     <row r="79">
@@ -3740,25 +3740,25 @@
       <c r="E80"/>
       <c r="F80"/>
       <c r="G80" t="n">
-        <v>0.005335126</v>
+        <v>0.005525790493</v>
       </c>
       <c r="H80" t="n">
-        <v>0.998549831</v>
+        <v>0.9985826387</v>
       </c>
       <c r="I80" t="n">
-        <v>17.47194325</v>
+        <v>14.28804653</v>
       </c>
       <c r="J80" t="n">
-        <v>0.440817926</v>
+        <v>0.5913959046</v>
       </c>
       <c r="K80" t="n">
-        <v>0.482358105</v>
+        <v>0.496191823</v>
       </c>
       <c r="L80" t="n">
-        <v>0.563775628</v>
+        <v>0.5673957474</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01979391</v>
+        <v>0.01987551916</v>
       </c>
     </row>
     <row r="81">
@@ -3812,25 +3812,25 @@
       <c r="E82"/>
       <c r="F82"/>
       <c r="G82" t="n">
-        <v>0.000882766</v>
+        <v>0.0009543477058</v>
       </c>
       <c r="H82" t="n">
-        <v>0.998192145</v>
+        <v>0.9979762851</v>
       </c>
       <c r="I82" t="n">
-        <v>17.15079447</v>
+        <v>12.91073413</v>
       </c>
       <c r="J82" t="n">
-        <v>0.327538946</v>
+        <v>0.4014873099</v>
       </c>
       <c r="K82" t="n">
-        <v>0.183871997</v>
+        <v>0.1747842113</v>
       </c>
       <c r="L82" t="n">
-        <v>0.403177746</v>
+        <v>0.3650582266</v>
       </c>
       <c r="M82" t="n">
-        <v>0.017907748</v>
+        <v>0.01793683282</v>
       </c>
     </row>
     <row r="83">
@@ -3884,25 +3884,25 @@
       <c r="E84"/>
       <c r="F84"/>
       <c r="G84" t="n">
-        <v>0.001630564</v>
+        <v>0.00161213975</v>
       </c>
       <c r="H84" t="n">
-        <v>0.998554083</v>
+        <v>0.9980941784</v>
       </c>
       <c r="I84" t="n">
-        <v>13.22197373</v>
+        <v>8.844441175</v>
       </c>
       <c r="J84" t="n">
-        <v>0.290846892</v>
+        <v>0.4014873099</v>
       </c>
       <c r="K84" t="n">
-        <v>0.407306292</v>
+        <v>0.4200855213</v>
       </c>
       <c r="L84" t="n">
-        <v>0.485890482</v>
+        <v>0.4741869474</v>
       </c>
       <c r="M84" t="n">
-        <v>0.018078127</v>
+        <v>0.01807787514</v>
       </c>
     </row>
     <row r="85">
@@ -3956,25 +3956,25 @@
       <c r="E86"/>
       <c r="F86"/>
       <c r="G86" t="n">
-        <v>0.001637952</v>
+        <v>0.001734123758</v>
       </c>
       <c r="H86" t="n">
-        <v>0.998199311</v>
+        <v>0.9984521998</v>
       </c>
       <c r="I86" t="n">
-        <v>10.13463639</v>
+        <v>5.934820597</v>
       </c>
       <c r="J86" t="n">
-        <v>0.20364271</v>
+        <v>0.3594287608</v>
       </c>
       <c r="K86" t="n">
-        <v>0.469869735</v>
+        <v>0.2921884299</v>
       </c>
       <c r="L86" t="n">
-        <v>0.596167913</v>
+        <v>0.4422947122</v>
       </c>
       <c r="M86" t="n">
-        <v>0.018215868</v>
+        <v>0.01824423295</v>
       </c>
     </row>
     <row r="87">
@@ -4028,25 +4028,25 @@
       <c r="E88"/>
       <c r="F88"/>
       <c r="G88" t="n">
-        <v>0.001309661</v>
+        <v>0.001399331731</v>
       </c>
       <c r="H88" t="n">
-        <v>0.999138808</v>
+        <v>0.9980484171</v>
       </c>
       <c r="I88" t="n">
-        <v>11.16138579</v>
+        <v>8.336738608</v>
       </c>
       <c r="J88" t="n">
-        <v>0.415393778</v>
+        <v>0.6605980842</v>
       </c>
       <c r="K88" t="n">
-        <v>0.151634155</v>
+        <v>0.1713095657</v>
       </c>
       <c r="L88" t="n">
-        <v>0.303397603</v>
+        <v>0.3319460294</v>
       </c>
       <c r="M88" t="n">
-        <v>0.017616154</v>
+        <v>0.01760490934</v>
       </c>
     </row>
     <row r="89">
@@ -4100,25 +4100,25 @@
       <c r="E90"/>
       <c r="F90"/>
       <c r="G90" t="n">
-        <v>0.00156659</v>
+        <v>0.001586242512</v>
       </c>
       <c r="H90" t="n">
-        <v>0.998632684</v>
+        <v>0.9986190307</v>
       </c>
       <c r="I90" t="n">
-        <v>12.3497021</v>
+        <v>9.248035172</v>
       </c>
       <c r="J90" t="n">
-        <v>0.391435966</v>
+        <v>0.62504</v>
       </c>
       <c r="K90" t="n">
-        <v>0.188480701</v>
+        <v>0.2253715613</v>
       </c>
       <c r="L90" t="n">
-        <v>0.340326428</v>
+        <v>0.3777190835</v>
       </c>
       <c r="M90" t="n">
-        <v>0.017715339</v>
+        <v>0.0177181777</v>
       </c>
     </row>
     <row r="91">
@@ -4172,25 +4172,25 @@
       <c r="E92"/>
       <c r="F92"/>
       <c r="G92" t="n">
-        <v>0.001379314</v>
+        <v>0.001451020175</v>
       </c>
       <c r="H92" t="n">
-        <v>0.999036712</v>
+        <v>0.9977307443</v>
       </c>
       <c r="I92" t="n">
-        <v>14.09405623</v>
+        <v>7.557023733</v>
       </c>
       <c r="J92" t="n">
-        <v>0.160572744</v>
+        <v>0.2308749621</v>
       </c>
       <c r="K92" t="n">
-        <v>0.561422278</v>
+        <v>0.4527713379</v>
       </c>
       <c r="L92" t="n">
-        <v>0.531321491</v>
+        <v>0.4375054281</v>
       </c>
       <c r="M92" t="n">
-        <v>0.017374983</v>
+        <v>0.01733913859</v>
       </c>
     </row>
     <row r="93">
@@ -4244,25 +4244,25 @@
       <c r="E94"/>
       <c r="F94"/>
       <c r="G94" t="n">
-        <v>0.00441708</v>
+        <v>0.004585544796</v>
       </c>
       <c r="H94" t="n">
-        <v>0.998739055</v>
+        <v>0.9986841728</v>
       </c>
       <c r="I94" t="n">
-        <v>10.80511762</v>
+        <v>8.109444765</v>
       </c>
       <c r="J94" t="n">
-        <v>0.347585945</v>
+        <v>0.7378979554</v>
       </c>
       <c r="K94" t="n">
-        <v>0.130091153</v>
+        <v>0.118869778</v>
       </c>
       <c r="L94" t="n">
-        <v>0.355638748</v>
+        <v>0.3686351397</v>
       </c>
       <c r="M94" t="n">
-        <v>0.019459826</v>
+        <v>0.01952852038</v>
       </c>
     </row>
     <row r="95">
@@ -4316,25 +4316,25 @@
       <c r="E96"/>
       <c r="F96"/>
       <c r="G96" t="n">
-        <v>0.005865819</v>
+        <v>0.006056402124</v>
       </c>
       <c r="H96" t="n">
-        <v>0.997985012</v>
+        <v>0.9987079525</v>
       </c>
       <c r="I96" t="n">
-        <v>13.61075036</v>
+        <v>10.39512777</v>
       </c>
       <c r="J96" t="n">
-        <v>0.391435966</v>
+        <v>0.62504</v>
       </c>
       <c r="K96" t="n">
-        <v>0.179356348</v>
+        <v>0.1753398866</v>
       </c>
       <c r="L96" t="n">
-        <v>0.294376554</v>
+        <v>0.3155134442</v>
       </c>
       <c r="M96" t="n">
-        <v>0.020078889</v>
+        <v>0.02016198729</v>
       </c>
     </row>
     <row r="97">
@@ -4388,25 +4388,25 @@
       <c r="E98"/>
       <c r="F98"/>
       <c r="G98" t="n">
-        <v>0.005041598</v>
+        <v>0.005235527417</v>
       </c>
       <c r="H98" t="n">
-        <v>0.998425488</v>
+        <v>0.9982708013</v>
       </c>
       <c r="I98" t="n">
-        <v>11.69816589</v>
+        <v>8.497286328</v>
       </c>
       <c r="J98" t="n">
-        <v>0.308648157</v>
+        <v>0.5913959046</v>
       </c>
       <c r="K98" t="n">
-        <v>0.248884902</v>
+        <v>0.2212102507</v>
       </c>
       <c r="L98" t="n">
-        <v>0.413098254</v>
+        <v>0.391001759</v>
       </c>
       <c r="M98" t="n">
-        <v>0.019722448</v>
+        <v>0.01980409344</v>
       </c>
     </row>
     <row r="99">
@@ -4460,25 +4460,25 @@
       <c r="E100"/>
       <c r="F100"/>
       <c r="G100" t="n">
-        <v>0.00730538</v>
+        <v>0.007515140223</v>
       </c>
       <c r="H100" t="n">
-        <v>0.998486079</v>
+        <v>0.9976183271</v>
       </c>
       <c r="I100" t="n">
-        <v>14.2380775</v>
+        <v>10.85991033</v>
       </c>
       <c r="J100" t="n">
-        <v>0.415393778</v>
+        <v>0.6605980842</v>
       </c>
       <c r="K100" t="n">
-        <v>0.2886548</v>
+        <v>0.2872119023</v>
       </c>
       <c r="L100" t="n">
-        <v>0.337152541</v>
+        <v>0.3813661258</v>
       </c>
       <c r="M100" t="n">
-        <v>0.020693929</v>
+        <v>0.02078594416</v>
       </c>
     </row>
     <row r="101">
@@ -4532,25 +4532,25 @@
       <c r="E102"/>
       <c r="F102"/>
       <c r="G102" t="n">
-        <v>0.005226403</v>
+        <v>0.005417164902</v>
       </c>
       <c r="H102" t="n">
-        <v>0.999065791</v>
+        <v>0.9981681785</v>
       </c>
       <c r="I102" t="n">
-        <v>21.29207659</v>
+        <v>16.67553361</v>
       </c>
       <c r="J102" t="n">
-        <v>0.415393778</v>
+        <v>0.5294431279</v>
       </c>
       <c r="K102" t="n">
-        <v>0.24476547</v>
+        <v>0.2518589921</v>
       </c>
       <c r="L102" t="n">
-        <v>0.38799953</v>
+        <v>0.4136666028</v>
       </c>
       <c r="M102" t="n">
-        <v>0.019840586</v>
+        <v>0.01993099998</v>
       </c>
     </row>
     <row r="103">
@@ -4604,25 +4604,25 @@
       <c r="E104"/>
       <c r="F104"/>
       <c r="G104" t="n">
-        <v>0.005607542</v>
+        <v>0.005813407676</v>
       </c>
       <c r="H104" t="n">
-        <v>0.999001959</v>
+        <v>0.9977098276</v>
       </c>
       <c r="I104" t="n">
-        <v>20.37145918</v>
+        <v>16.51537209</v>
       </c>
       <c r="J104" t="n">
-        <v>0.36885992</v>
+        <v>0.62504</v>
       </c>
       <c r="K104" t="n">
-        <v>0.206435076</v>
+        <v>0.196151054</v>
       </c>
       <c r="L104" t="n">
-        <v>0.409168761</v>
+        <v>0.415156062</v>
       </c>
       <c r="M104" t="n">
-        <v>0.020035127</v>
+        <v>0.02012573649</v>
       </c>
     </row>
     <row r="105">
@@ -4676,25 +4676,25 @@
       <c r="E106"/>
       <c r="F106"/>
       <c r="G106" t="n">
-        <v>0.006435156</v>
+        <v>0.006676155159</v>
       </c>
       <c r="H106" t="n">
-        <v>0.99823614</v>
+        <v>0.9988392089</v>
       </c>
       <c r="I106" t="n">
-        <v>12.76960462</v>
+        <v>9.261988616</v>
       </c>
       <c r="J106" t="n">
-        <v>0.327538946</v>
+        <v>0.5913959046</v>
       </c>
       <c r="K106" t="n">
-        <v>0.211535812</v>
+        <v>0.2436289336</v>
       </c>
       <c r="L106" t="n">
-        <v>0.38758931</v>
+        <v>0.4312631198</v>
       </c>
       <c r="M106" t="n">
-        <v>0.020441863</v>
+        <v>0.02054430432</v>
       </c>
     </row>
     <row r="107">
@@ -4748,25 +4748,25 @@
       <c r="E108"/>
       <c r="F108"/>
       <c r="G108" t="n">
-        <v>0.005030818</v>
+        <v>0.005205715898</v>
       </c>
       <c r="H108" t="n">
-        <v>0.9977707</v>
+        <v>0.9984887844</v>
       </c>
       <c r="I108" t="n">
-        <v>10.55356265</v>
+        <v>6.752552626</v>
       </c>
       <c r="J108" t="n">
-        <v>0.229333441</v>
+        <v>0.4014873099</v>
       </c>
       <c r="K108" t="n">
-        <v>0.20098465</v>
+        <v>0.1858837352</v>
       </c>
       <c r="L108" t="n">
-        <v>0.314306336</v>
+        <v>0.3129862979</v>
       </c>
       <c r="M108" t="n">
-        <v>0.019758475</v>
+        <v>0.01983216209</v>
       </c>
     </row>
     <row r="109">
@@ -4820,25 +4820,25 @@
       <c r="E110"/>
       <c r="F110"/>
       <c r="G110" t="n">
-        <v>0.006165259</v>
+        <v>0.006389464125</v>
       </c>
       <c r="H110" t="n">
-        <v>0.997936765</v>
+        <v>0.9981549634</v>
       </c>
       <c r="I110" t="n">
-        <v>12.16203353</v>
+        <v>8.635753477</v>
       </c>
       <c r="J110" t="n">
-        <v>0.308648157</v>
+        <v>0.5913959046</v>
       </c>
       <c r="K110" t="n">
-        <v>0.170040492</v>
+        <v>0.1578384252</v>
       </c>
       <c r="L110" t="n">
-        <v>0.387622024</v>
+        <v>0.363770321</v>
       </c>
       <c r="M110" t="n">
-        <v>0.020159258</v>
+        <v>0.0202581831</v>
       </c>
     </row>
     <row r="111">
@@ -4892,25 +4892,25 @@
       <c r="E112"/>
       <c r="F112"/>
       <c r="G112" t="n">
-        <v>0.005658562</v>
+        <v>0.005852936256</v>
       </c>
       <c r="H112" t="n">
-        <v>0.998474708</v>
+        <v>0.9977921317</v>
       </c>
       <c r="I112" t="n">
-        <v>18.69494231</v>
+        <v>14.00007019</v>
       </c>
       <c r="J112" t="n">
-        <v>0.36885992</v>
+        <v>0.4484673392</v>
       </c>
       <c r="K112" t="n">
-        <v>0.174550024</v>
+        <v>0.1926074796</v>
       </c>
       <c r="L112" t="n">
-        <v>0.335602576</v>
+        <v>0.3605887212</v>
       </c>
       <c r="M112" t="n">
-        <v>0.020035173</v>
+        <v>0.02011730976</v>
       </c>
     </row>
     <row r="113">
@@ -4964,25 +4964,25 @@
       <c r="E114"/>
       <c r="F114"/>
       <c r="G114" t="n">
-        <v>0.005218858</v>
+        <v>0.005427667653</v>
       </c>
       <c r="H114" t="n">
-        <v>0.998982101</v>
+        <v>0.9982465489</v>
       </c>
       <c r="I114" t="n">
-        <v>15.30830802</v>
+        <v>11.43827058</v>
       </c>
       <c r="J114" t="n">
-        <v>0.391435966</v>
+        <v>0.5595627735</v>
       </c>
       <c r="K114" t="n">
-        <v>0.222503547</v>
+        <v>0.2262723102</v>
       </c>
       <c r="L114" t="n">
-        <v>0.310358895</v>
+        <v>0.2909851406</v>
       </c>
       <c r="M114" t="n">
-        <v>0.019782696</v>
+        <v>0.01987080113</v>
       </c>
     </row>
     <row r="115">
@@ -5036,25 +5036,25 @@
       <c r="E116"/>
       <c r="F116"/>
       <c r="G116" t="n">
-        <v>0.006188047</v>
+        <v>0.006473264986</v>
       </c>
       <c r="H116" t="n">
-        <v>0.998584048</v>
+        <v>0.9983875073</v>
       </c>
       <c r="I116" t="n">
-        <v>17.64693879</v>
+        <v>12.68285896</v>
       </c>
       <c r="J116" t="n">
-        <v>0.308648157</v>
+        <v>0.4484673392</v>
       </c>
       <c r="K116" t="n">
-        <v>0.276502873</v>
+        <v>0.3095299721</v>
       </c>
       <c r="L116" t="n">
-        <v>0.374478213</v>
+        <v>0.4230375989</v>
       </c>
       <c r="M116" t="n">
-        <v>0.020297027</v>
+        <v>0.02041790809</v>
       </c>
     </row>
     <row r="117">
@@ -5108,25 +5108,25 @@
       <c r="E118"/>
       <c r="F118"/>
       <c r="G118" t="n">
-        <v>0.002936327</v>
+        <v>0.003078460776</v>
       </c>
       <c r="H118" t="n">
-        <v>0.999553351</v>
+        <v>0.9985109531</v>
       </c>
       <c r="I118" t="n">
-        <v>25.27910623</v>
+        <v>21.53721832</v>
       </c>
       <c r="J118" t="n">
-        <v>0.440817926</v>
+        <v>0.62504</v>
       </c>
       <c r="K118" t="n">
-        <v>0.137596898</v>
+        <v>0.1940337857</v>
       </c>
       <c r="L118" t="n">
-        <v>0.348979132</v>
+        <v>0.4208601479</v>
       </c>
       <c r="M118" t="n">
-        <v>0.018769595</v>
+        <v>0.01882726172</v>
       </c>
     </row>
     <row r="119">
@@ -5180,25 +5180,25 @@
       <c r="E120"/>
       <c r="F120"/>
       <c r="G120" t="n">
-        <v>0.005330964</v>
+        <v>0.005571783206</v>
       </c>
       <c r="H120" t="n">
-        <v>0.998908944</v>
+        <v>0.9983165639</v>
       </c>
       <c r="I120" t="n">
-        <v>26.81552944</v>
+        <v>22.49442445</v>
       </c>
       <c r="J120" t="n">
-        <v>0.415393778</v>
+        <v>0.5913959046</v>
       </c>
       <c r="K120" t="n">
-        <v>0.226632057</v>
+        <v>0.20357463</v>
       </c>
       <c r="L120" t="n">
-        <v>0.387700459</v>
+        <v>0.4446905242</v>
       </c>
       <c r="M120" t="n">
-        <v>0.0198376</v>
+        <v>0.0199410144</v>
       </c>
     </row>
     <row r="121">
@@ -5252,25 +5252,25 @@
       <c r="E122"/>
       <c r="F122"/>
       <c r="G122" t="n">
-        <v>0.003954074</v>
+        <v>0.004157924971</v>
       </c>
       <c r="H122" t="n">
-        <v>0.999350198</v>
+        <v>0.9978559964</v>
       </c>
       <c r="I122" t="n">
-        <v>26.42835785</v>
+        <v>21.5657584</v>
       </c>
       <c r="J122" t="n">
-        <v>0.327538946</v>
+        <v>0.4484673392</v>
       </c>
       <c r="K122" t="n">
-        <v>0.244915358</v>
+        <v>0.2684457761</v>
       </c>
       <c r="L122" t="n">
-        <v>0.363960202</v>
+        <v>0.3963223034</v>
       </c>
       <c r="M122" t="n">
-        <v>0.019189749</v>
+        <v>0.01926688936</v>
       </c>
     </row>
     <row r="123">
@@ -5324,25 +5324,25 @@
       <c r="E124"/>
       <c r="F124"/>
       <c r="G124" t="n">
-        <v>0.005712061</v>
+        <v>0.005964065135</v>
       </c>
       <c r="H124" t="n">
-        <v>0.998586302</v>
+        <v>0.9983381879</v>
       </c>
       <c r="I124" t="n">
-        <v>17.38413457</v>
+        <v>12.49190368</v>
       </c>
       <c r="J124" t="n">
-        <v>0.308648157</v>
+        <v>0.4243276394</v>
       </c>
       <c r="K124" t="n">
-        <v>0.237942264</v>
+        <v>0.2784769372</v>
       </c>
       <c r="L124" t="n">
-        <v>0.450188396</v>
+        <v>0.4859585013</v>
       </c>
       <c r="M124" t="n">
-        <v>0.019987</v>
+        <v>0.02009966669</v>
       </c>
     </row>
     <row r="125">
@@ -5396,25 +5396,25 @@
       <c r="E126"/>
       <c r="F126"/>
       <c r="G126" t="n">
-        <v>0.004297867</v>
+        <v>0.004502523068</v>
       </c>
       <c r="H126" t="n">
-        <v>0.998051701</v>
+        <v>0.9984773986</v>
       </c>
       <c r="I126" t="n">
-        <v>10.53507997</v>
+        <v>7.270033034</v>
       </c>
       <c r="J126" t="n">
-        <v>0.308648157</v>
+        <v>0.4243276394</v>
       </c>
       <c r="K126" t="n">
-        <v>0.182136417</v>
+        <v>0.2022066066</v>
       </c>
       <c r="L126" t="n">
-        <v>0.281043188</v>
+        <v>0.3005931159</v>
       </c>
       <c r="M126" t="n">
-        <v>0.019470585</v>
+        <v>0.01955734737</v>
       </c>
     </row>
     <row r="127">
@@ -5468,25 +5468,25 @@
       <c r="E128"/>
       <c r="F128"/>
       <c r="G128" t="n">
-        <v>0.005007014</v>
+        <v>0.005205144759</v>
       </c>
       <c r="H128" t="n">
-        <v>0.997851199</v>
+        <v>0.9985081059</v>
       </c>
       <c r="I128" t="n">
-        <v>12.18297185</v>
+        <v>8.653693862</v>
       </c>
       <c r="J128" t="n">
-        <v>0.308648157</v>
+        <v>0.62504</v>
       </c>
       <c r="K128" t="n">
-        <v>0.153521693</v>
+        <v>0.1488538869</v>
       </c>
       <c r="L128" t="n">
-        <v>0.321201434</v>
+        <v>0.3698596561</v>
       </c>
       <c r="M128" t="n">
-        <v>0.019777487</v>
+        <v>0.01986150023</v>
       </c>
     </row>
     <row r="129">
@@ -5540,25 +5540,25 @@
       <c r="E130"/>
       <c r="F130"/>
       <c r="G130" t="n">
-        <v>0.00477814</v>
+        <v>0.004997248187</v>
       </c>
       <c r="H130" t="n">
-        <v>0.997718162</v>
+        <v>0.998354787</v>
       </c>
       <c r="I130" t="n">
-        <v>12.12069114</v>
+        <v>8.089687639</v>
       </c>
       <c r="J130" t="n">
-        <v>0.308648157</v>
+        <v>0.4014873099</v>
       </c>
       <c r="K130" t="n">
-        <v>0.155917005</v>
+        <v>0.1630998168</v>
       </c>
       <c r="L130" t="n">
-        <v>0.251486818</v>
+        <v>0.2920514371</v>
       </c>
       <c r="M130" t="n">
-        <v>0.019684972</v>
+        <v>0.01977622094</v>
       </c>
     </row>
     <row r="131">
@@ -5612,25 +5612,25 @@
       <c r="E132"/>
       <c r="F132"/>
       <c r="G132" t="n">
-        <v>0.006244524</v>
+        <v>0.006495825812</v>
       </c>
       <c r="H132" t="n">
-        <v>0.998104698</v>
+        <v>0.9983295065</v>
       </c>
       <c r="I132" t="n">
-        <v>12.20842257</v>
+        <v>8.663931859</v>
       </c>
       <c r="J132" t="n">
-        <v>0.327538946</v>
+        <v>0.5294431279</v>
       </c>
       <c r="K132" t="n">
-        <v>0.124791542</v>
+        <v>0.1596243399</v>
       </c>
       <c r="L132" t="n">
-        <v>0.422103071</v>
+        <v>0.4685799982</v>
       </c>
       <c r="M132" t="n">
-        <v>0.020199117</v>
+        <v>0.02030420169</v>
       </c>
     </row>
     <row r="133">
@@ -5684,25 +5684,25 @@
       <c r="E134"/>
       <c r="F134"/>
       <c r="G134" t="n">
-        <v>0.003686526</v>
+        <v>0.003842879113</v>
       </c>
       <c r="H134" t="n">
-        <v>0.998850503</v>
+        <v>0.9982269937</v>
       </c>
       <c r="I134" t="n">
-        <v>32.31299832</v>
+        <v>28.0022206</v>
       </c>
       <c r="J134" t="n">
-        <v>0.52681366</v>
+        <v>0.5913959046</v>
       </c>
       <c r="K134" t="n">
-        <v>0.221627398</v>
+        <v>0.2439080387</v>
       </c>
       <c r="L134" t="n">
-        <v>0.376795751</v>
+        <v>0.4055769628</v>
       </c>
       <c r="M134" t="n">
-        <v>0.019115734</v>
+        <v>0.01918915417</v>
       </c>
     </row>
     <row r="135">
@@ -5756,25 +5756,25 @@
       <c r="E136"/>
       <c r="F136"/>
       <c r="G136" t="n">
-        <v>0.005382125</v>
+        <v>0.005630646001</v>
       </c>
       <c r="H136" t="n">
-        <v>0.998834003</v>
+        <v>0.9977694499</v>
       </c>
       <c r="I136" t="n">
-        <v>19.87383246</v>
+        <v>15.24439242</v>
       </c>
       <c r="J136" t="n">
-        <v>0.36885992</v>
+        <v>0.4484673392</v>
       </c>
       <c r="K136" t="n">
-        <v>0.262633309</v>
+        <v>0.2632266342</v>
       </c>
       <c r="L136" t="n">
-        <v>0.414915744</v>
+        <v>0.418701688</v>
       </c>
       <c r="M136" t="n">
-        <v>0.019843407</v>
+        <v>0.01995069442</v>
       </c>
     </row>
     <row r="137">
@@ -5828,25 +5828,25 @@
       <c r="E138"/>
       <c r="F138"/>
       <c r="G138" t="n">
-        <v>0.003443489</v>
+        <v>0.003611205844</v>
       </c>
       <c r="H138" t="n">
-        <v>0.99858164</v>
+        <v>0.9978901187</v>
       </c>
       <c r="I138" t="n">
-        <v>21.76531836</v>
+        <v>17.03755774</v>
       </c>
       <c r="J138" t="n">
-        <v>0.36885992</v>
+        <v>0.4243276394</v>
       </c>
       <c r="K138" t="n">
-        <v>0.208026749</v>
+        <v>0.2435244304</v>
       </c>
       <c r="L138" t="n">
-        <v>0.38001658</v>
+        <v>0.383738795</v>
       </c>
       <c r="M138" t="n">
-        <v>0.019077701</v>
+        <v>0.01915084821</v>
       </c>
     </row>
     <row r="139">
@@ -5900,25 +5900,25 @@
       <c r="E140"/>
       <c r="F140"/>
       <c r="G140" t="n">
-        <v>0.003670018</v>
+        <v>0.003841199745</v>
       </c>
       <c r="H140" t="n">
-        <v>0.999164383</v>
+        <v>0.9986899036</v>
       </c>
       <c r="I140" t="n">
-        <v>22.00180447</v>
+        <v>17.57807132</v>
       </c>
       <c r="J140" t="n">
-        <v>0.36885992</v>
+        <v>0.5913959046</v>
       </c>
       <c r="K140" t="n">
-        <v>0.284540459</v>
+        <v>0.2801415148</v>
       </c>
       <c r="L140" t="n">
-        <v>0.325526873</v>
+        <v>0.3365741565</v>
       </c>
       <c r="M140" t="n">
-        <v>0.019060035</v>
+        <v>0.01913220536</v>
       </c>
     </row>
     <row r="141">
@@ -5974,25 +5974,25 @@
         <v>92</v>
       </c>
       <c r="G142" t="n">
-        <v>0.001086565</v>
+        <v>0.00112382419</v>
       </c>
       <c r="H142" t="n">
-        <v>0.998310517</v>
+        <v>0.9649402231</v>
       </c>
       <c r="I142" t="n">
-        <v>42.47753596</v>
+        <v>33.25588838</v>
       </c>
       <c r="J142" t="n">
-        <v>0.098273676</v>
+        <v>0.1487768382</v>
       </c>
       <c r="K142" t="n">
-        <v>0.115494724</v>
+        <v>0.1320614168</v>
       </c>
       <c r="L142" t="n">
-        <v>0.181728511</v>
+        <v>0.2277337819</v>
       </c>
       <c r="M142" t="n">
-        <v>0.017208908</v>
+        <v>0.01719386889</v>
       </c>
     </row>
     <row r="143">
@@ -6050,25 +6050,25 @@
         <v>92</v>
       </c>
       <c r="G144" t="n">
-        <v>0.001686946</v>
+        <v>0.001747799759</v>
       </c>
       <c r="H144" t="n">
-        <v>0.998181677</v>
+        <v>0.9645403369</v>
       </c>
       <c r="I144" t="n">
-        <v>38.86831145</v>
+        <v>30.30262563</v>
       </c>
       <c r="J144" t="n">
-        <v>0.098273676</v>
+        <v>0.1487768382</v>
       </c>
       <c r="K144" t="n">
-        <v>0.144772861</v>
+        <v>0.1480684212</v>
       </c>
       <c r="L144" t="n">
-        <v>0.191527528</v>
+        <v>0.2414522146</v>
       </c>
       <c r="M144" t="n">
-        <v>0.017373607</v>
+        <v>0.01737157543</v>
       </c>
     </row>
     <row r="145">
@@ -6126,25 +6126,25 @@
         <v>95</v>
       </c>
       <c r="G146" t="n">
-        <v>0.001438974</v>
+        <v>0.001501163817</v>
       </c>
       <c r="H146" t="n">
-        <v>0.998274232</v>
+        <v>0.9640799439</v>
       </c>
       <c r="I146" t="n">
-        <v>45.35369521</v>
+        <v>35.35793006</v>
       </c>
       <c r="J146" t="n">
-        <v>0.098273676</v>
+        <v>0.1487768382</v>
       </c>
       <c r="K146" t="n">
-        <v>0.1065651</v>
+        <v>0.1188221864</v>
       </c>
       <c r="L146" t="n">
-        <v>0.159267507</v>
+        <v>0.2011162269</v>
       </c>
       <c r="M146" t="n">
-        <v>0.017082766</v>
+        <v>0.01706059375</v>
       </c>
     </row>
     <row r="147">
@@ -6202,25 +6202,25 @@
         <v>95</v>
       </c>
       <c r="G148" t="n">
-        <v>0.0000187</v>
+        <v>0.00003663171778</v>
       </c>
       <c r="H148" t="n">
-        <v>0.998017587</v>
+        <v>0.9622675292</v>
       </c>
       <c r="I148" t="n">
-        <v>41.7451596</v>
+        <v>32.21166602</v>
       </c>
       <c r="J148" t="n">
-        <v>0.090676075</v>
+        <v>0.1487768382</v>
       </c>
       <c r="K148" t="n">
-        <v>0.098946404</v>
+        <v>0.112306445</v>
       </c>
       <c r="L148" t="n">
-        <v>0.15843918</v>
+        <v>0.2023010249</v>
       </c>
       <c r="M148" t="n">
-        <v>0.017661164</v>
+        <v>0.01765956395</v>
       </c>
     </row>
     <row r="149">
@@ -6278,25 +6278,25 @@
         <v>92</v>
       </c>
       <c r="G150" t="n">
-        <v>0.001032382</v>
+        <v>0.001047685475</v>
       </c>
       <c r="H150" t="n">
-        <v>0.998208141</v>
+        <v>0.9541553811</v>
       </c>
       <c r="I150" t="n">
-        <v>45.64855025</v>
+        <v>35.77846642</v>
       </c>
       <c r="J150" t="n">
-        <v>0.098273676</v>
+        <v>0.1487768382</v>
       </c>
       <c r="K150" t="n">
-        <v>0.091605465</v>
+        <v>0.1001065453</v>
       </c>
       <c r="L150" t="n">
-        <v>0.12475774</v>
+        <v>0.1573114157</v>
       </c>
       <c r="M150" t="n">
-        <v>0.017488338</v>
+        <v>0.01748989717</v>
       </c>
     </row>
     <row r="151">
@@ -6354,25 +6354,25 @@
         <v>92</v>
       </c>
       <c r="G152" t="n">
-        <v>0.001059082</v>
+        <v>0.00109272312</v>
       </c>
       <c r="H152" t="n">
-        <v>0.998117027</v>
+        <v>0.954819135</v>
       </c>
       <c r="I152" t="n">
-        <v>42.47218426</v>
+        <v>32.634796</v>
       </c>
       <c r="J152" t="n">
-        <v>0.090676075</v>
+        <v>0.1487768382</v>
       </c>
       <c r="K152" t="n">
-        <v>0.108206556</v>
+        <v>0.1133424315</v>
       </c>
       <c r="L152" t="n">
-        <v>0.156468717</v>
+        <v>0.1922152256</v>
       </c>
       <c r="M152" t="n">
-        <v>0.017380662</v>
+        <v>0.01737567955</v>
       </c>
     </row>
     <row r="153">
@@ -6430,25 +6430,25 @@
         <v>95</v>
       </c>
       <c r="G154" t="n">
-        <v>0.001075488</v>
+        <v>0.001090874277</v>
       </c>
       <c r="H154" t="n">
-        <v>0.998463534</v>
+        <v>0.9994579584</v>
       </c>
       <c r="I154" t="n">
-        <v>20.28081709</v>
+        <v>20.50910277</v>
       </c>
       <c r="J154" t="n">
-        <v>0.172603108</v>
+        <v>2.926507403</v>
       </c>
       <c r="K154" t="n">
-        <v>0.142220048</v>
+        <v>0.1721985212</v>
       </c>
       <c r="L154" t="n">
-        <v>0.216962845</v>
+        <v>0.2612446632</v>
       </c>
       <c r="M154" t="n">
-        <v>0.017516242</v>
+        <v>0.01751697706</v>
       </c>
     </row>
     <row r="155">
@@ -6506,25 +6506,25 @@
         <v>95</v>
       </c>
       <c r="G156" t="n">
-        <v>0.003466463</v>
+        <v>0.003526645148</v>
       </c>
       <c r="H156" t="n">
-        <v>0.99807401</v>
+        <v>0.9781051126</v>
       </c>
       <c r="I156" t="n">
-        <v>43.67214478</v>
+        <v>36.05329534</v>
       </c>
       <c r="J156" t="n">
-        <v>0.125103846</v>
+        <v>0.1487768382</v>
       </c>
       <c r="K156" t="n">
-        <v>0.090791297</v>
+        <v>0.1166349597</v>
       </c>
       <c r="L156" t="n">
-        <v>0.221010255</v>
+        <v>0.2697936088</v>
       </c>
       <c r="M156" t="n">
-        <v>0.01786269</v>
+        <v>0.01789620905</v>
       </c>
     </row>
     <row r="157">
@@ -6582,25 +6582,25 @@
         <v>92</v>
       </c>
       <c r="G158" t="n">
-        <v>0.000767719</v>
+        <v>0.0007873147174</v>
       </c>
       <c r="H158" t="n">
-        <v>0.998024578</v>
+        <v>0.9687007925</v>
       </c>
       <c r="I158" t="n">
-        <v>42.18953537</v>
+        <v>32.93456721</v>
       </c>
       <c r="J158" t="n">
-        <v>0.098273676</v>
+        <v>0.1487768382</v>
       </c>
       <c r="K158" t="n">
-        <v>0.154945531</v>
+        <v>0.1648586724</v>
       </c>
       <c r="L158" t="n">
-        <v>0.196330737</v>
+        <v>0.2494563427</v>
       </c>
       <c r="M158" t="n">
-        <v>0.017367301</v>
+        <v>0.01735927631</v>
       </c>
     </row>
     <row r="159">
@@ -6658,25 +6658,25 @@
         <v>95</v>
       </c>
       <c r="G160" t="n">
-        <v>0.000828315</v>
+        <v>0.0008689380972</v>
       </c>
       <c r="H160" t="n">
-        <v>0.998384972</v>
+        <v>0.9668825284</v>
       </c>
       <c r="I160" t="n">
-        <v>46.23666979</v>
+        <v>36.60732582</v>
       </c>
       <c r="J160" t="n">
-        <v>0.098273676</v>
+        <v>0.1487768382</v>
       </c>
       <c r="K160" t="n">
-        <v>0.176976089</v>
+        <v>0.1969198415</v>
       </c>
       <c r="L160" t="n">
-        <v>0.214938239</v>
+        <v>0.2576204095</v>
       </c>
       <c r="M160" t="n">
-        <v>0.017335313</v>
+        <v>0.0173196805</v>
       </c>
     </row>
     <row r="161">
@@ -6734,25 +6734,25 @@
         <v>92</v>
       </c>
       <c r="G162" t="n">
-        <v>0.001235508</v>
+        <v>0.001351616979</v>
       </c>
       <c r="H162" t="n">
-        <v>0.998403963</v>
+        <v>0.9969253405</v>
       </c>
       <c r="I162" t="n">
-        <v>37.83424722</v>
+        <v>33.3489681</v>
       </c>
       <c r="J162" t="n">
-        <v>0.146946632</v>
+        <v>0.1487768382</v>
       </c>
       <c r="K162" t="n">
-        <v>0.120464395</v>
+        <v>0.1078059316</v>
       </c>
       <c r="L162" t="n">
-        <v>0.130787072</v>
+        <v>0.1681378255</v>
       </c>
       <c r="M162" t="n">
-        <v>0.017451291</v>
+        <v>0.01746284442</v>
       </c>
     </row>
     <row r="163">
@@ -6810,25 +6810,25 @@
         <v>92</v>
       </c>
       <c r="G164" t="n">
-        <v>0.000824688</v>
+        <v>0.0007937613179</v>
       </c>
       <c r="H164" t="n">
-        <v>0.998297541</v>
+        <v>0.9942276257</v>
       </c>
       <c r="I164" t="n">
-        <v>42.8669483</v>
+        <v>35.67569033</v>
       </c>
       <c r="J164" t="n">
-        <v>0.125103846</v>
+        <v>0.1487768382</v>
       </c>
       <c r="K164" t="n">
-        <v>0.128896908</v>
+        <v>0.1370265821</v>
       </c>
       <c r="L164" t="n">
-        <v>0.167566418</v>
+        <v>0.2350099549</v>
       </c>
       <c r="M164" t="n">
-        <v>0.017481459</v>
+        <v>0.01748640034</v>
       </c>
     </row>
     <row r="165">
@@ -6886,25 +6886,25 @@
         <v>95</v>
       </c>
       <c r="G166" t="n">
-        <v>0.001438861</v>
+        <v>0.001386859646</v>
       </c>
       <c r="H166" t="n">
-        <v>0.998011514</v>
+        <v>0.9759773096</v>
       </c>
       <c r="I166" t="n">
-        <v>44.52845104</v>
+        <v>36.118567</v>
       </c>
       <c r="J166" t="n">
-        <v>0.115431988</v>
+        <v>0.1487768382</v>
       </c>
       <c r="K166" t="n">
-        <v>0.128309112</v>
+        <v>0.1486066244</v>
       </c>
       <c r="L166" t="n">
-        <v>0.184525757</v>
+        <v>0.2249090762</v>
       </c>
       <c r="M166" t="n">
-        <v>0.01764173</v>
+        <v>0.01762566378</v>
       </c>
     </row>
     <row r="167">
@@ -6962,25 +6962,25 @@
         <v>95</v>
       </c>
       <c r="G168" t="n">
-        <v>0.000479482</v>
+        <v>0.000491684713</v>
       </c>
       <c r="H168" t="n">
-        <v>0.99812104</v>
+        <v>0.9744148084</v>
       </c>
       <c r="I168" t="n">
-        <v>46.6709541</v>
+        <v>37.2777845</v>
       </c>
       <c r="J168" t="n">
-        <v>0.106507867</v>
+        <v>0.1487768382</v>
       </c>
       <c r="K168" t="n">
-        <v>0.092286484</v>
+        <v>0.100009045</v>
       </c>
       <c r="L168" t="n">
-        <v>0.132139707</v>
+        <v>0.1524915323</v>
       </c>
       <c r="M168" t="n">
-        <v>0.017740057</v>
+        <v>0.01774240393</v>
       </c>
     </row>
     <row r="169">
@@ -7038,25 +7038,25 @@
         <v>92</v>
       </c>
       <c r="G170" t="n">
-        <v>0.00282281</v>
+        <v>0.002593926772</v>
       </c>
       <c r="H170" t="n">
-        <v>0.999493818</v>
+        <v>0.9981351597</v>
       </c>
       <c r="I170" t="n">
-        <v>28.19223751</v>
+        <v>28.70130293</v>
       </c>
       <c r="J170" t="n">
-        <v>29.75060383</v>
+        <v>28.9461893</v>
       </c>
       <c r="K170" t="n">
-        <v>0.299872426</v>
+        <v>0.4137206222</v>
       </c>
       <c r="L170" t="n">
-        <v>0.52126036</v>
+        <v>0.8136697615</v>
       </c>
       <c r="M170" t="n">
-        <v>0.018389595</v>
+        <v>0.01845064221</v>
       </c>
     </row>
     <row r="171">
@@ -7114,25 +7114,25 @@
         <v>92</v>
       </c>
       <c r="G172" t="n">
-        <v>0.002873698</v>
+        <v>0.003139539945</v>
       </c>
       <c r="H172" t="n">
-        <v>0.998937611</v>
+        <v>0.9981270834</v>
       </c>
       <c r="I172" t="n">
-        <v>27.83710297</v>
+        <v>27.60120501</v>
       </c>
       <c r="J172" t="n">
-        <v>0.098273676</v>
+        <v>19.75685304</v>
       </c>
       <c r="K172" t="n">
-        <v>0.255040755</v>
+        <v>0.4189861196</v>
       </c>
       <c r="L172" t="n">
-        <v>0.408088731</v>
+        <v>0.6517685002</v>
       </c>
       <c r="M172" t="n">
-        <v>0.018695971</v>
+        <v>0.01881955794</v>
       </c>
     </row>
     <row r="173">
@@ -7190,25 +7190,25 @@
         <v>95</v>
       </c>
       <c r="G174" t="n">
-        <v>0.001005804</v>
+        <v>0.001104559584</v>
       </c>
       <c r="H174" t="n">
-        <v>0.998849444</v>
+        <v>0.9983590376</v>
       </c>
       <c r="I174" t="n">
-        <v>43.16705597</v>
+        <v>44.00594144</v>
       </c>
       <c r="J174" t="n">
-        <v>6.990287164</v>
+        <v>15.7106297</v>
       </c>
       <c r="K174" t="n">
-        <v>0.38441635</v>
+        <v>0.3765886809</v>
       </c>
       <c r="L174" t="n">
-        <v>0.679881647</v>
+        <v>0.7504292451</v>
       </c>
       <c r="M174" t="n">
-        <v>0.018006318</v>
+        <v>0.01807606708</v>
       </c>
     </row>
     <row r="175">
@@ -7266,25 +7266,25 @@
         <v>95</v>
       </c>
       <c r="G176" t="n">
-        <v>0.004908073</v>
+        <v>0.00520758282</v>
       </c>
       <c r="H176" t="n">
-        <v>0.998885923</v>
+        <v>0.9977955808</v>
       </c>
       <c r="I176" t="n">
-        <v>52.15774541</v>
+        <v>51.36728127</v>
       </c>
       <c r="J176" t="n">
-        <v>0.453296594</v>
+        <v>0.2352792781</v>
       </c>
       <c r="K176" t="n">
-        <v>0.477906688</v>
+        <v>0.414137293</v>
       </c>
       <c r="L176" t="n">
-        <v>0.693555248</v>
+        <v>0.6662992199</v>
       </c>
       <c r="M176" t="n">
-        <v>0.019741438</v>
+        <v>0.01989473552</v>
       </c>
     </row>
     <row r="177">
@@ -7342,25 +7342,25 @@
         <v>92</v>
       </c>
       <c r="G178" t="n">
-        <v>0.000343256</v>
+        <v>0.0002936432628</v>
       </c>
       <c r="H178" t="n">
-        <v>0.998742978</v>
+        <v>0.9970862742</v>
       </c>
       <c r="I178" t="n">
-        <v>44.77321715</v>
+        <v>40.92243128</v>
       </c>
       <c r="J178" t="n">
-        <v>0.279714856</v>
+        <v>0.2352792781</v>
       </c>
       <c r="K178" t="n">
-        <v>0.310355073</v>
+        <v>0.2825431635</v>
       </c>
       <c r="L178" t="n">
-        <v>0.416775242</v>
+        <v>0.3971300607</v>
       </c>
       <c r="M178" t="n">
-        <v>0.017659969</v>
+        <v>0.01763152028</v>
       </c>
     </row>
     <row r="179">
@@ -7418,25 +7418,25 @@
         <v>92</v>
       </c>
       <c r="G180" t="n">
-        <v>0.000868187</v>
+        <v>0.000919971656</v>
       </c>
       <c r="H180" t="n">
-        <v>0.99800771</v>
+        <v>0.9975038456</v>
       </c>
       <c r="I180" t="n">
-        <v>52.56948935</v>
+        <v>48.65456508</v>
       </c>
       <c r="J180" t="n">
-        <v>0.418251945</v>
+        <v>0.3720763218</v>
       </c>
       <c r="K180" t="n">
-        <v>0.262397919</v>
+        <v>0.2722140138</v>
       </c>
       <c r="L180" t="n">
-        <v>0.445268964</v>
+        <v>0.4869355776</v>
       </c>
       <c r="M180" t="n">
-        <v>0.018009401</v>
+        <v>0.01802049863</v>
       </c>
     </row>
     <row r="181">
@@ -7494,25 +7494,25 @@
         <v>95</v>
       </c>
       <c r="G182" t="n">
-        <v>0.001727267</v>
+        <v>0.002119448847</v>
       </c>
       <c r="H182" t="n">
-        <v>0.983654412</v>
+        <v>0.9753035996</v>
       </c>
       <c r="I182" t="n">
-        <v>53.74611704</v>
+        <v>57.90574331</v>
       </c>
       <c r="J182" t="n">
-        <v>241.0196487</v>
+        <v>106.0624695</v>
       </c>
       <c r="K182" t="n">
-        <v>1.292871138</v>
+        <v>0.9607836648</v>
       </c>
       <c r="L182" t="n">
-        <v>1.692403539</v>
+        <v>1.427259549</v>
       </c>
       <c r="M182" t="n">
-        <v>0.017361517</v>
+        <v>0.0172858608</v>
       </c>
     </row>
     <row r="183">
@@ -7570,25 +7570,25 @@
         <v>95</v>
       </c>
       <c r="G184" t="n">
-        <v>0.000776606</v>
+        <v>0.0008960563543</v>
       </c>
       <c r="H184" t="n">
-        <v>0.998398191</v>
+        <v>0.9979706128</v>
       </c>
       <c r="I184" t="n">
-        <v>50.86975184</v>
+        <v>47.47203793</v>
       </c>
       <c r="J184" t="n">
-        <v>0.328552297</v>
+        <v>0.2352792781</v>
       </c>
       <c r="K184" t="n">
-        <v>0.336501924</v>
+        <v>0.3840505824</v>
       </c>
       <c r="L184" t="n">
-        <v>0.485860491</v>
+        <v>0.5354910264</v>
       </c>
       <c r="M184" t="n">
-        <v>0.017474255</v>
+        <v>0.01740630779</v>
       </c>
     </row>
     <row r="185">
@@ -7646,25 +7646,25 @@
         <v>92</v>
       </c>
       <c r="G186" t="n">
-        <v>0.001481818</v>
+        <v>0.001649800079</v>
       </c>
       <c r="H186" t="n">
-        <v>0.999052642</v>
+        <v>0.9982468999</v>
       </c>
       <c r="I186" t="n">
-        <v>49.36266165</v>
+        <v>51.03013738</v>
       </c>
       <c r="J186" t="n">
-        <v>14.4210008</v>
+        <v>19.75685304</v>
       </c>
       <c r="K186" t="n">
-        <v>0.593606267</v>
+        <v>0.6153930042</v>
       </c>
       <c r="L186" t="n">
-        <v>1.173067077</v>
+        <v>1.171104075</v>
       </c>
       <c r="M186" t="n">
-        <v>0.017130761</v>
+        <v>0.01702138679</v>
       </c>
     </row>
     <row r="187">
@@ -7722,25 +7722,25 @@
         <v>92</v>
       </c>
       <c r="G188" t="n">
-        <v>0.000396267</v>
+        <v>0.0004941669981</v>
       </c>
       <c r="H188" t="n">
-        <v>0.998976795</v>
+        <v>0.996582247</v>
       </c>
       <c r="I188" t="n">
-        <v>58.93295166</v>
+        <v>60.59286224</v>
       </c>
       <c r="J188" t="n">
-        <v>12.2774006</v>
+        <v>31.24396363</v>
       </c>
       <c r="K188" t="n">
-        <v>0.23875548</v>
+        <v>0.2645548286</v>
       </c>
       <c r="L188" t="n">
-        <v>0.56197066</v>
+        <v>0.5893539287</v>
       </c>
       <c r="M188" t="n">
-        <v>0.017737721</v>
+        <v>0.01775102777</v>
       </c>
     </row>
     <row r="189">
@@ -7798,25 +7798,25 @@
         <v>95</v>
       </c>
       <c r="G190" t="n">
-        <v>0.001280225</v>
+        <v>0.00153746918</v>
       </c>
       <c r="H190" t="n">
-        <v>0.998833174</v>
+        <v>0.9983955637</v>
       </c>
       <c r="I190" t="n">
-        <v>47.53865145</v>
+        <v>48.6667972</v>
       </c>
       <c r="J190" t="n">
-        <v>4.674902758</v>
+        <v>19.75685304</v>
       </c>
       <c r="K190" t="n">
-        <v>0.603800166</v>
+        <v>0.5858252931</v>
       </c>
       <c r="L190" t="n">
-        <v>0.969789081</v>
+        <v>0.9463857716</v>
       </c>
       <c r="M190" t="n">
-        <v>0.017165356</v>
+        <v>0.01707299971</v>
       </c>
     </row>
     <row r="191">
@@ -7874,25 +7874,25 @@
         <v>95</v>
       </c>
       <c r="G192" t="n">
-        <v>0.000845547</v>
+        <v>0.001018217068</v>
       </c>
       <c r="H192" t="n">
-        <v>0.99874944</v>
+        <v>0.997214745</v>
       </c>
       <c r="I192" t="n">
-        <v>53.72619817</v>
+        <v>57.75443619</v>
       </c>
       <c r="J192" t="n">
-        <v>16.93886767</v>
+        <v>24.8451685</v>
       </c>
       <c r="K192" t="n">
-        <v>0.215343431</v>
+        <v>0.3107292407</v>
       </c>
       <c r="L192" t="n">
-        <v>0.488183342</v>
+        <v>0.5171701432</v>
       </c>
       <c r="M192" t="n">
-        <v>0.017330685</v>
+        <v>0.01724255824</v>
       </c>
     </row>
     <row r="193">
@@ -7950,25 +7950,25 @@
         <v>92</v>
       </c>
       <c r="G194" t="n">
-        <v>0.002321963</v>
+        <v>0.002371269874</v>
       </c>
       <c r="H194" t="n">
-        <v>0.998130672</v>
+        <v>0.9964977542</v>
       </c>
       <c r="I194" t="n">
-        <v>60.77933788</v>
+        <v>64.88962328</v>
       </c>
       <c r="J194" t="n">
-        <v>16.93886767</v>
+        <v>36.40118945</v>
       </c>
       <c r="K194" t="n">
-        <v>0.453695537</v>
+        <v>0.5062300147</v>
       </c>
       <c r="L194" t="n">
-        <v>0.619983092</v>
+        <v>0.7003591818</v>
       </c>
       <c r="M194" t="n">
-        <v>0.018228484</v>
+        <v>0.01830269105</v>
       </c>
     </row>
     <row r="195">
@@ -8026,25 +8026,25 @@
         <v>92</v>
       </c>
       <c r="G196" t="n">
-        <v>0.002451287</v>
+        <v>0.002608418627</v>
       </c>
       <c r="H196" t="n">
-        <v>0.995932428</v>
+        <v>0.9962122976</v>
       </c>
       <c r="I196" t="n">
-        <v>35.85415864</v>
+        <v>37.73982338</v>
       </c>
       <c r="J196" t="n">
-        <v>78.13212386</v>
+        <v>78.13809733</v>
       </c>
       <c r="K196" t="n">
-        <v>0.752312797</v>
+        <v>0.7440534086</v>
       </c>
       <c r="L196" t="n">
-        <v>0.900819911</v>
+        <v>0.8756408545</v>
       </c>
       <c r="M196" t="n">
-        <v>0.018160676</v>
+        <v>0.01826126676</v>
       </c>
     </row>
     <row r="197">
@@ -8102,25 +8102,25 @@
         <v>95</v>
       </c>
       <c r="G198" t="n">
-        <v>0.002453128</v>
+        <v>0.002461238008</v>
       </c>
       <c r="H198" t="n">
-        <v>0.999325468</v>
+        <v>0.9976585964</v>
       </c>
       <c r="I198" t="n">
-        <v>31.93174348</v>
+        <v>32.36781714</v>
       </c>
       <c r="J198" t="n">
-        <v>11.32822691</v>
+        <v>19.75685304</v>
       </c>
       <c r="K198" t="n">
-        <v>0.45591596</v>
+        <v>0.4693025626</v>
       </c>
       <c r="L198" t="n">
-        <v>0.808554753</v>
+        <v>0.8144845581</v>
       </c>
       <c r="M198" t="n">
-        <v>0.018445122</v>
+        <v>0.01850671007</v>
       </c>
     </row>
     <row r="199">
@@ -8178,25 +8178,25 @@
         <v>95</v>
       </c>
       <c r="G200" t="n">
-        <v>0.00174079</v>
+        <v>0.002026037738</v>
       </c>
       <c r="H200" t="n">
-        <v>0.998634085</v>
+        <v>0.9991265816</v>
       </c>
       <c r="I200" t="n">
-        <v>56.10034375</v>
+        <v>54.82280245</v>
       </c>
       <c r="J200" t="n">
-        <v>2.090873271</v>
+        <v>19.75685304</v>
       </c>
       <c r="K200" t="n">
-        <v>0.315675526</v>
+        <v>0.2905968305</v>
       </c>
       <c r="L200" t="n">
-        <v>0.489681454</v>
+        <v>0.4648210553</v>
       </c>
       <c r="M200" t="n">
-        <v>0.018433689</v>
+        <v>0.01855063605</v>
       </c>
     </row>
     <row r="201">
@@ -8252,25 +8252,25 @@
       <c r="E202"/>
       <c r="F202"/>
       <c r="G202" t="n">
-        <v>0.002497369</v>
+        <v>0.002497368973</v>
       </c>
       <c r="H202" t="n">
-        <v>0.996792344</v>
+        <v>0.9987851302</v>
       </c>
       <c r="I202" t="n">
-        <v>9.308210716</v>
+        <v>10.57108363</v>
       </c>
       <c r="J202" t="n">
-        <v>24.15583065</v>
+        <v>13.18123281</v>
       </c>
       <c r="K202" t="n">
-        <v>1.328369197</v>
+        <v>1.392910612</v>
       </c>
       <c r="L202" t="n">
-        <v>2.143404835</v>
+        <v>2.246877662</v>
       </c>
       <c r="M202" t="n">
-        <v>0.018656129</v>
+        <v>0.01865612926</v>
       </c>
     </row>
     <row r="203">
@@ -8324,25 +8324,25 @@
       <c r="E204"/>
       <c r="F204"/>
       <c r="G204" t="n">
-        <v>0.001207926</v>
+        <v>0.001207926056</v>
       </c>
       <c r="H204" t="n">
-        <v>0.998939031</v>
+        <v>0.9989063352</v>
       </c>
       <c r="I204" t="n">
-        <v>2.150905288</v>
+        <v>2.236939772</v>
       </c>
       <c r="J204" t="n">
-        <v>4.106716588</v>
+        <v>2.471172489</v>
       </c>
       <c r="K204" t="n">
-        <v>0.235830962</v>
+        <v>0.2792239687</v>
       </c>
       <c r="L204" t="n">
-        <v>0.725775631</v>
+        <v>0.7705203453</v>
       </c>
       <c r="M204" t="n">
-        <v>0.017151313</v>
+        <v>0.01715131292</v>
       </c>
     </row>
     <row r="205">
@@ -8396,25 +8396,25 @@
       <c r="E206"/>
       <c r="F206"/>
       <c r="G206" t="n">
-        <v>0.002741181</v>
+        <v>0.002741180913</v>
       </c>
       <c r="H206" t="n">
-        <v>0.998180066</v>
+        <v>0.9982507803</v>
       </c>
       <c r="I206" t="n">
-        <v>5.621358608</v>
+        <v>6.517426079</v>
       </c>
       <c r="J206" t="n">
-        <v>9.251128622</v>
+        <v>2.304672325</v>
       </c>
       <c r="K206" t="n">
-        <v>0.567820637</v>
+        <v>0.5974030287</v>
       </c>
       <c r="L206" t="n">
-        <v>1.920235313</v>
+        <v>2.243069181</v>
       </c>
       <c r="M206" t="n">
-        <v>0.018435108</v>
+        <v>0.01843510845</v>
       </c>
     </row>
     <row r="207">
@@ -8468,25 +8468,25 @@
       <c r="E208"/>
       <c r="F208"/>
       <c r="G208" t="n">
-        <v>0.001527964</v>
+        <v>0.001527963591</v>
       </c>
       <c r="H208" t="n">
-        <v>0.998477453</v>
+        <v>0.9992552423</v>
       </c>
       <c r="I208" t="n">
-        <v>2.80364994</v>
+        <v>2.863681175</v>
       </c>
       <c r="J208" t="n">
-        <v>4.760164956</v>
+        <v>4.96411459</v>
       </c>
       <c r="K208" t="n">
-        <v>0.238891331</v>
+        <v>0.2960700939</v>
       </c>
       <c r="L208" t="n">
-        <v>0.784581198</v>
+        <v>0.8130058735</v>
       </c>
       <c r="M208" t="n">
-        <v>0.017746369</v>
+        <v>0.01774636867</v>
       </c>
     </row>
     <row r="209">
@@ -8540,25 +8540,25 @@
       <c r="E210"/>
       <c r="F210"/>
       <c r="G210" t="n">
-        <v>0.001611834</v>
+        <v>0.00161183366</v>
       </c>
       <c r="H210" t="n">
-        <v>0.998738107</v>
+        <v>0.9990380229</v>
       </c>
       <c r="I210" t="n">
-        <v>8.80952165</v>
+        <v>12.03945469</v>
       </c>
       <c r="J210" t="n">
-        <v>3.542969895</v>
+        <v>0.8679504928</v>
       </c>
       <c r="K210" t="n">
-        <v>0.534082478</v>
+        <v>0.5622825894</v>
       </c>
       <c r="L210" t="n">
-        <v>1.333613117</v>
+        <v>1.548061886</v>
       </c>
       <c r="M210" t="n">
-        <v>0.018018255</v>
+        <v>0.01801825487</v>
       </c>
     </row>
     <row r="211">
@@ -8612,25 +8612,25 @@
       <c r="E212"/>
       <c r="F212"/>
       <c r="G212" t="n">
-        <v>0.002557239</v>
+        <v>0.00255723947</v>
       </c>
       <c r="H212" t="n">
-        <v>0.998851324</v>
+        <v>0.9990944353</v>
       </c>
       <c r="I212" t="n">
-        <v>2.54328739</v>
+        <v>2.776346432</v>
       </c>
       <c r="J212" t="n">
-        <v>1.57277818</v>
+        <v>0.7040659359</v>
       </c>
       <c r="K212" t="n">
-        <v>0.2612346</v>
+        <v>0.2441171874</v>
       </c>
       <c r="L212" t="n">
-        <v>0.789202721</v>
+        <v>0.8005582883</v>
       </c>
       <c r="M212" t="n">
-        <v>0.017446715</v>
+        <v>0.01744671518</v>
       </c>
     </row>
     <row r="213">
@@ -8684,22 +8684,22 @@
       <c r="E214"/>
       <c r="F214"/>
       <c r="G214" t="n">
-        <v>0.00624885</v>
+        <v>0.006248850204</v>
       </c>
       <c r="H214" t="n">
-        <v>0.998842613</v>
+        <v>0.9981115521</v>
       </c>
       <c r="I214" t="n">
-        <v>1.607141904</v>
+        <v>1.769674314</v>
       </c>
       <c r="J214" t="n">
-        <v>1.460843997</v>
+        <v>0.4029603757</v>
       </c>
       <c r="K214" t="n">
-        <v>0.469801094</v>
+        <v>0.4946464452</v>
       </c>
       <c r="L214" t="n">
-        <v>1.316650475</v>
+        <v>1.344782923</v>
       </c>
       <c r="M214" t="n">
         <v>0.020194359</v>
@@ -8756,25 +8756,25 @@
       <c r="E216"/>
       <c r="F216"/>
       <c r="G216" t="n">
-        <v>0.003363863</v>
+        <v>0.003363863486</v>
       </c>
       <c r="H216" t="n">
-        <v>0.998112053</v>
+        <v>0.9990944618</v>
       </c>
       <c r="I216" t="n">
-        <v>6.511572224</v>
+        <v>7.391159844</v>
       </c>
       <c r="J216" t="n">
-        <v>24.15583065</v>
+        <v>8.089075974</v>
       </c>
       <c r="K216" t="n">
-        <v>1.575018208</v>
+        <v>1.594739528</v>
       </c>
       <c r="L216" t="n">
-        <v>2.830659827</v>
+        <v>2.713974409</v>
       </c>
       <c r="M216" t="n">
-        <v>0.018641153</v>
+        <v>0.0186411527</v>
       </c>
     </row>
     <row r="217">
@@ -8828,25 +8828,25 @@
       <c r="E218"/>
       <c r="F218"/>
       <c r="G218" t="n">
-        <v>0.002936614</v>
+        <v>0.002936613867</v>
       </c>
       <c r="H218" t="n">
-        <v>0.997689352</v>
+        <v>0.9971469768</v>
       </c>
       <c r="I218" t="n">
-        <v>2.525680929</v>
+        <v>2.979608517</v>
       </c>
       <c r="J218" t="n">
-        <v>0.248357109</v>
+        <v>0.2005966173</v>
       </c>
       <c r="K218" t="n">
-        <v>0.415814283</v>
+        <v>0.4764487463</v>
       </c>
       <c r="L218" t="n">
-        <v>0.784701051</v>
+        <v>0.9200220785</v>
       </c>
       <c r="M218" t="n">
-        <v>0.018790941</v>
+        <v>0.01879094063</v>
       </c>
     </row>
     <row r="219">
@@ -8900,25 +8900,25 @@
       <c r="E220"/>
       <c r="F220"/>
       <c r="G220" t="n">
-        <v>0.000398862</v>
+        <v>0.0003988616117</v>
       </c>
       <c r="H220" t="n">
-        <v>0.998277354</v>
+        <v>0.9992354141</v>
       </c>
       <c r="I220" t="n">
-        <v>9.356764506</v>
+        <v>11.4752327</v>
       </c>
       <c r="J220" t="n">
-        <v>14.40709866</v>
+        <v>1.869509022</v>
       </c>
       <c r="K220" t="n">
-        <v>0.747548129</v>
+        <v>0.7906935246</v>
       </c>
       <c r="L220" t="n">
-        <v>1.48117707</v>
+        <v>1.465227048</v>
       </c>
       <c r="M220" t="n">
-        <v>0.017648197</v>
+        <v>0.01764819729</v>
       </c>
     </row>
     <row r="221">
@@ -8972,25 +8972,25 @@
       <c r="E222"/>
       <c r="F222"/>
       <c r="G222" t="n">
-        <v>0.002015098</v>
+        <v>0.002015098422</v>
       </c>
       <c r="H222" t="n">
-        <v>0.998759483</v>
+        <v>0.9986299366</v>
       </c>
       <c r="I222" t="n">
-        <v>3.547817429</v>
+        <v>4.025461282</v>
       </c>
       <c r="J222" t="n">
-        <v>2.27908865</v>
+        <v>0.7053243869</v>
       </c>
       <c r="K222" t="n">
-        <v>0.472793936</v>
+        <v>0.5745940106</v>
       </c>
       <c r="L222" t="n">
-        <v>0.830423955</v>
+        <v>0.9623382569</v>
       </c>
       <c r="M222" t="n">
-        <v>0.017776682</v>
+        <v>0.01777668228</v>
       </c>
     </row>
     <row r="223">
@@ -9044,25 +9044,25 @@
       <c r="E224"/>
       <c r="F224"/>
       <c r="G224" t="n">
-        <v>0.001374148</v>
+        <v>0.001374148085</v>
       </c>
       <c r="H224" t="n">
-        <v>0.998747438</v>
+        <v>0.9992220177</v>
       </c>
       <c r="I224" t="n">
-        <v>3.133722524</v>
+        <v>3.370453436</v>
       </c>
       <c r="J224" t="n">
-        <v>1.575589372</v>
+        <v>0.869501872</v>
       </c>
       <c r="K224" t="n">
-        <v>0.313128335</v>
+        <v>0.3665928083</v>
       </c>
       <c r="L224" t="n">
-        <v>0.658570814</v>
+        <v>0.6931811469</v>
       </c>
       <c r="M224" t="n">
-        <v>0.017312785</v>
+        <v>0.01731278487</v>
       </c>
     </row>
     <row r="225">
@@ -9116,25 +9116,25 @@
       <c r="E226"/>
       <c r="F226"/>
       <c r="G226" t="n">
-        <v>0.001598971</v>
+        <v>0.001598970816</v>
       </c>
       <c r="H226" t="n">
-        <v>0.998867894</v>
+        <v>0.998959671</v>
       </c>
       <c r="I226" t="n">
-        <v>4.603142435</v>
+        <v>5.623537426</v>
       </c>
       <c r="J226" t="n">
-        <v>1.359301425</v>
+        <v>0.4328443807</v>
       </c>
       <c r="K226" t="n">
-        <v>0.341743949</v>
+        <v>0.4132042531</v>
       </c>
       <c r="L226" t="n">
-        <v>0.843399527</v>
+        <v>0.9724676261</v>
       </c>
       <c r="M226" t="n">
-        <v>0.017588785</v>
+        <v>0.01758878535</v>
       </c>
     </row>
     <row r="227">
@@ -9188,25 +9188,25 @@
       <c r="E228"/>
       <c r="F228"/>
       <c r="G228" t="n">
-        <v>0.002319588</v>
+        <v>0.002319587693</v>
       </c>
       <c r="H228" t="n">
-        <v>0.998410605</v>
+        <v>0.9980742265</v>
       </c>
       <c r="I228" t="n">
-        <v>5.349714799</v>
+        <v>6.294519503</v>
       </c>
       <c r="J228" t="n">
-        <v>1.826292405</v>
+        <v>0.6134810504</v>
       </c>
       <c r="K228" t="n">
-        <v>0.416044569</v>
+        <v>0.4898209223</v>
       </c>
       <c r="L228" t="n">
-        <v>0.965038183</v>
+        <v>1.166893765</v>
       </c>
       <c r="M228" t="n">
-        <v>0.017728293</v>
+        <v>0.01772829343</v>
       </c>
     </row>
     <row r="229">
@@ -9260,25 +9260,25 @@
       <c r="E230"/>
       <c r="F230"/>
       <c r="G230" t="n">
-        <v>0.004003784</v>
+        <v>0.004003783605</v>
       </c>
       <c r="H230" t="n">
-        <v>0.999362922</v>
+        <v>0.9983478885</v>
       </c>
       <c r="I230" t="n">
-        <v>2.38253027</v>
+        <v>2.566894033</v>
       </c>
       <c r="J230" t="n">
-        <v>0.44911881</v>
+        <v>0.2848187271</v>
       </c>
       <c r="K230" t="n">
-        <v>0.219242261</v>
+        <v>0.2533298612</v>
       </c>
       <c r="L230" t="n">
-        <v>0.691678266</v>
+        <v>0.7570702786</v>
       </c>
       <c r="M230" t="n">
-        <v>0.01613179</v>
+        <v>0.01613178951</v>
       </c>
     </row>
     <row r="231">
@@ -9332,25 +9332,25 @@
       <c r="E232"/>
       <c r="F232"/>
       <c r="G232" t="n">
-        <v>0.002164642</v>
+        <v>0.002164641667</v>
       </c>
       <c r="H232" t="n">
-        <v>0.998975179</v>
+        <v>0.9972995369</v>
       </c>
       <c r="I232" t="n">
-        <v>4.402523859</v>
+        <v>5.366511868</v>
       </c>
       <c r="J232" t="n">
-        <v>1.696315685</v>
+        <v>0.5721465437</v>
       </c>
       <c r="K232" t="n">
-        <v>0.497258155</v>
+        <v>0.5831522012</v>
       </c>
       <c r="L232" t="n">
-        <v>0.964603357</v>
+        <v>1.128906332</v>
       </c>
       <c r="M232" t="n">
-        <v>0.018456007</v>
+        <v>0.0184560074</v>
       </c>
     </row>
     <row r="233">
@@ -9404,25 +9404,25 @@
       <c r="E234"/>
       <c r="F234"/>
       <c r="G234" t="n">
-        <v>0.00196486</v>
+        <v>0.001964860107</v>
       </c>
       <c r="H234" t="n">
-        <v>0.997168268</v>
+        <v>0.9972427458</v>
       </c>
       <c r="I234" t="n">
-        <v>1.993351348</v>
+        <v>2.255922934</v>
       </c>
       <c r="J234" t="n">
-        <v>4.114056954</v>
+        <v>3.762199924</v>
       </c>
       <c r="K234" t="n">
-        <v>0.435024576</v>
+        <v>0.5700520843</v>
       </c>
       <c r="L234" t="n">
-        <v>1.023725068</v>
+        <v>1.161245412</v>
       </c>
       <c r="M234" t="n">
-        <v>0.017603595</v>
+        <v>0.01760359512</v>
       </c>
     </row>
     <row r="235">
@@ -9476,25 +9476,25 @@
       <c r="E236"/>
       <c r="F236"/>
       <c r="G236" t="n">
-        <v>0.008242305</v>
+        <v>0.008242304939</v>
       </c>
       <c r="H236" t="n">
-        <v>0.998548411</v>
+        <v>0.9984379394</v>
       </c>
       <c r="I236" t="n">
-        <v>2.615928344</v>
+        <v>3.196936703</v>
       </c>
       <c r="J236" t="n">
-        <v>3.296699742</v>
+        <v>1.416862277</v>
       </c>
       <c r="K236" t="n">
-        <v>0.321646687</v>
+        <v>0.3639931278</v>
       </c>
       <c r="L236" t="n">
-        <v>0.799773377</v>
+        <v>1.020091096</v>
       </c>
       <c r="M236" t="n">
-        <v>0.018094707</v>
+        <v>0.01809470653</v>
       </c>
     </row>
     <row r="237">
@@ -9548,25 +9548,25 @@
       <c r="E238"/>
       <c r="F238"/>
       <c r="G238" t="n">
-        <v>0.001314596</v>
+        <v>0.001314585174</v>
       </c>
       <c r="H238" t="n">
-        <v>0.999181485</v>
+        <v>0.9980580549</v>
       </c>
       <c r="I238" t="n">
-        <v>2.37860258</v>
+        <v>2.583375946</v>
       </c>
       <c r="J238" t="n">
-        <v>1.011722088</v>
+        <v>0.3053953463</v>
       </c>
       <c r="K238" t="n">
-        <v>0.522489478</v>
+        <v>0.5475636663</v>
       </c>
       <c r="L238" t="n">
-        <v>0.944067774</v>
+        <v>1.085502078</v>
       </c>
       <c r="M238" t="n">
-        <v>0.018021391</v>
+        <v>0.0180213882</v>
       </c>
     </row>
     <row r="239">
@@ -9620,25 +9620,25 @@
       <c r="E240"/>
       <c r="F240"/>
       <c r="G240" t="n">
-        <v>0.005221996</v>
+        <v>0.005221995624</v>
       </c>
       <c r="H240" t="n">
-        <v>0.99832448</v>
+        <v>0.998383955</v>
       </c>
       <c r="I240" t="n">
-        <v>2.867665758</v>
+        <v>3.679019886</v>
       </c>
       <c r="J240" t="n">
-        <v>0.41715515</v>
+        <v>0.3274585155</v>
       </c>
       <c r="K240" t="n">
-        <v>0.476099368</v>
+        <v>0.4990315413</v>
       </c>
       <c r="L240" t="n">
-        <v>1.603440466</v>
+        <v>2.067776774</v>
       </c>
       <c r="M240" t="n">
-        <v>0.018762949</v>
+        <v>0.01876294872</v>
       </c>
     </row>
     <row r="241">
@@ -9692,25 +9692,25 @@
       <c r="E242"/>
       <c r="F242"/>
       <c r="G242" t="n">
-        <v>0.003165475</v>
+        <v>0.003165474784</v>
       </c>
       <c r="H242" t="n">
-        <v>0.998522498</v>
+        <v>0.9989085143</v>
       </c>
       <c r="I242" t="n">
-        <v>2.307964304</v>
+        <v>2.481635398</v>
       </c>
       <c r="J242" t="n">
-        <v>2.637016951</v>
+        <v>1.626072174</v>
       </c>
       <c r="K242" t="n">
-        <v>0.537598516</v>
+        <v>0.6354807573</v>
       </c>
       <c r="L242" t="n">
-        <v>0.945207842</v>
+        <v>0.9795674545</v>
       </c>
       <c r="M242" t="n">
-        <v>0.016852209</v>
+        <v>0.01685220944</v>
       </c>
     </row>
     <row r="243">
@@ -9764,25 +9764,25 @@
       <c r="E244"/>
       <c r="F244"/>
       <c r="G244" t="n">
-        <v>0.002151629</v>
+        <v>0.002151629239</v>
       </c>
       <c r="H244" t="n">
-        <v>0.999091822</v>
+        <v>0.9928499718</v>
       </c>
       <c r="I244" t="n">
-        <v>5.645974739</v>
+        <v>7.543740545</v>
       </c>
       <c r="J244" t="n">
-        <v>0.184851107</v>
+        <v>0.02307881568</v>
       </c>
       <c r="K244" t="n">
-        <v>0.19885573</v>
+        <v>0.2084701882</v>
       </c>
       <c r="L244" t="n">
-        <v>0.419978432</v>
+        <v>0.6504150776</v>
       </c>
       <c r="M244" t="n">
-        <v>0.017720722</v>
+        <v>0.01772072222</v>
       </c>
     </row>
     <row r="245">
@@ -9836,25 +9836,25 @@
       <c r="E246"/>
       <c r="F246"/>
       <c r="G246" t="n">
-        <v>0.001145127</v>
+        <v>0.001145127179</v>
       </c>
       <c r="H246" t="n">
-        <v>0.996254709</v>
+        <v>0.9972241189</v>
       </c>
       <c r="I246" t="n">
-        <v>2.567221318</v>
+        <v>3.345962699</v>
       </c>
       <c r="J246" t="n">
-        <v>0.248357109</v>
+        <v>0.02152383454</v>
       </c>
       <c r="K246" t="n">
-        <v>0.541497278</v>
+        <v>0.8297868743</v>
       </c>
       <c r="L246" t="n">
-        <v>1.225121517</v>
+        <v>1.476394998</v>
       </c>
       <c r="M246" t="n">
-        <v>0.018090906</v>
+        <v>0.01809090569</v>
       </c>
     </row>
     <row r="247">
@@ -9908,25 +9908,25 @@
       <c r="E248"/>
       <c r="F248"/>
       <c r="G248" t="n">
-        <v>0.001605707</v>
+        <v>0.001605707112</v>
       </c>
       <c r="H248" t="n">
-        <v>0.999157129</v>
+        <v>0.9983954072</v>
       </c>
       <c r="I248" t="n">
-        <v>4.521951677</v>
+        <v>5.378756986</v>
       </c>
       <c r="J248" t="n">
-        <v>1.087299779</v>
+        <v>0.4967569638</v>
       </c>
       <c r="K248" t="n">
-        <v>0.477867064</v>
+        <v>0.4421616629</v>
       </c>
       <c r="L248" t="n">
-        <v>1.136150895</v>
+        <v>1.202305523</v>
       </c>
       <c r="M248" t="n">
-        <v>0.017951478</v>
+        <v>0.01795147839</v>
       </c>
     </row>
     <row r="249">
@@ -9980,25 +9980,25 @@
       <c r="E250"/>
       <c r="F250"/>
       <c r="G250" t="n">
-        <v>0.004730907</v>
+        <v>0.004730906524</v>
       </c>
       <c r="H250" t="n">
-        <v>0.998441338</v>
+        <v>0.9985936718</v>
       </c>
       <c r="I250" t="n">
-        <v>0.840671315</v>
+        <v>0.8373208818</v>
       </c>
       <c r="J250" t="n">
-        <v>4.106716588</v>
+        <v>6.119605403</v>
       </c>
       <c r="K250" t="n">
-        <v>0.236181261</v>
+        <v>0.2372713805</v>
       </c>
       <c r="L250" t="n">
-        <v>0.645263226</v>
+        <v>0.6548498712</v>
       </c>
       <c r="M250" t="n">
-        <v>0.017024155</v>
+        <v>0.01702415473</v>
       </c>
     </row>
     <row r="251">
@@ -10052,25 +10052,25 @@
       <c r="E252"/>
       <c r="F252"/>
       <c r="G252" t="n">
-        <v>0.005048873</v>
+        <v>0.005048872863</v>
       </c>
       <c r="H252" t="n">
-        <v>0.998607157</v>
+        <v>0.997674166</v>
       </c>
       <c r="I252" t="n">
-        <v>2.860816577</v>
+        <v>3.132390077</v>
       </c>
       <c r="J252" t="n">
-        <v>0.267386965</v>
+        <v>0.02307881568</v>
       </c>
       <c r="K252" t="n">
-        <v>0.394743189</v>
+        <v>0.4032856382</v>
       </c>
       <c r="L252" t="n">
-        <v>0.959679217</v>
+        <v>1.139738048</v>
       </c>
       <c r="M252" t="n">
-        <v>0.019839747</v>
+        <v>0.01983974679</v>
       </c>
     </row>
     <row r="253">
@@ -10124,25 +10124,25 @@
       <c r="E254"/>
       <c r="F254"/>
       <c r="G254" t="n">
-        <v>0.006600089</v>
+        <v>0.006600089152</v>
       </c>
       <c r="H254" t="n">
-        <v>0.997452031</v>
+        <v>0.9972935424</v>
       </c>
       <c r="I254" t="n">
-        <v>1.673980018</v>
+        <v>1.803013841</v>
       </c>
       <c r="J254" t="n">
-        <v>0.248357109</v>
+        <v>0.2005966173</v>
       </c>
       <c r="K254" t="n">
-        <v>0.423831716</v>
+        <v>0.5206435615</v>
       </c>
       <c r="L254" t="n">
-        <v>0.886896189</v>
+        <v>1.056125247</v>
       </c>
       <c r="M254" t="n">
-        <v>0.01917068</v>
+        <v>0.01917068037</v>
       </c>
     </row>
     <row r="255">
@@ -10196,25 +10196,25 @@
       <c r="E256"/>
       <c r="F256"/>
       <c r="G256" t="n">
-        <v>0.007925134</v>
+        <v>0.007925134399</v>
       </c>
       <c r="H256" t="n">
-        <v>0.997776133</v>
+        <v>0.9986430277</v>
       </c>
       <c r="I256" t="n">
-        <v>1.277976802</v>
+        <v>1.283007923</v>
       </c>
       <c r="J256" t="n">
-        <v>30.14483296</v>
+        <v>30.44265429</v>
       </c>
       <c r="K256" t="n">
-        <v>0.318137304</v>
+        <v>0.3343471435</v>
       </c>
       <c r="L256" t="n">
-        <v>0.569794215</v>
+        <v>0.57369698</v>
       </c>
       <c r="M256" t="n">
-        <v>0.020010196</v>
+        <v>0.02001019556</v>
       </c>
     </row>
     <row r="257">
@@ -10268,25 +10268,25 @@
       <c r="E258"/>
       <c r="F258"/>
       <c r="G258" t="n">
-        <v>0.005798405</v>
+        <v>0.005798404857</v>
       </c>
       <c r="H258" t="n">
-        <v>0.99936771</v>
+        <v>0.9993623986</v>
       </c>
       <c r="I258" t="n">
-        <v>0.792990213</v>
+        <v>0.7917519407</v>
       </c>
       <c r="J258" t="n">
-        <v>0.333680738</v>
+        <v>0.3504891638</v>
       </c>
       <c r="K258" t="n">
-        <v>0.255755951</v>
+        <v>0.2542400942</v>
       </c>
       <c r="L258" t="n">
-        <v>0.636459611</v>
+        <v>0.6381518996</v>
       </c>
       <c r="M258" t="n">
-        <v>0.017902139</v>
+        <v>0.01790213881</v>
       </c>
     </row>
     <row r="259">
@@ -10340,25 +10340,25 @@
       <c r="E260"/>
       <c r="F260"/>
       <c r="G260" t="n">
-        <v>0.001323687</v>
+        <v>0.001323686662</v>
       </c>
       <c r="H260" t="n">
-        <v>0.996443674</v>
+        <v>0.9979554509</v>
       </c>
       <c r="I260" t="n">
-        <v>2.354877312</v>
+        <v>2.856355289</v>
       </c>
       <c r="J260" t="n">
-        <v>577.7743903</v>
+        <v>0.2651545599</v>
       </c>
       <c r="K260" t="n">
-        <v>0.439036876</v>
+        <v>1.150174306</v>
       </c>
       <c r="L260" t="n">
-        <v>0.553179806</v>
+        <v>1.787192949</v>
       </c>
       <c r="M260" t="n">
-        <v>0.018264309</v>
+        <v>0.01826430911</v>
       </c>
     </row>
     <row r="261">
@@ -10412,25 +10412,25 @@
       <c r="E262"/>
       <c r="F262"/>
       <c r="G262" t="n">
-        <v>0.004515766</v>
+        <v>0.00451576597</v>
       </c>
       <c r="H262" t="n">
-        <v>0.998735788</v>
+        <v>0.997154982</v>
       </c>
       <c r="I262" t="n">
-        <v>1.044714249</v>
+        <v>1.086428135</v>
       </c>
       <c r="J262" t="n">
-        <v>0.44911881</v>
+        <v>0.3764818433</v>
       </c>
       <c r="K262" t="n">
-        <v>0.321858616</v>
+        <v>0.3754673647</v>
       </c>
       <c r="L262" t="n">
-        <v>0.558063788</v>
+        <v>0.6162093871</v>
       </c>
       <c r="M262" t="n">
-        <v>0.017185191</v>
+        <v>0.0171851908</v>
       </c>
     </row>
     <row r="263">
@@ -10484,25 +10484,25 @@
       <c r="E264"/>
       <c r="F264"/>
       <c r="G264" t="n">
-        <v>0.001674514</v>
+        <v>0.001674513564</v>
       </c>
       <c r="H264" t="n">
-        <v>0.999283158</v>
+        <v>0.9993224798</v>
       </c>
       <c r="I264" t="n">
-        <v>2.77797854</v>
+        <v>2.80639215</v>
       </c>
       <c r="J264" t="n">
-        <v>1.826292405</v>
+        <v>1.872850592</v>
       </c>
       <c r="K264" t="n">
-        <v>0.150247611</v>
+        <v>0.1553091062</v>
       </c>
       <c r="L264" t="n">
-        <v>0.396202131</v>
+        <v>0.4246988587</v>
       </c>
       <c r="M264" t="n">
-        <v>0.016979689</v>
+        <v>0.01697968866</v>
       </c>
     </row>
     <row r="265">
@@ -10556,25 +10556,25 @@
       <c r="E266"/>
       <c r="F266"/>
       <c r="G266" t="n">
-        <v>0.007887921</v>
+        <v>0.007887921169</v>
       </c>
       <c r="H266" t="n">
-        <v>0.999014544</v>
+        <v>0.9989535673</v>
       </c>
       <c r="I266" t="n">
-        <v>0.834382949</v>
+        <v>0.836322376</v>
       </c>
       <c r="J266" t="n">
-        <v>2.844147555</v>
+        <v>2.475589476</v>
       </c>
       <c r="K266" t="n">
-        <v>0.23742786</v>
+        <v>0.2415390813</v>
       </c>
       <c r="L266" t="n">
-        <v>0.443767838</v>
+        <v>0.4452693998</v>
       </c>
       <c r="M266" t="n">
-        <v>0.017661177</v>
+        <v>0.01766117694</v>
       </c>
     </row>
     <row r="267">
@@ -10628,25 +10628,25 @@
       <c r="E268"/>
       <c r="F268"/>
       <c r="G268" t="n">
-        <v>0.006700542</v>
+        <v>0.006700542038</v>
       </c>
       <c r="H268" t="n">
-        <v>0.999002586</v>
+        <v>0.9988999039</v>
       </c>
       <c r="I268" t="n">
-        <v>0.80637089</v>
+        <v>0.8045920272</v>
       </c>
       <c r="J268" t="n">
-        <v>1.463455117</v>
+        <v>1.519222947</v>
       </c>
       <c r="K268" t="n">
-        <v>0.219749375</v>
+        <v>0.2226955581</v>
       </c>
       <c r="L268" t="n">
-        <v>0.362871045</v>
+        <v>0.362854394</v>
       </c>
       <c r="M268" t="n">
-        <v>0.016852429</v>
+        <v>0.01685242918</v>
       </c>
     </row>
     <row r="269">
@@ -10700,25 +10700,25 @@
       <c r="E270"/>
       <c r="F270"/>
       <c r="G270" t="n">
-        <v>0.003714559</v>
+        <v>0.003714558856</v>
       </c>
       <c r="H270" t="n">
-        <v>0.997350928</v>
+        <v>0.9978852651</v>
       </c>
       <c r="I270" t="n">
-        <v>1.259813993</v>
+        <v>1.268869278</v>
       </c>
       <c r="J270" t="n">
-        <v>0.214647035</v>
+        <v>0.2310398638</v>
       </c>
       <c r="K270" t="n">
-        <v>0.216082849</v>
+        <v>0.2295236835</v>
       </c>
       <c r="L270" t="n">
-        <v>0.466835617</v>
+        <v>0.4898670178</v>
       </c>
       <c r="M270" t="n">
-        <v>0.017648244</v>
+        <v>0.01764824366</v>
       </c>
     </row>
     <row r="271">
@@ -10772,25 +10772,25 @@
       <c r="E272"/>
       <c r="F272"/>
       <c r="G272" t="n">
-        <v>0.005346324</v>
+        <v>0.005346323534</v>
       </c>
       <c r="H272" t="n">
-        <v>0.998677472</v>
+        <v>0.997134209</v>
       </c>
       <c r="I272" t="n">
-        <v>6.43937731</v>
+        <v>8.282732173</v>
       </c>
       <c r="J272" t="n">
-        <v>0.248801024</v>
+        <v>0.02156230635</v>
       </c>
       <c r="K272" t="n">
-        <v>0.379248519</v>
+        <v>0.4275118357</v>
       </c>
       <c r="L272" t="n">
-        <v>0.607296621</v>
+        <v>0.7838887177</v>
       </c>
       <c r="M272" t="n">
-        <v>0.018765024</v>
+        <v>0.01876502383</v>
       </c>
     </row>
     <row r="273">
@@ -10844,25 +10844,25 @@
       <c r="E274"/>
       <c r="F274"/>
       <c r="G274" t="n">
-        <v>0.005882299</v>
+        <v>0.005882298625</v>
       </c>
       <c r="H274" t="n">
-        <v>0.997522878</v>
+        <v>0.9972647387</v>
       </c>
       <c r="I274" t="n">
-        <v>1.590235962</v>
+        <v>1.777125791</v>
       </c>
       <c r="J274" t="n">
-        <v>0.288389493</v>
+        <v>0.2154730932</v>
       </c>
       <c r="K274" t="n">
-        <v>0.914044976</v>
+        <v>1.190505461</v>
       </c>
       <c r="L274" t="n">
-        <v>1.080132769</v>
+        <v>1.427259757</v>
       </c>
       <c r="M274" t="n">
-        <v>0.018581198</v>
+        <v>0.0185811976</v>
       </c>
     </row>
     <row r="275">
@@ -10916,25 +10916,25 @@
       <c r="E276"/>
       <c r="F276"/>
       <c r="G276" t="n">
-        <v>0.00033554</v>
+        <v>0.0003355399204</v>
       </c>
       <c r="H276" t="n">
-        <v>0.995283554</v>
+        <v>0.9966382578</v>
       </c>
       <c r="I276" t="n">
-        <v>1.678392222</v>
+        <v>1.772005873</v>
       </c>
       <c r="J276" t="n">
-        <v>20.87710489</v>
+        <v>4.325433284</v>
       </c>
       <c r="K276" t="n">
-        <v>0.857761907</v>
+        <v>0.8329872936</v>
       </c>
       <c r="L276" t="n">
-        <v>1.179110486</v>
+        <v>1.250906707</v>
       </c>
       <c r="M276" t="n">
-        <v>0.017697052</v>
+        <v>0.01769705167</v>
       </c>
     </row>
     <row r="277">
@@ -10988,25 +10988,25 @@
       <c r="E278"/>
       <c r="F278"/>
       <c r="G278" t="n">
-        <v>0.0034027</v>
+        <v>0.003402700285</v>
       </c>
       <c r="H278" t="n">
-        <v>0.997551501</v>
+        <v>0.998227809</v>
       </c>
       <c r="I278" t="n">
-        <v>2.312486407</v>
+        <v>2.747241046</v>
       </c>
       <c r="J278" t="n">
-        <v>0.93971811</v>
+        <v>0.4641150562</v>
       </c>
       <c r="K278" t="n">
-        <v>0.754058708</v>
+        <v>0.6891430375</v>
       </c>
       <c r="L278" t="n">
-        <v>1.61062611</v>
+        <v>1.642895783</v>
       </c>
       <c r="M278" t="n">
-        <v>0.018977718</v>
+        <v>0.01897771794</v>
       </c>
     </row>
     <row r="279">
@@ -11060,25 +11060,25 @@
       <c r="E280"/>
       <c r="F280"/>
       <c r="G280" t="n">
-        <v>0.001219625</v>
+        <v>0.001219624955</v>
       </c>
       <c r="H280" t="n">
-        <v>0.998831146</v>
+        <v>0.9991351107</v>
       </c>
       <c r="I280" t="n">
-        <v>1.414700698</v>
+        <v>1.437607172</v>
       </c>
       <c r="J280" t="n">
-        <v>1.696315685</v>
+        <v>1.321398361</v>
       </c>
       <c r="K280" t="n">
-        <v>0.370551997</v>
+        <v>0.3912929804</v>
       </c>
       <c r="L280" t="n">
-        <v>0.78502233</v>
+        <v>0.8204300259</v>
       </c>
       <c r="M280" t="n">
-        <v>0.017497969</v>
+        <v>0.01749796943</v>
       </c>
     </row>
     <row r="281">

--- a/R_analysis/derived_data/SSFA_all_data.xlsx
+++ b/R_analysis/derived_data/SSFA_all_data.xlsx
@@ -72,7 +72,7 @@
     <t xml:space="preserve">Dry lucerne</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;5%</t>
+    <t xml:space="preserve">0-5%</t>
   </si>
   <si>
     <t xml:space="preserve">Toothfrax</t>
@@ -342,7 +342,7 @@
     <t xml:space="preserve">Control</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;20%</t>
+    <t xml:space="preserve">20-100%</t>
   </si>
   <si>
     <t xml:space="preserve">FLT3-8_LSM_50x-0.95_20190321_Area2_Topo</t>

--- a/R_analysis/derived_data/SSFA_all_data.xlsx
+++ b/R_analysis/derived_data/SSFA_all_data.xlsx
@@ -42,7 +42,7 @@
     <t xml:space="preserve">epLsar</t>
   </si>
   <si>
-    <t xml:space="preserve">R²</t>
+    <t xml:space="preserve">Rsquared</t>
   </si>
   <si>
     <t xml:space="preserve">Asfc</t>
@@ -297,6 +297,141 @@
     <t xml:space="preserve">capor_2CC6R2_txP4_#1_1_100xL_4</t>
   </si>
   <si>
+    <t xml:space="preserve">Sheeps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L5_Ovis_10098_lm2_sin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L5_Ovis_11723_lm2_sin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L5_Ovis_20939_lm2_sin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L5_Ovis_31042_lm2_sin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L5_Ovis_70519_lm2_sin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L5_Ovis_80140_lm2_sin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L5_Ovis_80307_lm2_sin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L5_Ovis_8045_lm2_sin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L5_Ovis_80729_lm2_sin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L5_Ovis_90287_lm2_sin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L6-Ovis-10106-lm2sin-a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clover+dust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L6-Ovis-11707-lm2sin-a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L6-Ovis-20094-lm2sin-a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L6-Ovis-21376-lm2sin-a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L6-Ovis-70379-lm2sin-a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L6-Ovis-80147-lm2sin-a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L6-Ovis-80288-lm2sin-a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L6-Ovis-80748-lm2sin-a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L6-Ovis-90074-lm2sin-a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L6-Ovis-90206-lm2sin-a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L7_Ovis_10053_lm2_sin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L7_Ovis_11739_lm2_sin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L7_Ovis_20965_lm2_sin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L7_Ovis_31028_lm2_sin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L7_Ovis_70520_lm2_sin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L7_Ovis_7898_lm2_sin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L7_Ovis_80133_lm2_dex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L7_Ovis_80312_lm2_sin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L7_Ovis_80718_lm2_sin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L7_Ovis_90455_lm2_sin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L8-Ovis-00234-lm2sin-a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grass+dust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L8-Ovis-08043-lm2sin-a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L8-Ovis-12772-lm2dex-a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L8-Ovis-80356-lm2sin-a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L8-Ovis-90045-lm2dex-a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L8-Ovis-90256-lm2sin-a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L8-Ovis-90300-lm2sin-a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L8-Ovis-90730-lm2sin-a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L8-Ovis-90764-lm2sin-a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L8-Ovis-90814-lm2sin-a</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lithics</t>
   </si>
   <si>
@@ -417,141 +552,6 @@
     <t xml:space="preserve">QTZ3-5_LSM2_50x-0.95_20190731_Area2_Topo</t>
   </si>
   <si>
-    <t xml:space="preserve">Sheeps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L5_Ovis_10098_lm2_sin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L5_Ovis_11723_lm2_sin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L5_Ovis_20939_lm2_sin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L5_Ovis_31042_lm2_sin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L5_Ovis_70519_lm2_sin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L5_Ovis_80140_lm2_sin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L5_Ovis_80307_lm2_sin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L5_Ovis_8045_lm2_sin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L5_Ovis_80729_lm2_sin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L5_Ovis_90287_lm2_sin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L6-Ovis-10106-lm2sin-a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clover+dust</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L6-Ovis-11707-lm2sin-a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L6-Ovis-20094-lm2sin-a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L6-Ovis-21376-lm2sin-a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L6-Ovis-70379-lm2sin-a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L6-Ovis-80147-lm2sin-a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L6-Ovis-80288-lm2sin-a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L6-Ovis-80748-lm2sin-a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L6-Ovis-90074-lm2sin-a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L6-Ovis-90206-lm2sin-a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L7_Ovis_10053_lm2_sin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L7_Ovis_11739_lm2_sin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L7_Ovis_20965_lm2_sin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L7_Ovis_31028_lm2_sin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L7_Ovis_70520_lm2_sin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L7_Ovis_7898_lm2_sin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L7_Ovis_80133_lm2_dex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L7_Ovis_80312_lm2_sin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L7_Ovis_80718_lm2_sin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L7_Ovis_90455_lm2_sin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L8-Ovis-00234-lm2sin-a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grass+dust</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L8-Ovis-08043-lm2sin-a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L8-Ovis-12772-lm2dex-a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L8-Ovis-80356-lm2sin-a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L8-Ovis-90045-lm2dex-a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L8-Ovis-90256-lm2sin-a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L8-Ovis-90300-lm2sin-a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L8-Ovis-90730-lm2sin-a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L8-Ovis-90764-lm2sin-a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L8-Ovis-90814-lm2sin-a</t>
-  </si>
-  <si>
     <t xml:space="preserve">variable</t>
   </si>
   <si>
@@ -570,7 +570,7 @@
     <t xml:space="preserve">Toothfrax_units</t>
   </si>
   <si>
-    <t xml:space="preserve">μm</t>
+    <t xml:space="preserve">µm</t>
   </si>
 </sst>
 </file>
@@ -2961,7 +2961,7 @@
         <v>0.235202154383175</v>
       </c>
       <c r="N49" t="n">
-        <v>0.54880221426309</v>
+        <v>0.548802214263089</v>
       </c>
       <c r="O49"/>
     </row>
@@ -4302,7 +4302,7 @@
         <v>0.119219</v>
       </c>
       <c r="M81" t="n">
-        <v>0.445934448685366</v>
+        <v>0.445934448685367</v>
       </c>
       <c r="N81" t="n">
         <v>0.569361919024553</v>
@@ -6839,39 +6839,37 @@
       <c r="C142" t="s">
         <v>17</v>
       </c>
-      <c r="D142"/>
-      <c r="E142" t="s">
+      <c r="D142" t="s">
         <v>96</v>
       </c>
-      <c r="F142" t="s">
-        <v>97</v>
-      </c>
+      <c r="E142"/>
+      <c r="F142"/>
       <c r="G142" t="n">
-        <v>1.766335786</v>
+        <v>0</v>
       </c>
       <c r="H142" t="s">
         <v>19</v>
       </c>
       <c r="I142" t="n">
-        <v>0.002819223341</v>
+        <v>0.00249736901</v>
       </c>
       <c r="J142" t="n">
-        <v>0.9989831778</v>
+        <v>0.9986400762</v>
       </c>
       <c r="K142" t="n">
-        <v>44.6740719</v>
+        <v>10.737686</v>
       </c>
       <c r="L142" t="n">
-        <v>0.1004648173</v>
+        <v>12.28573282</v>
       </c>
       <c r="M142" t="n">
-        <v>0.07663489617</v>
+        <v>1.440181705</v>
       </c>
       <c r="N142" t="n">
-        <v>0.2368160362</v>
+        <v>2.348140732</v>
       </c>
       <c r="O142" t="n">
-        <v>0.01654115803</v>
+        <v>0.01865612928</v>
       </c>
     </row>
     <row r="143">
@@ -6884,36 +6882,34 @@
       <c r="C143" t="s">
         <v>20</v>
       </c>
-      <c r="D143"/>
-      <c r="E143" t="s">
+      <c r="D143" t="s">
         <v>96</v>
       </c>
-      <c r="F143" t="s">
-        <v>97</v>
-      </c>
+      <c r="E143"/>
+      <c r="F143"/>
       <c r="G143" t="n">
-        <v>1.766335786</v>
+        <v>0</v>
       </c>
       <c r="H143" t="s">
         <v>19</v>
       </c>
       <c r="I143" t="n">
-        <v>0.00133</v>
+        <v>0.001922</v>
       </c>
       <c r="J143" t="n">
-        <v>0.999313</v>
+        <v>0.999544</v>
       </c>
       <c r="K143" t="n">
-        <v>42.523937</v>
+        <v>9.562123</v>
       </c>
       <c r="L143" t="n">
-        <v>0.014514</v>
+        <v>2.695842</v>
       </c>
       <c r="M143" t="n">
-        <v>0.0845713386389417</v>
+        <v>1.32961447881624</v>
       </c>
       <c r="N143" t="n">
-        <v>0.14819769555288</v>
+        <v>2.05741521677801</v>
       </c>
       <c r="O143"/>
     </row>
@@ -6922,44 +6918,42 @@
         <v>94</v>
       </c>
       <c r="B144" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C144" t="s">
         <v>17</v>
       </c>
-      <c r="D144"/>
-      <c r="E144" t="s">
+      <c r="D144" t="s">
         <v>96</v>
       </c>
-      <c r="F144" t="s">
-        <v>97</v>
-      </c>
+      <c r="E144"/>
+      <c r="F144"/>
       <c r="G144" t="n">
-        <v>1.92280994</v>
+        <v>0</v>
       </c>
       <c r="H144" t="s">
         <v>19</v>
       </c>
       <c r="I144" t="n">
-        <v>0.002529152347</v>
+        <v>0.001207926056</v>
       </c>
       <c r="J144" t="n">
-        <v>0.9991156514</v>
+        <v>0.9987381341</v>
       </c>
       <c r="K144" t="n">
-        <v>43.74263502</v>
+        <v>2.300115158</v>
       </c>
       <c r="L144" t="n">
-        <v>0.1004648173</v>
+        <v>3.3742984</v>
       </c>
       <c r="M144" t="n">
-        <v>0.09994383088</v>
+        <v>0.2884126033</v>
       </c>
       <c r="N144" t="n">
-        <v>0.2608171702</v>
+        <v>0.8130148397</v>
       </c>
       <c r="O144" t="n">
-        <v>0.01702858706</v>
+        <v>0.01715131292</v>
       </c>
     </row>
     <row r="145">
@@ -6967,41 +6961,39 @@
         <v>94</v>
       </c>
       <c r="B145" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C145" t="s">
         <v>20</v>
       </c>
-      <c r="D145"/>
-      <c r="E145" t="s">
+      <c r="D145" t="s">
         <v>96</v>
       </c>
-      <c r="F145" t="s">
-        <v>97</v>
-      </c>
+      <c r="E145"/>
+      <c r="F145"/>
       <c r="G145" t="n">
-        <v>1.92280994</v>
+        <v>0</v>
       </c>
       <c r="H145" t="s">
         <v>19</v>
       </c>
       <c r="I145" t="n">
-        <v>0.001502</v>
+        <v>0.001416</v>
       </c>
       <c r="J145" t="n">
-        <v>0.99946</v>
+        <v>0.999859</v>
       </c>
       <c r="K145" t="n">
-        <v>39.32644</v>
+        <v>2.230088</v>
       </c>
       <c r="L145" t="n">
-        <v>0.014514</v>
+        <v>1.198152</v>
       </c>
       <c r="M145" t="n">
-        <v>0.114212943510068</v>
+        <v>0.247640320329482</v>
       </c>
       <c r="N145" t="n">
-        <v>0.161106867990514</v>
+        <v>0.73573314598305</v>
       </c>
       <c r="O145"/>
     </row>
@@ -7010,44 +7002,42 @@
         <v>94</v>
       </c>
       <c r="B146" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C146" t="s">
         <v>17</v>
       </c>
-      <c r="D146"/>
-      <c r="E146" t="s">
+      <c r="D146" t="s">
         <v>96</v>
       </c>
-      <c r="F146" t="s">
-        <v>100</v>
-      </c>
+      <c r="E146"/>
+      <c r="F146"/>
       <c r="G146" t="n">
-        <v>2.211462816</v>
+        <v>0</v>
       </c>
       <c r="H146" t="s">
         <v>19</v>
       </c>
       <c r="I146" t="n">
-        <v>0.002683911906</v>
+        <v>0.002741180913</v>
       </c>
       <c r="J146" t="n">
-        <v>0.9986471806</v>
+        <v>0.9973668344</v>
       </c>
       <c r="K146" t="n">
-        <v>45.72611112</v>
+        <v>6.665880271</v>
       </c>
       <c r="L146" t="n">
-        <v>0.1004648173</v>
+        <v>2.720490556</v>
       </c>
       <c r="M146" t="n">
-        <v>0.0925234176</v>
+        <v>0.5665925384</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1887983624</v>
+        <v>2.063353896</v>
       </c>
       <c r="O146" t="n">
-        <v>0.01664714141</v>
+        <v>0.01843510845</v>
       </c>
     </row>
     <row r="147">
@@ -7055,41 +7045,39 @@
         <v>94</v>
       </c>
       <c r="B147" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C147" t="s">
         <v>20</v>
       </c>
-      <c r="D147"/>
-      <c r="E147" t="s">
+      <c r="D147" t="s">
         <v>96</v>
       </c>
-      <c r="F147" t="s">
-        <v>100</v>
-      </c>
+      <c r="E147"/>
+      <c r="F147"/>
       <c r="G147" t="n">
-        <v>2.211462816</v>
+        <v>0</v>
       </c>
       <c r="H147" t="s">
         <v>19</v>
       </c>
       <c r="I147" t="n">
-        <v>0.001594</v>
+        <v>0.002431</v>
       </c>
       <c r="J147" t="n">
-        <v>0.999494</v>
+        <v>0.999686</v>
       </c>
       <c r="K147" t="n">
-        <v>45.697481</v>
+        <v>5.877414</v>
       </c>
       <c r="L147" t="n">
-        <v>0.014514</v>
+        <v>1.198152</v>
       </c>
       <c r="M147" t="n">
-        <v>0.0789746611617883</v>
+        <v>0.483163144536915</v>
       </c>
       <c r="N147" t="n">
-        <v>0.126669001800946</v>
+        <v>1.84533177529235</v>
       </c>
       <c r="O147"/>
     </row>
@@ -7098,44 +7086,42 @@
         <v>94</v>
       </c>
       <c r="B148" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C148" t="s">
         <v>17</v>
       </c>
-      <c r="D148"/>
-      <c r="E148" t="s">
+      <c r="D148" t="s">
         <v>96</v>
       </c>
-      <c r="F148" t="s">
-        <v>100</v>
-      </c>
+      <c r="E148"/>
+      <c r="F148"/>
       <c r="G148" t="n">
-        <v>2.06106252</v>
+        <v>0</v>
       </c>
       <c r="H148" t="s">
         <v>19</v>
       </c>
       <c r="I148" t="n">
-        <v>0.001469931208</v>
+        <v>0.001527963598</v>
       </c>
       <c r="J148" t="n">
-        <v>0.9992655104</v>
+        <v>0.9994838334</v>
       </c>
       <c r="K148" t="n">
-        <v>42.69693339</v>
+        <v>2.934908739</v>
       </c>
       <c r="L148" t="n">
-        <v>0.1004648173</v>
+        <v>5.577438205</v>
       </c>
       <c r="M148" t="n">
-        <v>0.1675429529</v>
+        <v>0.2964396812</v>
       </c>
       <c r="N148" t="n">
-        <v>0.2165747253</v>
+        <v>0.8028658428</v>
       </c>
       <c r="O148" t="n">
-        <v>0.01736527476</v>
+        <v>0.01774636867</v>
       </c>
     </row>
     <row r="149">
@@ -7143,41 +7129,39 @@
         <v>94</v>
       </c>
       <c r="B149" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C149" t="s">
         <v>20</v>
       </c>
-      <c r="D149"/>
-      <c r="E149" t="s">
+      <c r="D149" t="s">
         <v>96</v>
       </c>
-      <c r="F149" t="s">
-        <v>100</v>
-      </c>
+      <c r="E149"/>
+      <c r="F149"/>
       <c r="G149" t="n">
-        <v>2.06106252</v>
+        <v>0</v>
       </c>
       <c r="H149" t="s">
         <v>19</v>
       </c>
       <c r="I149" t="n">
-        <v>0.000699</v>
+        <v>0.000174</v>
       </c>
       <c r="J149" t="n">
-        <v>0.99966</v>
+        <v>0.999297</v>
       </c>
       <c r="K149" t="n">
-        <v>42.19568</v>
+        <v>2.869425</v>
       </c>
       <c r="L149" t="n">
-        <v>0.014514</v>
+        <v>1.630818</v>
       </c>
       <c r="M149" t="n">
-        <v>0.071093552349034</v>
+        <v>0.302847433211672</v>
       </c>
       <c r="N149" t="n">
-        <v>0.133916237950765</v>
+        <v>0.694714417131445</v>
       </c>
       <c r="O149"/>
     </row>
@@ -7186,44 +7170,42 @@
         <v>94</v>
       </c>
       <c r="B150" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C150" t="s">
         <v>17</v>
       </c>
-      <c r="D150"/>
-      <c r="E150" t="s">
-        <v>103</v>
-      </c>
-      <c r="F150" t="s">
-        <v>97</v>
-      </c>
+      <c r="D150" t="s">
+        <v>96</v>
+      </c>
+      <c r="E150"/>
+      <c r="F150"/>
       <c r="G150" t="n">
-        <v>4.101011153</v>
+        <v>0</v>
       </c>
       <c r="H150" t="s">
         <v>19</v>
       </c>
       <c r="I150" t="n">
-        <v>0.001557564455</v>
+        <v>0.001611833672</v>
       </c>
       <c r="J150" t="n">
-        <v>0.9981923748</v>
+        <v>0.9993711665</v>
       </c>
       <c r="K150" t="n">
-        <v>55.58561369</v>
+        <v>12.22969371</v>
       </c>
       <c r="L150" t="n">
-        <v>0.1004648173</v>
+        <v>0.8028019096</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1004931439</v>
+        <v>0.55549291</v>
       </c>
       <c r="N150" t="n">
-        <v>0.2276005903</v>
+        <v>1.630628021</v>
       </c>
       <c r="O150" t="n">
-        <v>0.01701517743</v>
+        <v>0.01801825487</v>
       </c>
     </row>
     <row r="151">
@@ -7231,41 +7213,39 @@
         <v>94</v>
       </c>
       <c r="B151" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C151" t="s">
         <v>20</v>
       </c>
-      <c r="D151"/>
-      <c r="E151" t="s">
-        <v>103</v>
-      </c>
-      <c r="F151" t="s">
-        <v>97</v>
-      </c>
+      <c r="D151" t="s">
+        <v>96</v>
+      </c>
+      <c r="E151"/>
+      <c r="F151"/>
       <c r="G151" t="n">
-        <v>4.101011153</v>
+        <v>0</v>
       </c>
       <c r="H151" t="s">
         <v>19</v>
       </c>
       <c r="I151" t="n">
-        <v>0.000912</v>
+        <v>0.000728</v>
       </c>
       <c r="J151" t="n">
-        <v>0.999409</v>
+        <v>0.999932</v>
       </c>
       <c r="K151" t="n">
-        <v>45.378134</v>
+        <v>10.236008</v>
       </c>
       <c r="L151" t="n">
-        <v>0.014514</v>
+        <v>0.133128</v>
       </c>
       <c r="M151" t="n">
-        <v>0.0788229058864805</v>
+        <v>0.462619939691624</v>
       </c>
       <c r="N151" t="n">
-        <v>0.111926610491855</v>
+        <v>1.37048464218388</v>
       </c>
       <c r="O151"/>
     </row>
@@ -7274,44 +7254,42 @@
         <v>94</v>
       </c>
       <c r="B152" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C152" t="s">
         <v>17</v>
       </c>
-      <c r="D152"/>
-      <c r="E152" t="s">
-        <v>103</v>
-      </c>
-      <c r="F152" t="s">
-        <v>97</v>
-      </c>
+      <c r="D152" t="s">
+        <v>96</v>
+      </c>
+      <c r="E152"/>
+      <c r="F152"/>
       <c r="G152" t="n">
-        <v>3.985318617</v>
+        <v>0</v>
       </c>
       <c r="H152" t="s">
         <v>19</v>
       </c>
       <c r="I152" t="n">
-        <v>0.002058489711</v>
+        <v>0.00255723947</v>
       </c>
       <c r="J152" t="n">
-        <v>0.9976132387</v>
+        <v>0.9992650937</v>
       </c>
       <c r="K152" t="n">
-        <v>54.09233552</v>
+        <v>2.855472131</v>
       </c>
       <c r="L152" t="n">
-        <v>0.1004648173</v>
+        <v>0.7471875767</v>
       </c>
       <c r="M152" t="n">
-        <v>0.1102780491</v>
+        <v>0.2271429298</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1951037382</v>
+        <v>0.8501932621</v>
       </c>
       <c r="O152" t="n">
-        <v>0.01674657191</v>
+        <v>0.01744671518</v>
       </c>
     </row>
     <row r="153">
@@ -7319,41 +7297,39 @@
         <v>94</v>
       </c>
       <c r="B153" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C153" t="s">
         <v>20</v>
       </c>
-      <c r="D153"/>
-      <c r="E153" t="s">
-        <v>103</v>
-      </c>
-      <c r="F153" t="s">
-        <v>97</v>
-      </c>
+      <c r="D153" t="s">
+        <v>96</v>
+      </c>
+      <c r="E153"/>
+      <c r="F153"/>
       <c r="G153" t="n">
-        <v>3.985318617</v>
+        <v>0</v>
       </c>
       <c r="H153" t="s">
         <v>19</v>
       </c>
       <c r="I153" t="n">
-        <v>0.001037</v>
+        <v>0.002977</v>
       </c>
       <c r="J153" t="n">
-        <v>0.999515</v>
+        <v>0.999886</v>
       </c>
       <c r="K153" t="n">
-        <v>42.111092</v>
+        <v>2.565167</v>
       </c>
       <c r="L153" t="n">
-        <v>0.014514</v>
+        <v>0.299538</v>
       </c>
       <c r="M153" t="n">
-        <v>0.0911339327973072</v>
+        <v>0.237940874487442</v>
       </c>
       <c r="N153" t="n">
-        <v>0.137950445030401</v>
+        <v>0.784999277129195</v>
       </c>
       <c r="O153"/>
     </row>
@@ -7362,44 +7338,42 @@
         <v>94</v>
       </c>
       <c r="B154" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C154" t="s">
         <v>17</v>
       </c>
-      <c r="D154"/>
-      <c r="E154" t="s">
-        <v>103</v>
-      </c>
-      <c r="F154" t="s">
-        <v>100</v>
-      </c>
+      <c r="D154" t="s">
+        <v>96</v>
+      </c>
+      <c r="E154"/>
+      <c r="F154"/>
       <c r="G154" t="n">
-        <v>4.444617983</v>
+        <v>0</v>
       </c>
       <c r="H154" t="s">
         <v>19</v>
       </c>
       <c r="I154" t="n">
-        <v>0.00300110989</v>
+        <v>0.006248850204</v>
       </c>
       <c r="J154" t="n">
-        <v>0.9988839764</v>
+        <v>0.9988076935</v>
       </c>
       <c r="K154" t="n">
-        <v>29.39500228</v>
+        <v>1.903044494</v>
       </c>
       <c r="L154" t="n">
-        <v>0.1755818616</v>
+        <v>0.3392058576</v>
       </c>
       <c r="M154" t="n">
-        <v>0.2557165867</v>
+        <v>0.5066210542</v>
       </c>
       <c r="N154" t="n">
-        <v>0.6205777856</v>
+        <v>1.397041149</v>
       </c>
       <c r="O154" t="n">
-        <v>0.01679243852</v>
+        <v>0.020194359</v>
       </c>
     </row>
     <row r="155">
@@ -7407,41 +7381,39 @@
         <v>94</v>
       </c>
       <c r="B155" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C155" t="s">
         <v>20</v>
       </c>
-      <c r="D155"/>
-      <c r="E155" t="s">
-        <v>103</v>
-      </c>
-      <c r="F155" t="s">
-        <v>100</v>
-      </c>
+      <c r="D155" t="s">
+        <v>96</v>
+      </c>
+      <c r="E155"/>
+      <c r="F155"/>
       <c r="G155" t="n">
-        <v>4.444617983</v>
+        <v>0</v>
       </c>
       <c r="H155" t="s">
         <v>19</v>
       </c>
       <c r="I155" t="n">
-        <v>0.00062</v>
+        <v>0.00612</v>
       </c>
       <c r="J155" t="n">
-        <v>0.999181</v>
+        <v>0.999825</v>
       </c>
       <c r="K155" t="n">
-        <v>23.142818</v>
+        <v>1.688368</v>
       </c>
       <c r="L155" t="n">
-        <v>0.058054</v>
+        <v>0.133128</v>
       </c>
       <c r="M155" t="n">
-        <v>0.0897926881026735</v>
+        <v>0.417914872878647</v>
       </c>
       <c r="N155" t="n">
-        <v>0.182599429116689</v>
+        <v>1.20481249102725</v>
       </c>
       <c r="O155"/>
     </row>
@@ -7450,44 +7422,42 @@
         <v>94</v>
       </c>
       <c r="B156" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C156" t="s">
         <v>17</v>
       </c>
-      <c r="D156"/>
-      <c r="E156" t="s">
-        <v>103</v>
-      </c>
-      <c r="F156" t="s">
-        <v>100</v>
-      </c>
+      <c r="D156" t="s">
+        <v>96</v>
+      </c>
+      <c r="E156"/>
+      <c r="F156"/>
       <c r="G156" t="n">
-        <v>4.661541487</v>
+        <v>0</v>
       </c>
       <c r="H156" t="s">
         <v>19</v>
       </c>
       <c r="I156" t="n">
-        <v>0.0003305038118</v>
+        <v>0.003363863486</v>
       </c>
       <c r="J156" t="n">
-        <v>0.9984045283</v>
+        <v>0.9986555146</v>
       </c>
       <c r="K156" t="n">
-        <v>52.04521745</v>
+        <v>7.497434226</v>
       </c>
       <c r="L156" t="n">
-        <v>0.1004648173</v>
+        <v>12.28573282</v>
       </c>
       <c r="M156" t="n">
-        <v>0.160685842</v>
+        <v>1.58581125</v>
       </c>
       <c r="N156" t="n">
-        <v>0.2179132886</v>
+        <v>2.586812072</v>
       </c>
       <c r="O156" t="n">
-        <v>0.01767655377</v>
+        <v>0.0186411527</v>
       </c>
     </row>
     <row r="157">
@@ -7495,41 +7465,39 @@
         <v>94</v>
       </c>
       <c r="B157" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C157" t="s">
         <v>20</v>
       </c>
-      <c r="D157"/>
-      <c r="E157" t="s">
-        <v>103</v>
-      </c>
-      <c r="F157" t="s">
-        <v>100</v>
-      </c>
+      <c r="D157" t="s">
+        <v>96</v>
+      </c>
+      <c r="E157"/>
+      <c r="F157"/>
       <c r="G157" t="n">
-        <v>4.661541487</v>
+        <v>0</v>
       </c>
       <c r="H157" t="s">
         <v>19</v>
       </c>
       <c r="I157" t="n">
-        <v>0.001792</v>
+        <v>0.003025</v>
       </c>
       <c r="J157" t="n">
-        <v>0.999457</v>
+        <v>0.998483</v>
       </c>
       <c r="K157" t="n">
-        <v>45.472443</v>
+        <v>6.654225</v>
       </c>
       <c r="L157" t="n">
-        <v>0.032655</v>
+        <v>4.027122</v>
       </c>
       <c r="M157" t="n">
-        <v>0.064123526597</v>
+        <v>1.60703342609644</v>
       </c>
       <c r="N157" t="n">
-        <v>0.181529754401931</v>
+        <v>2.89811164415487</v>
       </c>
       <c r="O157"/>
     </row>
@@ -7538,44 +7506,42 @@
         <v>94</v>
       </c>
       <c r="B158" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C158" t="s">
         <v>17</v>
       </c>
-      <c r="D158"/>
-      <c r="E158" t="s">
-        <v>108</v>
-      </c>
-      <c r="F158" t="s">
-        <v>97</v>
-      </c>
+      <c r="D158" t="s">
+        <v>96</v>
+      </c>
+      <c r="E158"/>
+      <c r="F158"/>
       <c r="G158" t="n">
-        <v>45.75842242</v>
+        <v>0</v>
       </c>
       <c r="H158" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="I158" t="n">
-        <v>0.002191890821</v>
+        <v>0.002936613868</v>
       </c>
       <c r="J158" t="n">
-        <v>0.9971472533</v>
+        <v>0.9989236431</v>
       </c>
       <c r="K158" t="n">
-        <v>68.22224309</v>
+        <v>3.209267571</v>
       </c>
       <c r="L158" t="n">
-        <v>0.3068635466</v>
+        <v>0.1909999738</v>
       </c>
       <c r="M158" t="n">
-        <v>0.1617157036</v>
+        <v>0.4766514882</v>
       </c>
       <c r="N158" t="n">
-        <v>0.2868278611</v>
+        <v>0.8742275689</v>
       </c>
       <c r="O158" t="n">
-        <v>0.01710405668</v>
+        <v>0.01879094064</v>
       </c>
     </row>
     <row r="159">
@@ -7583,41 +7549,39 @@
         <v>94</v>
       </c>
       <c r="B159" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C159" t="s">
         <v>20</v>
       </c>
-      <c r="D159"/>
-      <c r="E159" t="s">
-        <v>108</v>
-      </c>
-      <c r="F159" t="s">
-        <v>97</v>
-      </c>
+      <c r="D159" t="s">
+        <v>96</v>
+      </c>
+      <c r="E159"/>
+      <c r="F159"/>
       <c r="G159" t="n">
-        <v>45.75842242</v>
+        <v>0</v>
       </c>
       <c r="H159" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="I159" t="n">
-        <v>0.001251</v>
+        <v>0.002672</v>
       </c>
       <c r="J159" t="n">
-        <v>0.999762</v>
+        <v>0.99929</v>
       </c>
       <c r="K159" t="n">
-        <v>53.162761</v>
+        <v>2.720829</v>
       </c>
       <c r="L159" t="n">
-        <v>0.058054</v>
+        <v>0.074884</v>
       </c>
       <c r="M159" t="n">
-        <v>0.185210462531592</v>
+        <v>0.354657334138285</v>
       </c>
       <c r="N159" t="n">
-        <v>0.367376753508333</v>
+        <v>1.07378403686271</v>
       </c>
       <c r="O159"/>
     </row>
@@ -7626,44 +7590,42 @@
         <v>94</v>
       </c>
       <c r="B160" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C160" t="s">
         <v>17</v>
       </c>
-      <c r="D160"/>
-      <c r="E160" t="s">
-        <v>108</v>
-      </c>
-      <c r="F160" t="s">
-        <v>97</v>
-      </c>
+      <c r="D160" t="s">
+        <v>96</v>
+      </c>
+      <c r="E160"/>
+      <c r="F160"/>
       <c r="G160" t="n">
-        <v>3.00077514</v>
+        <v>0</v>
       </c>
       <c r="H160" t="s">
         <v>19</v>
       </c>
       <c r="I160" t="n">
-        <v>0.001807816103</v>
+        <v>0.0003988616117</v>
       </c>
       <c r="J160" t="n">
-        <v>0.9989563198</v>
+        <v>0.9991424111</v>
       </c>
       <c r="K160" t="n">
-        <v>45.01255794</v>
+        <v>11.66273782</v>
       </c>
       <c r="L160" t="n">
-        <v>0.1004648173</v>
+        <v>3.3742984</v>
       </c>
       <c r="M160" t="n">
-        <v>0.1510845649</v>
+        <v>0.8241344421</v>
       </c>
       <c r="N160" t="n">
-        <v>0.2939818514</v>
+        <v>1.460159596</v>
       </c>
       <c r="O160" t="n">
-        <v>0.01804825752</v>
+        <v>0.01764819729</v>
       </c>
     </row>
     <row r="161">
@@ -7671,41 +7633,39 @@
         <v>94</v>
       </c>
       <c r="B161" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C161" t="s">
         <v>20</v>
       </c>
-      <c r="D161"/>
-      <c r="E161" t="s">
-        <v>108</v>
-      </c>
-      <c r="F161" t="s">
-        <v>97</v>
-      </c>
+      <c r="D161" t="s">
+        <v>96</v>
+      </c>
+      <c r="E161"/>
+      <c r="F161"/>
       <c r="G161" t="n">
-        <v>3.00077514</v>
+        <v>0</v>
       </c>
       <c r="H161" t="s">
         <v>19</v>
       </c>
       <c r="I161" t="n">
-        <v>0.000899</v>
+        <v>0.000292</v>
       </c>
       <c r="J161" t="n">
-        <v>0.999197</v>
+        <v>0.999927</v>
       </c>
       <c r="K161" t="n">
-        <v>42.319397</v>
+        <v>10.0163</v>
       </c>
       <c r="L161" t="n">
-        <v>0.014514</v>
+        <v>0.208012</v>
       </c>
       <c r="M161" t="n">
-        <v>0.110854890515279</v>
+        <v>0.481016823781729</v>
       </c>
       <c r="N161" t="n">
-        <v>0.167572046576051</v>
+        <v>1.44140376048936</v>
       </c>
       <c r="O161"/>
     </row>
@@ -7714,44 +7674,42 @@
         <v>94</v>
       </c>
       <c r="B162" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C162" t="s">
         <v>17</v>
       </c>
-      <c r="D162"/>
-      <c r="E162" t="s">
-        <v>108</v>
-      </c>
-      <c r="F162" t="s">
-        <v>100</v>
-      </c>
+      <c r="D162" t="s">
+        <v>107</v>
+      </c>
+      <c r="E162"/>
+      <c r="F162"/>
       <c r="G162" t="n">
-        <v>4.866895738</v>
+        <v>0</v>
       </c>
       <c r="H162" t="s">
         <v>19</v>
       </c>
       <c r="I162" t="n">
-        <v>0.002728691803</v>
+        <v>0.002015098422</v>
       </c>
       <c r="J162" t="n">
-        <v>0.9991144199</v>
+        <v>0.999072208</v>
       </c>
       <c r="K162" t="n">
-        <v>44.88858642</v>
+        <v>4.178203193</v>
       </c>
       <c r="L162" t="n">
-        <v>0.1004648173</v>
+        <v>0.5616815931</v>
       </c>
       <c r="M162" t="n">
-        <v>0.1753363325</v>
+        <v>0.601763689</v>
       </c>
       <c r="N162" t="n">
-        <v>0.4217616841</v>
+        <v>1.018629486</v>
       </c>
       <c r="O162" t="n">
-        <v>0.01660217518</v>
+        <v>0.01777668228</v>
       </c>
     </row>
     <row r="163">
@@ -7759,41 +7717,39 @@
         <v>94</v>
       </c>
       <c r="B163" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C163" t="s">
         <v>20</v>
       </c>
-      <c r="D163"/>
-      <c r="E163" t="s">
-        <v>108</v>
-      </c>
-      <c r="F163" t="s">
-        <v>100</v>
-      </c>
+      <c r="D163" t="s">
+        <v>107</v>
+      </c>
+      <c r="E163"/>
+      <c r="F163"/>
       <c r="G163" t="n">
-        <v>4.866895738</v>
+        <v>0</v>
       </c>
       <c r="H163" t="s">
         <v>19</v>
       </c>
       <c r="I163" t="n">
-        <v>0.00096</v>
+        <v>0.000718</v>
       </c>
       <c r="J163" t="n">
-        <v>0.999438</v>
+        <v>0.999869</v>
       </c>
       <c r="K163" t="n">
-        <v>48.223254</v>
+        <v>3.726956</v>
       </c>
       <c r="L163" t="n">
-        <v>0.032655</v>
+        <v>0.300073</v>
       </c>
       <c r="M163" t="n">
-        <v>0.0898163556406646</v>
+        <v>0.552678060824554</v>
       </c>
       <c r="N163" t="n">
-        <v>0.129379200249306</v>
+        <v>0.925261739150984</v>
       </c>
       <c r="O163"/>
     </row>
@@ -7802,44 +7758,42 @@
         <v>94</v>
       </c>
       <c r="B164" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C164" t="s">
         <v>17</v>
       </c>
-      <c r="D164"/>
-      <c r="E164" t="s">
-        <v>108</v>
-      </c>
-      <c r="F164" t="s">
-        <v>100</v>
-      </c>
+      <c r="D164" t="s">
+        <v>107</v>
+      </c>
+      <c r="E164"/>
+      <c r="F164"/>
       <c r="G164" t="n">
-        <v>2.416527836</v>
+        <v>0</v>
       </c>
       <c r="H164" t="s">
         <v>19</v>
       </c>
       <c r="I164" t="n">
-        <v>0.002668108526</v>
+        <v>0.001374148085</v>
       </c>
       <c r="J164" t="n">
-        <v>0.9991010445</v>
+        <v>0.9990151875</v>
       </c>
       <c r="K164" t="n">
-        <v>49.1789018</v>
+        <v>3.477760265</v>
       </c>
       <c r="L164" t="n">
-        <v>0.1004648173</v>
+        <v>0.9284135559</v>
       </c>
       <c r="M164" t="n">
-        <v>0.2174554207</v>
+        <v>0.3644793402</v>
       </c>
       <c r="N164" t="n">
-        <v>0.3175200085</v>
+        <v>0.6986570444</v>
       </c>
       <c r="O164" t="n">
-        <v>0.0178567085</v>
+        <v>0.01731278487</v>
       </c>
     </row>
     <row r="165">
@@ -7847,41 +7801,39 @@
         <v>94</v>
       </c>
       <c r="B165" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C165" t="s">
         <v>20</v>
       </c>
-      <c r="D165"/>
-      <c r="E165" t="s">
-        <v>108</v>
-      </c>
-      <c r="F165" t="s">
-        <v>100</v>
-      </c>
+      <c r="D165" t="s">
+        <v>107</v>
+      </c>
+      <c r="E165"/>
+      <c r="F165"/>
       <c r="G165" t="n">
-        <v>2.416527836</v>
+        <v>0</v>
       </c>
       <c r="H165" t="s">
         <v>19</v>
       </c>
       <c r="I165" t="n">
-        <v>0.000784</v>
+        <v>0.00123</v>
       </c>
       <c r="J165" t="n">
-        <v>0.99919</v>
+        <v>0.999876</v>
       </c>
       <c r="K165" t="n">
-        <v>46.283916</v>
+        <v>3.122407</v>
       </c>
       <c r="L165" t="n">
-        <v>0.014514</v>
+        <v>0.300073</v>
       </c>
       <c r="M165" t="n">
-        <v>0.116948768970177</v>
+        <v>0.323810086157053</v>
       </c>
       <c r="N165" t="n">
-        <v>0.162814849369173</v>
+        <v>0.604045639672665</v>
       </c>
       <c r="O165"/>
     </row>
@@ -7890,44 +7842,42 @@
         <v>94</v>
       </c>
       <c r="B166" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C166" t="s">
         <v>17</v>
       </c>
-      <c r="D166"/>
-      <c r="E166" t="s">
-        <v>114</v>
-      </c>
-      <c r="F166" t="s">
-        <v>97</v>
-      </c>
+      <c r="D166" t="s">
+        <v>107</v>
+      </c>
+      <c r="E166"/>
+      <c r="F166"/>
       <c r="G166" t="n">
-        <v>4.923874312</v>
+        <v>0</v>
       </c>
       <c r="H166" t="s">
         <v>19</v>
       </c>
       <c r="I166" t="n">
-        <v>0.001342898516</v>
+        <v>0.001598970816</v>
       </c>
       <c r="J166" t="n">
-        <v>0.9984697808</v>
+        <v>0.9994193867</v>
       </c>
       <c r="K166" t="n">
-        <v>38.57628413</v>
+        <v>5.749629498</v>
       </c>
       <c r="L166" t="n">
-        <v>0.1004648173</v>
+        <v>0.5616815931</v>
       </c>
       <c r="M166" t="n">
-        <v>0.2535209046</v>
+        <v>0.4150545339</v>
       </c>
       <c r="N166" t="n">
-        <v>0.3645124038</v>
+        <v>0.9561412692</v>
       </c>
       <c r="O166" t="n">
-        <v>0.01708514642</v>
+        <v>0.01758878535</v>
       </c>
     </row>
     <row r="167">
@@ -7935,41 +7885,39 @@
         <v>94</v>
       </c>
       <c r="B167" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C167" t="s">
         <v>20</v>
       </c>
-      <c r="D167"/>
-      <c r="E167" t="s">
-        <v>114</v>
-      </c>
-      <c r="F167" t="s">
-        <v>97</v>
-      </c>
+      <c r="D167" t="s">
+        <v>107</v>
+      </c>
+      <c r="E167"/>
+      <c r="F167"/>
       <c r="G167" t="n">
-        <v>4.923874312</v>
+        <v>0</v>
       </c>
       <c r="H167" t="s">
         <v>19</v>
       </c>
       <c r="I167" t="n">
-        <v>0.000991</v>
+        <v>0.001238</v>
       </c>
       <c r="J167" t="n">
-        <v>0.99905</v>
+        <v>0.999902</v>
       </c>
       <c r="K167" t="n">
-        <v>38.036717</v>
+        <v>4.840015</v>
       </c>
       <c r="L167" t="n">
-        <v>0.032655</v>
+        <v>0.133366</v>
       </c>
       <c r="M167" t="n">
-        <v>0.0939397452294676</v>
+        <v>0.353445501296442</v>
       </c>
       <c r="N167" t="n">
-        <v>0.125723356620159</v>
+        <v>0.807450516869959</v>
       </c>
       <c r="O167"/>
     </row>
@@ -7978,44 +7926,42 @@
         <v>94</v>
       </c>
       <c r="B168" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C168" t="s">
         <v>17</v>
       </c>
-      <c r="D168"/>
-      <c r="E168" t="s">
-        <v>114</v>
-      </c>
-      <c r="F168" t="s">
-        <v>97</v>
-      </c>
+      <c r="D168" t="s">
+        <v>107</v>
+      </c>
+      <c r="E168"/>
+      <c r="F168"/>
       <c r="G168" t="n">
-        <v>3.842438336</v>
+        <v>0</v>
       </c>
       <c r="H168" t="s">
         <v>19</v>
       </c>
       <c r="I168" t="n">
-        <v>0.002142569443</v>
+        <v>0.002319587693</v>
       </c>
       <c r="J168" t="n">
-        <v>0.9988323968</v>
+        <v>0.9989206348</v>
       </c>
       <c r="K168" t="n">
-        <v>44.85846689</v>
+        <v>6.721419692</v>
       </c>
       <c r="L168" t="n">
-        <v>0.1004648173</v>
+        <v>0.5227709394</v>
       </c>
       <c r="M168" t="n">
-        <v>0.09025540084</v>
+        <v>0.5151187548</v>
       </c>
       <c r="N168" t="n">
-        <v>0.2586428146</v>
+        <v>1.136253648</v>
       </c>
       <c r="O168" t="n">
-        <v>0.01715710311</v>
+        <v>0.01772829343</v>
       </c>
     </row>
     <row r="169">
@@ -8023,41 +7969,39 @@
         <v>94</v>
       </c>
       <c r="B169" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C169" t="s">
         <v>20</v>
       </c>
-      <c r="D169"/>
-      <c r="E169" t="s">
-        <v>114</v>
-      </c>
-      <c r="F169" t="s">
-        <v>97</v>
-      </c>
+      <c r="D169" t="s">
+        <v>107</v>
+      </c>
+      <c r="E169"/>
+      <c r="F169"/>
       <c r="G169" t="n">
-        <v>3.842438336</v>
+        <v>0</v>
       </c>
       <c r="H169" t="s">
         <v>19</v>
       </c>
       <c r="I169" t="n">
-        <v>0.000823</v>
+        <v>0.001317</v>
       </c>
       <c r="J169" t="n">
-        <v>0.999487</v>
+        <v>0.999944</v>
       </c>
       <c r="K169" t="n">
-        <v>43.814534</v>
+        <v>5.832863</v>
       </c>
       <c r="L169" t="n">
-        <v>0.032655</v>
+        <v>0.208384</v>
       </c>
       <c r="M169" t="n">
-        <v>0.10399626773573</v>
+        <v>0.478337570366347</v>
       </c>
       <c r="N169" t="n">
-        <v>0.150818069980685</v>
+        <v>0.999923478563902</v>
       </c>
       <c r="O169"/>
     </row>
@@ -8066,44 +8010,42 @@
         <v>94</v>
       </c>
       <c r="B170" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C170" t="s">
         <v>17</v>
       </c>
-      <c r="D170"/>
-      <c r="E170" t="s">
-        <v>114</v>
-      </c>
-      <c r="F170" t="s">
-        <v>100</v>
-      </c>
+      <c r="D170" t="s">
+        <v>107</v>
+      </c>
+      <c r="E170"/>
+      <c r="F170"/>
       <c r="G170" t="n">
-        <v>3.293766486</v>
+        <v>0</v>
       </c>
       <c r="H170" t="s">
         <v>19</v>
       </c>
       <c r="I170" t="n">
-        <v>0.0002049663924</v>
+        <v>0.004003783605</v>
       </c>
       <c r="J170" t="n">
-        <v>0.9985162009</v>
+        <v>0.9985396332</v>
       </c>
       <c r="K170" t="n">
-        <v>52.35611571</v>
+        <v>2.765267512</v>
       </c>
       <c r="L170" t="n">
-        <v>0.1004648173</v>
+        <v>0.3162715712</v>
       </c>
       <c r="M170" t="n">
-        <v>0.145071985</v>
+        <v>0.266925965</v>
       </c>
       <c r="N170" t="n">
-        <v>0.2414260519</v>
+        <v>0.8148832458</v>
       </c>
       <c r="O170" t="n">
-        <v>0.01764098897</v>
+        <v>0.01613178951</v>
       </c>
     </row>
     <row r="171">
@@ -8111,41 +8053,39 @@
         <v>94</v>
       </c>
       <c r="B171" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C171" t="s">
         <v>20</v>
       </c>
-      <c r="D171"/>
-      <c r="E171" t="s">
-        <v>114</v>
-      </c>
-      <c r="F171" t="s">
-        <v>100</v>
-      </c>
+      <c r="D171" t="s">
+        <v>107</v>
+      </c>
+      <c r="E171"/>
+      <c r="F171"/>
       <c r="G171" t="n">
-        <v>3.293766486</v>
+        <v>0</v>
       </c>
       <c r="H171" t="s">
         <v>19</v>
       </c>
       <c r="I171" t="n">
-        <v>0.000465</v>
+        <v>0.004065</v>
       </c>
       <c r="J171" t="n">
-        <v>0.99902</v>
+        <v>0.999851</v>
       </c>
       <c r="K171" t="n">
-        <v>45.96475</v>
+        <v>2.487666</v>
       </c>
       <c r="L171" t="n">
-        <v>0.014514</v>
+        <v>0.133366</v>
       </c>
       <c r="M171" t="n">
-        <v>0.0927607438932463</v>
+        <v>0.272495727822723</v>
       </c>
       <c r="N171" t="n">
-        <v>0.141938544380315</v>
+        <v>0.712786945432692</v>
       </c>
       <c r="O171"/>
     </row>
@@ -8154,44 +8094,42 @@
         <v>94</v>
       </c>
       <c r="B172" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C172" t="s">
         <v>17</v>
       </c>
-      <c r="D172"/>
-      <c r="E172" t="s">
-        <v>114</v>
-      </c>
-      <c r="F172" t="s">
-        <v>100</v>
-      </c>
+      <c r="D172" t="s">
+        <v>107</v>
+      </c>
+      <c r="E172"/>
+      <c r="F172"/>
       <c r="G172" t="n">
-        <v>4.891769633</v>
+        <v>0</v>
       </c>
       <c r="H172" t="s">
         <v>19</v>
       </c>
       <c r="I172" t="n">
-        <v>0.001819059379</v>
+        <v>0.002164641667</v>
       </c>
       <c r="J172" t="n">
-        <v>0.9984722474</v>
+        <v>0.9994226963</v>
       </c>
       <c r="K172" t="n">
-        <v>48.21311649</v>
+        <v>5.719707063</v>
       </c>
       <c r="L172" t="n">
-        <v>0.1004648173</v>
+        <v>0.8042368418</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1539020721</v>
+        <v>0.5735814754</v>
       </c>
       <c r="N172" t="n">
-        <v>0.2728563063</v>
+        <v>1.167099988</v>
       </c>
       <c r="O172" t="n">
-        <v>0.01698677161</v>
+        <v>0.0184560074</v>
       </c>
     </row>
     <row r="173">
@@ -8199,41 +8137,39 @@
         <v>94</v>
       </c>
       <c r="B173" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C173" t="s">
         <v>20</v>
       </c>
-      <c r="D173"/>
-      <c r="E173" t="s">
-        <v>114</v>
-      </c>
-      <c r="F173" t="s">
-        <v>100</v>
-      </c>
+      <c r="D173" t="s">
+        <v>107</v>
+      </c>
+      <c r="E173"/>
+      <c r="F173"/>
       <c r="G173" t="n">
-        <v>4.891769633</v>
+        <v>0</v>
       </c>
       <c r="H173" t="s">
         <v>19</v>
       </c>
       <c r="I173" t="n">
-        <v>0.000743</v>
+        <v>0.002308</v>
       </c>
       <c r="J173" t="n">
-        <v>0.999008</v>
+        <v>0.999861</v>
       </c>
       <c r="K173" t="n">
-        <v>47.598267</v>
+        <v>4.998245</v>
       </c>
       <c r="L173" t="n">
-        <v>0.014514</v>
+        <v>0.133366</v>
       </c>
       <c r="M173" t="n">
-        <v>0.0780663217873339</v>
+        <v>0.555264307410258</v>
       </c>
       <c r="N173" t="n">
-        <v>0.109857763379781</v>
+        <v>1.04959654329811</v>
       </c>
       <c r="O173"/>
     </row>
@@ -8242,44 +8178,42 @@
         <v>94</v>
       </c>
       <c r="B174" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C174" t="s">
         <v>17</v>
       </c>
-      <c r="D174"/>
-      <c r="E174" t="s">
-        <v>96</v>
-      </c>
-      <c r="F174" t="s">
-        <v>97</v>
-      </c>
+      <c r="D174" t="s">
+        <v>107</v>
+      </c>
+      <c r="E174"/>
+      <c r="F174"/>
       <c r="G174" t="n">
-        <v>57.46477162</v>
+        <v>0</v>
       </c>
       <c r="H174" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="I174" t="n">
-        <v>0.005744431158</v>
+        <v>0.001964860107</v>
       </c>
       <c r="J174" t="n">
-        <v>0.9868055389</v>
+        <v>0.9973720806</v>
       </c>
       <c r="K174" t="n">
-        <v>57.26896146</v>
+        <v>2.295127417</v>
       </c>
       <c r="L174" t="n">
-        <v>0.03723607985</v>
+        <v>4.192714753</v>
       </c>
       <c r="M174" t="n">
-        <v>0.081692759</v>
+        <v>0.5649856533</v>
       </c>
       <c r="N174" t="n">
-        <v>0.2352776998</v>
+        <v>1.193106753</v>
       </c>
       <c r="O174" t="n">
-        <v>0.01544707514</v>
+        <v>0.01760359512</v>
       </c>
     </row>
     <row r="175">
@@ -8287,41 +8221,39 @@
         <v>94</v>
       </c>
       <c r="B175" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C175" t="s">
         <v>20</v>
       </c>
-      <c r="D175"/>
-      <c r="E175" t="s">
-        <v>96</v>
-      </c>
-      <c r="F175" t="s">
-        <v>97</v>
-      </c>
+      <c r="D175" t="s">
+        <v>107</v>
+      </c>
+      <c r="E175"/>
+      <c r="F175"/>
       <c r="G175" t="n">
-        <v>57.46477162</v>
+        <v>0</v>
       </c>
       <c r="H175" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="I175" t="n">
-        <v>0.001353</v>
+        <v>0.002616</v>
       </c>
       <c r="J175" t="n">
-        <v>0.996841</v>
+        <v>0.999305</v>
       </c>
       <c r="K175" t="n">
-        <v>37.691082</v>
+        <v>2.148054</v>
       </c>
       <c r="L175" t="n">
-        <v>0.014514</v>
+        <v>0.533464</v>
       </c>
       <c r="M175" t="n">
-        <v>0.117049138897126</v>
+        <v>0.504129104906153</v>
       </c>
       <c r="N175" t="n">
-        <v>0.29568862053676</v>
+        <v>1.04408395752118</v>
       </c>
       <c r="O175"/>
     </row>
@@ -8330,44 +8262,42 @@
         <v>94</v>
       </c>
       <c r="B176" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C176" t="s">
         <v>17</v>
       </c>
-      <c r="D176"/>
-      <c r="E176" t="s">
-        <v>96</v>
-      </c>
-      <c r="F176" t="s">
-        <v>97</v>
-      </c>
+      <c r="D176" t="s">
+        <v>107</v>
+      </c>
+      <c r="E176"/>
+      <c r="F176"/>
       <c r="G176" t="n">
-        <v>55.29409043</v>
+        <v>0</v>
       </c>
       <c r="H176" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="I176" t="n">
-        <v>0.006778044121</v>
+        <v>0.008242304939</v>
       </c>
       <c r="J176" t="n">
-        <v>0.9770901387</v>
+        <v>0.9984611787</v>
       </c>
       <c r="K176" t="n">
-        <v>60.77623934</v>
+        <v>3.279549914</v>
       </c>
       <c r="L176" t="n">
-        <v>0.03499639624</v>
+        <v>1.329337467</v>
       </c>
       <c r="M176" t="n">
-        <v>0.2011823972</v>
+        <v>0.387290184</v>
       </c>
       <c r="N176" t="n">
-        <v>0.2521953865</v>
+        <v>1.054638023</v>
       </c>
       <c r="O176" t="n">
-        <v>0.02046846467</v>
+        <v>0.01809470653</v>
       </c>
     </row>
     <row r="177">
@@ -8375,41 +8305,39 @@
         <v>94</v>
       </c>
       <c r="B177" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C177" t="s">
         <v>20</v>
       </c>
-      <c r="D177"/>
-      <c r="E177" t="s">
-        <v>96</v>
-      </c>
-      <c r="F177" t="s">
-        <v>97</v>
-      </c>
+      <c r="D177" t="s">
+        <v>107</v>
+      </c>
+      <c r="E177"/>
+      <c r="F177"/>
       <c r="G177" t="n">
-        <v>55.29409043</v>
+        <v>0</v>
       </c>
       <c r="H177" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="I177" t="n">
-        <v>0.002509</v>
+        <v>0.00502</v>
       </c>
       <c r="J177" t="n">
-        <v>0.998519</v>
+        <v>0.999942</v>
       </c>
       <c r="K177" t="n">
-        <v>38.938183</v>
+        <v>2.841467</v>
       </c>
       <c r="L177" t="n">
-        <v>0.014514</v>
+        <v>0.208384</v>
       </c>
       <c r="M177" t="n">
-        <v>0.054824338711126</v>
+        <v>0.337725021214594</v>
       </c>
       <c r="N177" t="n">
-        <v>0.222781853268786</v>
+        <v>0.867656357276639</v>
       </c>
       <c r="O177"/>
     </row>
@@ -8418,44 +8346,42 @@
         <v>94</v>
       </c>
       <c r="B178" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C178" t="s">
         <v>17</v>
       </c>
-      <c r="D178"/>
-      <c r="E178" t="s">
-        <v>96</v>
-      </c>
-      <c r="F178" t="s">
-        <v>100</v>
-      </c>
+      <c r="D178" t="s">
+        <v>107</v>
+      </c>
+      <c r="E178"/>
+      <c r="F178"/>
       <c r="G178" t="n">
-        <v>0.2796867046</v>
+        <v>0</v>
       </c>
       <c r="H178" t="s">
         <v>19</v>
       </c>
       <c r="I178" t="n">
-        <v>0.004537845783</v>
+        <v>0.001314585174</v>
       </c>
       <c r="J178" t="n">
-        <v>0.9971920728</v>
+        <v>0.9992944577</v>
       </c>
       <c r="K178" t="n">
-        <v>4.795822322</v>
+        <v>2.745796162</v>
       </c>
       <c r="L178" t="n">
-        <v>0.08340500545</v>
+        <v>0.3651049029</v>
       </c>
       <c r="M178" t="n">
-        <v>0.6360268217</v>
+        <v>0.527614108</v>
       </c>
       <c r="N178" t="n">
-        <v>1.683337179</v>
+        <v>1.03958464</v>
       </c>
       <c r="O178" t="n">
-        <v>0.01708371491</v>
+        <v>0.0180213882</v>
       </c>
     </row>
     <row r="179">
@@ -8463,41 +8389,39 @@
         <v>94</v>
       </c>
       <c r="B179" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C179" t="s">
         <v>20</v>
       </c>
-      <c r="D179"/>
-      <c r="E179" t="s">
-        <v>96</v>
-      </c>
-      <c r="F179" t="s">
-        <v>100</v>
-      </c>
+      <c r="D179" t="s">
+        <v>107</v>
+      </c>
+      <c r="E179"/>
+      <c r="F179"/>
       <c r="G179" t="n">
-        <v>0.2796867046</v>
+        <v>0</v>
       </c>
       <c r="H179" t="s">
         <v>19</v>
       </c>
       <c r="I179" t="n">
-        <v>0.000937</v>
+        <v>0.003206</v>
       </c>
       <c r="J179" t="n">
-        <v>0.999976</v>
+        <v>0.999925</v>
       </c>
       <c r="K179" t="n">
-        <v>47.311054</v>
+        <v>2.404424</v>
       </c>
       <c r="L179" t="n">
-        <v>0.439034</v>
+        <v>0.133366</v>
       </c>
       <c r="M179" t="n">
-        <v>0.320417896018309</v>
+        <v>0.505202861304572</v>
       </c>
       <c r="N179" t="n">
-        <v>0.540891963746698</v>
+        <v>0.899763729912879</v>
       </c>
       <c r="O179"/>
     </row>
@@ -8506,44 +8430,42 @@
         <v>94</v>
       </c>
       <c r="B180" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C180" t="s">
         <v>17</v>
       </c>
-      <c r="D180"/>
-      <c r="E180" t="s">
-        <v>96</v>
-      </c>
-      <c r="F180" t="s">
-        <v>100</v>
-      </c>
+      <c r="D180" t="s">
+        <v>107</v>
+      </c>
+      <c r="E180"/>
+      <c r="F180"/>
       <c r="G180" t="n">
-        <v>5.800245268</v>
+        <v>0</v>
       </c>
       <c r="H180" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="I180" t="n">
-        <v>0.003140677635</v>
+        <v>0.005221995624</v>
       </c>
       <c r="J180" t="n">
-        <v>0.9963200889</v>
+        <v>0.9986646851</v>
       </c>
       <c r="K180" t="n">
-        <v>41.82057545</v>
+        <v>3.910485123</v>
       </c>
       <c r="L180" t="n">
-        <v>0.1868186706</v>
+        <v>0.3398121559</v>
       </c>
       <c r="M180" t="n">
-        <v>0.4646806483</v>
+        <v>0.5120974341</v>
       </c>
       <c r="N180" t="n">
-        <v>0.6964868487</v>
+        <v>2.070839882</v>
       </c>
       <c r="O180" t="n">
-        <v>0.01873237941</v>
+        <v>0.01876294872</v>
       </c>
     </row>
     <row r="181">
@@ -8551,41 +8473,39 @@
         <v>94</v>
       </c>
       <c r="B181" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C181" t="s">
         <v>20</v>
       </c>
-      <c r="D181"/>
-      <c r="E181" t="s">
-        <v>96</v>
-      </c>
-      <c r="F181" t="s">
-        <v>100</v>
-      </c>
+      <c r="D181" t="s">
+        <v>107</v>
+      </c>
+      <c r="E181"/>
+      <c r="F181"/>
       <c r="G181" t="n">
-        <v>5.800245268</v>
+        <v>0</v>
       </c>
       <c r="H181" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="I181" t="n">
-        <v>0.004841</v>
+        <v>0.003178</v>
       </c>
       <c r="J181" t="n">
-        <v>0.99958</v>
+        <v>0.999459</v>
       </c>
       <c r="K181" t="n">
-        <v>62.269491</v>
+        <v>3.320289</v>
       </c>
       <c r="L181" t="n">
-        <v>0.09071</v>
+        <v>0.075018</v>
       </c>
       <c r="M181" t="n">
-        <v>0.333562223925119</v>
+        <v>0.395099260084971</v>
       </c>
       <c r="N181" t="n">
-        <v>0.419202515447241</v>
+        <v>1.46471802196887</v>
       </c>
       <c r="O181"/>
     </row>
@@ -8594,44 +8514,42 @@
         <v>94</v>
       </c>
       <c r="B182" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C182" t="s">
         <v>17</v>
       </c>
-      <c r="D182"/>
-      <c r="E182" t="s">
-        <v>108</v>
-      </c>
-      <c r="F182" t="s">
-        <v>97</v>
-      </c>
+      <c r="D182" t="s">
+        <v>118</v>
+      </c>
+      <c r="E182"/>
+      <c r="F182"/>
       <c r="G182" t="n">
-        <v>0.9327710676</v>
+        <v>0</v>
       </c>
       <c r="H182" t="s">
         <v>19</v>
       </c>
       <c r="I182" t="n">
-        <v>0.005482672202</v>
+        <v>0.003165474784</v>
       </c>
       <c r="J182" t="n">
-        <v>0.9941755437</v>
+        <v>0.9991768222</v>
       </c>
       <c r="K182" t="n">
-        <v>8.888780751</v>
+        <v>2.539149066</v>
       </c>
       <c r="L182" t="n">
-        <v>0.1004648173</v>
+        <v>1.531853337</v>
       </c>
       <c r="M182" t="n">
-        <v>1.407488469</v>
+        <v>0.6043730212</v>
       </c>
       <c r="N182" t="n">
-        <v>2.632780996</v>
+        <v>0.9874378915</v>
       </c>
       <c r="O182" t="n">
-        <v>0.01924373071</v>
+        <v>0.01685220944</v>
       </c>
     </row>
     <row r="183">
@@ -8639,41 +8557,39 @@
         <v>94</v>
       </c>
       <c r="B183" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C183" t="s">
         <v>20</v>
       </c>
-      <c r="D183"/>
-      <c r="E183" t="s">
-        <v>108</v>
-      </c>
-      <c r="F183" t="s">
-        <v>97</v>
-      </c>
+      <c r="D183" t="s">
+        <v>118</v>
+      </c>
+      <c r="E183"/>
+      <c r="F183"/>
       <c r="G183" t="n">
-        <v>0.9327710676</v>
+        <v>0</v>
       </c>
       <c r="H183" t="s">
         <v>19</v>
       </c>
       <c r="I183" t="n">
-        <v>0.000149</v>
+        <v>0.00273</v>
       </c>
       <c r="J183" t="n">
-        <v>0.999637</v>
+        <v>0.999535</v>
       </c>
       <c r="K183" t="n">
-        <v>48.414461</v>
+        <v>2.380929</v>
       </c>
       <c r="L183" t="n">
-        <v>0.058054</v>
+        <v>0.532512</v>
       </c>
       <c r="M183" t="n">
-        <v>0.295241415728882</v>
+        <v>0.579015745663545</v>
       </c>
       <c r="N183" t="n">
-        <v>0.35301069301064</v>
+        <v>1.01306963824792</v>
       </c>
       <c r="O183"/>
     </row>
@@ -8682,44 +8598,42 @@
         <v>94</v>
       </c>
       <c r="B184" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C184" t="s">
         <v>17</v>
       </c>
-      <c r="D184"/>
-      <c r="E184" t="s">
-        <v>108</v>
-      </c>
-      <c r="F184" t="s">
-        <v>97</v>
-      </c>
+      <c r="D184" t="s">
+        <v>118</v>
+      </c>
+      <c r="E184"/>
+      <c r="F184"/>
       <c r="G184" t="n">
-        <v>0.6123027442</v>
+        <v>0</v>
       </c>
       <c r="H184" t="s">
         <v>19</v>
       </c>
       <c r="I184" t="n">
-        <v>0.005356562427</v>
+        <v>0.002151629233</v>
       </c>
       <c r="J184" t="n">
-        <v>0.9948452665</v>
+        <v>0.999306976</v>
       </c>
       <c r="K184" t="n">
-        <v>14.4856052</v>
+        <v>7.198562961</v>
       </c>
       <c r="L184" t="n">
-        <v>0.08340500545</v>
+        <v>0.1155532132</v>
       </c>
       <c r="M184" t="n">
-        <v>0.4161490901</v>
+        <v>0.1980738304</v>
       </c>
       <c r="N184" t="n">
-        <v>0.7531074991</v>
+        <v>0.5600416498</v>
       </c>
       <c r="O184" t="n">
-        <v>0.01777009452</v>
+        <v>0.01772072223</v>
       </c>
     </row>
     <row r="185">
@@ -8727,41 +8641,39 @@
         <v>94</v>
       </c>
       <c r="B185" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C185" t="s">
         <v>20</v>
       </c>
-      <c r="D185"/>
-      <c r="E185" t="s">
-        <v>108</v>
-      </c>
-      <c r="F185" t="s">
-        <v>97</v>
-      </c>
+      <c r="D185" t="s">
+        <v>118</v>
+      </c>
+      <c r="E185"/>
+      <c r="F185"/>
       <c r="G185" t="n">
-        <v>0.6123027442</v>
+        <v>0</v>
       </c>
       <c r="H185" t="s">
         <v>19</v>
       </c>
       <c r="I185" t="n">
-        <v>0.000676</v>
+        <v>0.002529</v>
       </c>
       <c r="J185" t="n">
-        <v>0.999765</v>
+        <v>0.999214</v>
       </c>
       <c r="K185" t="n">
-        <v>63.427686</v>
+        <v>5.497821</v>
       </c>
       <c r="L185" t="n">
-        <v>0.09071</v>
+        <v>0.033282</v>
       </c>
       <c r="M185" t="n">
-        <v>0.225560812421973</v>
+        <v>0.167418682001339</v>
       </c>
       <c r="N185" t="n">
-        <v>0.360588658778743</v>
+        <v>0.472458315278303</v>
       </c>
       <c r="O185"/>
     </row>
@@ -8770,44 +8682,42 @@
         <v>94</v>
       </c>
       <c r="B186" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C186" t="s">
         <v>17</v>
       </c>
-      <c r="D186"/>
-      <c r="E186" t="s">
-        <v>108</v>
-      </c>
-      <c r="F186" t="s">
-        <v>100</v>
-      </c>
+      <c r="D186" t="s">
+        <v>118</v>
+      </c>
+      <c r="E186"/>
+      <c r="F186"/>
       <c r="G186" t="n">
-        <v>4.364211671</v>
+        <v>0</v>
       </c>
       <c r="H186" t="s">
         <v>19</v>
       </c>
       <c r="I186" t="n">
-        <v>0.004004750868</v>
+        <v>0.001145127177</v>
       </c>
       <c r="J186" t="n">
-        <v>0.9977511148</v>
+        <v>0.9990255912</v>
       </c>
       <c r="K186" t="n">
-        <v>23.12678438</v>
+        <v>3.613273565</v>
       </c>
       <c r="L186" t="n">
-        <v>0.2250309019</v>
+        <v>0.1909999738</v>
       </c>
       <c r="M186" t="n">
-        <v>0.5028448109</v>
+        <v>0.7981042339</v>
       </c>
       <c r="N186" t="n">
-        <v>1.396798224</v>
+        <v>1.417331934</v>
       </c>
       <c r="O186" t="n">
-        <v>0.01869619765</v>
+        <v>0.01809090569</v>
       </c>
     </row>
     <row r="187">
@@ -8815,41 +8725,39 @@
         <v>94</v>
       </c>
       <c r="B187" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C187" t="s">
         <v>20</v>
       </c>
-      <c r="D187"/>
-      <c r="E187" t="s">
-        <v>108</v>
-      </c>
-      <c r="F187" t="s">
-        <v>100</v>
-      </c>
+      <c r="D187" t="s">
+        <v>118</v>
+      </c>
+      <c r="E187"/>
+      <c r="F187"/>
       <c r="G187" t="n">
-        <v>4.364211671</v>
+        <v>0</v>
       </c>
       <c r="H187" t="s">
         <v>19</v>
       </c>
       <c r="I187" t="n">
-        <v>0.001134</v>
+        <v>0.001133</v>
       </c>
       <c r="J187" t="n">
-        <v>0.99683</v>
+        <v>0.999376</v>
       </c>
       <c r="K187" t="n">
-        <v>53.352083</v>
+        <v>2.952668</v>
       </c>
       <c r="L187" t="n">
-        <v>26.215076</v>
+        <v>0.074884</v>
       </c>
       <c r="M187" t="n">
-        <v>0.485065971104527</v>
+        <v>0.711564006328185</v>
       </c>
       <c r="N187" t="n">
-        <v>0.62215353276742</v>
+        <v>1.15776771183526</v>
       </c>
       <c r="O187"/>
     </row>
@@ -8858,44 +8766,42 @@
         <v>94</v>
       </c>
       <c r="B188" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C188" t="s">
         <v>17</v>
       </c>
-      <c r="D188"/>
-      <c r="E188" t="s">
-        <v>108</v>
-      </c>
-      <c r="F188" t="s">
-        <v>100</v>
-      </c>
+      <c r="D188" t="s">
+        <v>118</v>
+      </c>
+      <c r="E188"/>
+      <c r="F188"/>
       <c r="G188" t="n">
-        <v>0.2394835485</v>
+        <v>0</v>
       </c>
       <c r="H188" t="s">
         <v>19</v>
       </c>
       <c r="I188" t="n">
-        <v>0.002003087339</v>
+        <v>0.001605707116</v>
       </c>
       <c r="J188" t="n">
-        <v>0.9934198948</v>
+        <v>0.9992786625</v>
       </c>
       <c r="K188" t="n">
-        <v>2.445318468</v>
+        <v>5.652352991</v>
       </c>
       <c r="L188" t="n">
-        <v>0.07838834353</v>
+        <v>0.5606794318</v>
       </c>
       <c r="M188" t="n">
-        <v>0.7292764348</v>
+        <v>0.4633463765</v>
       </c>
       <c r="N188" t="n">
-        <v>1.478204278</v>
+        <v>1.267067915</v>
       </c>
       <c r="O188" t="n">
-        <v>0.01846974714</v>
+        <v>0.01795147839</v>
       </c>
     </row>
     <row r="189">
@@ -8903,41 +8809,39 @@
         <v>94</v>
       </c>
       <c r="B189" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C189" t="s">
         <v>20</v>
       </c>
-      <c r="D189"/>
-      <c r="E189" t="s">
-        <v>108</v>
-      </c>
-      <c r="F189" t="s">
-        <v>100</v>
-      </c>
+      <c r="D189" t="s">
+        <v>118</v>
+      </c>
+      <c r="E189"/>
+      <c r="F189"/>
       <c r="G189" t="n">
-        <v>0.2394835485</v>
+        <v>0</v>
       </c>
       <c r="H189" t="s">
         <v>19</v>
       </c>
       <c r="I189" t="n">
-        <v>0.000651</v>
+        <v>0.000857</v>
       </c>
       <c r="J189" t="n">
-        <v>0.999683</v>
+        <v>0.999754</v>
       </c>
       <c r="K189" t="n">
-        <v>60.965952</v>
+        <v>4.900965</v>
       </c>
       <c r="L189" t="n">
-        <v>0.058054</v>
+        <v>0.133128</v>
       </c>
       <c r="M189" t="n">
-        <v>0.266322351036466</v>
+        <v>0.425704019177969</v>
       </c>
       <c r="N189" t="n">
-        <v>0.368241342097675</v>
+        <v>1.03907830502327</v>
       </c>
       <c r="O189"/>
     </row>
@@ -8946,44 +8850,42 @@
         <v>94</v>
       </c>
       <c r="B190" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C190" t="s">
         <v>17</v>
       </c>
-      <c r="D190"/>
-      <c r="E190" t="s">
-        <v>103</v>
-      </c>
-      <c r="F190" t="s">
-        <v>97</v>
-      </c>
+      <c r="D190" t="s">
+        <v>118</v>
+      </c>
+      <c r="E190"/>
+      <c r="F190"/>
       <c r="G190" t="n">
-        <v>0.2889421075</v>
+        <v>0</v>
       </c>
       <c r="H190" t="s">
         <v>19</v>
       </c>
       <c r="I190" t="n">
-        <v>0.007075581839</v>
+        <v>0.004730906524</v>
       </c>
       <c r="J190" t="n">
-        <v>0.9828937575</v>
+        <v>0.9982473017</v>
       </c>
       <c r="K190" t="n">
-        <v>1.6949705</v>
+        <v>0.8747848739</v>
       </c>
       <c r="L190" t="n">
-        <v>0.08340500545</v>
+        <v>6.917848242</v>
       </c>
       <c r="M190" t="n">
-        <v>0.9689837622</v>
+        <v>0.2417329464</v>
       </c>
       <c r="N190" t="n">
-        <v>5.795778268</v>
+        <v>0.6842474124</v>
       </c>
       <c r="O190" t="n">
-        <v>0.01649338863</v>
+        <v>0.01702415473</v>
       </c>
     </row>
     <row r="191">
@@ -8991,41 +8893,39 @@
         <v>94</v>
       </c>
       <c r="B191" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C191" t="s">
         <v>20</v>
       </c>
-      <c r="D191"/>
-      <c r="E191" t="s">
-        <v>103</v>
-      </c>
-      <c r="F191" t="s">
-        <v>97</v>
-      </c>
+      <c r="D191" t="s">
+        <v>118</v>
+      </c>
+      <c r="E191"/>
+      <c r="F191"/>
       <c r="G191" t="n">
-        <v>0.2889421075</v>
+        <v>0</v>
       </c>
       <c r="H191" t="s">
         <v>19</v>
       </c>
       <c r="I191" t="n">
-        <v>0.002139</v>
+        <v>0.005172</v>
       </c>
       <c r="J191" t="n">
-        <v>0.999995</v>
+        <v>0.999205</v>
       </c>
       <c r="K191" t="n">
-        <v>52.625518</v>
+        <v>0.888104</v>
       </c>
       <c r="L191" t="n">
-        <v>0.711163</v>
+        <v>1.630818</v>
       </c>
       <c r="M191" t="n">
-        <v>0.463805863837215</v>
+        <v>0.24319601629669</v>
       </c>
       <c r="N191" t="n">
-        <v>0.91846164707884</v>
+        <v>0.70011941175665</v>
       </c>
       <c r="O191"/>
     </row>
@@ -9034,44 +8934,42 @@
         <v>94</v>
       </c>
       <c r="B192" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C192" t="s">
         <v>17</v>
       </c>
-      <c r="D192"/>
-      <c r="E192" t="s">
-        <v>103</v>
-      </c>
-      <c r="F192" t="s">
-        <v>97</v>
-      </c>
+      <c r="D192" t="s">
+        <v>118</v>
+      </c>
+      <c r="E192"/>
+      <c r="F192"/>
       <c r="G192" t="n">
-        <v>3.092172243</v>
+        <v>0</v>
       </c>
       <c r="H192" t="s">
         <v>19</v>
       </c>
       <c r="I192" t="n">
-        <v>0.004994924945</v>
+        <v>0.005048872863</v>
       </c>
       <c r="J192" t="n">
-        <v>0.9233653816</v>
+        <v>0.9968872433</v>
       </c>
       <c r="K192" t="n">
-        <v>10.86390999</v>
+        <v>3.366696049</v>
       </c>
       <c r="L192" t="n">
-        <v>0.9972802751</v>
+        <v>0.1909999738</v>
       </c>
       <c r="M192" t="n">
-        <v>10.32469331</v>
+        <v>0.4014150683</v>
       </c>
       <c r="N192" t="n">
-        <v>36.41591664</v>
+        <v>1.052229883</v>
       </c>
       <c r="O192" t="n">
-        <v>0.01795356794</v>
+        <v>0.01983974679</v>
       </c>
     </row>
     <row r="193">
@@ -9079,41 +8977,39 @@
         <v>94</v>
       </c>
       <c r="B193" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C193" t="s">
         <v>20</v>
       </c>
-      <c r="D193"/>
-      <c r="E193" t="s">
-        <v>103</v>
-      </c>
-      <c r="F193" t="s">
-        <v>97</v>
-      </c>
+      <c r="D193" t="s">
+        <v>118</v>
+      </c>
+      <c r="E193"/>
+      <c r="F193"/>
       <c r="G193" t="n">
-        <v>3.092172243</v>
+        <v>0</v>
       </c>
       <c r="H193" t="s">
         <v>19</v>
       </c>
       <c r="I193" t="n">
-        <v>0.000368</v>
+        <v>0.005982</v>
       </c>
       <c r="J193" t="n">
-        <v>0.999977</v>
+        <v>0.999679</v>
       </c>
       <c r="K193" t="n">
-        <v>62.234621</v>
+        <v>2.810316</v>
       </c>
       <c r="L193" t="n">
-        <v>0.613197</v>
+        <v>0.074884</v>
       </c>
       <c r="M193" t="n">
-        <v>0.182793827310165</v>
+        <v>0.364781997758686</v>
       </c>
       <c r="N193" t="n">
-        <v>0.398200079066591</v>
+        <v>0.823448280999521</v>
       </c>
       <c r="O193"/>
     </row>
@@ -9122,44 +9018,42 @@
         <v>94</v>
       </c>
       <c r="B194" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C194" t="s">
         <v>17</v>
       </c>
-      <c r="D194"/>
-      <c r="E194" t="s">
-        <v>103</v>
-      </c>
-      <c r="F194" t="s">
-        <v>100</v>
-      </c>
+      <c r="D194" t="s">
+        <v>118</v>
+      </c>
+      <c r="E194"/>
+      <c r="F194"/>
       <c r="G194" t="n">
-        <v>0.2736128465</v>
+        <v>0</v>
       </c>
       <c r="H194" t="s">
         <v>19</v>
       </c>
       <c r="I194" t="n">
-        <v>0.005932849513</v>
+        <v>0.006600089147</v>
       </c>
       <c r="J194" t="n">
-        <v>0.9963978123</v>
+        <v>0.9985589468</v>
       </c>
       <c r="K194" t="n">
-        <v>4.197067473</v>
+        <v>1.955166534</v>
       </c>
       <c r="L194" t="n">
-        <v>0.07838834353</v>
+        <v>0.1777683958</v>
       </c>
       <c r="M194" t="n">
-        <v>2.234426012</v>
+        <v>0.489765532</v>
       </c>
       <c r="N194" t="n">
-        <v>2.30287169</v>
+        <v>1.014794327</v>
       </c>
       <c r="O194" t="n">
-        <v>0.01595719018</v>
+        <v>0.01917068037</v>
       </c>
     </row>
     <row r="195">
@@ -9167,41 +9061,39 @@
         <v>94</v>
       </c>
       <c r="B195" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C195" t="s">
         <v>20</v>
       </c>
-      <c r="D195"/>
-      <c r="E195" t="s">
-        <v>103</v>
-      </c>
-      <c r="F195" t="s">
-        <v>100</v>
-      </c>
+      <c r="D195" t="s">
+        <v>118</v>
+      </c>
+      <c r="E195"/>
+      <c r="F195"/>
       <c r="G195" t="n">
-        <v>0.2736128465</v>
+        <v>0</v>
       </c>
       <c r="H195" t="s">
         <v>19</v>
       </c>
       <c r="I195" t="n">
-        <v>0.001998</v>
+        <v>0.006405</v>
       </c>
       <c r="J195" t="n">
-        <v>0.999953</v>
+        <v>0.999488</v>
       </c>
       <c r="K195" t="n">
-        <v>52.119928</v>
+        <v>1.727449</v>
       </c>
       <c r="L195" t="n">
-        <v>0.439034</v>
+        <v>0.074884</v>
       </c>
       <c r="M195" t="n">
-        <v>0.559375101445209</v>
+        <v>0.426289405759263</v>
       </c>
       <c r="N195" t="n">
-        <v>0.679911195549716</v>
+        <v>0.803732270385557</v>
       </c>
       <c r="O195"/>
     </row>
@@ -9210,44 +9102,42 @@
         <v>94</v>
       </c>
       <c r="B196" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C196" t="s">
         <v>17</v>
       </c>
-      <c r="D196"/>
-      <c r="E196" t="s">
-        <v>103</v>
-      </c>
-      <c r="F196" t="s">
-        <v>100</v>
-      </c>
+      <c r="D196" t="s">
+        <v>118</v>
+      </c>
+      <c r="E196"/>
+      <c r="F196"/>
       <c r="G196" t="n">
-        <v>1.56850155</v>
+        <v>0</v>
       </c>
       <c r="H196" t="s">
         <v>19</v>
       </c>
       <c r="I196" t="n">
-        <v>0.006599490184</v>
+        <v>0.007925134399</v>
       </c>
       <c r="J196" t="n">
-        <v>0.9097145607</v>
+        <v>0.9982346822</v>
       </c>
       <c r="K196" t="n">
-        <v>4.793902568</v>
+        <v>1.355702738</v>
       </c>
       <c r="L196" t="n">
-        <v>3.04613068</v>
+        <v>44.73203402</v>
       </c>
       <c r="M196" t="n">
-        <v>5.640511661</v>
+        <v>0.3011009454</v>
       </c>
       <c r="N196" t="n">
-        <v>10.21086867</v>
+        <v>0.6856977165</v>
       </c>
       <c r="O196" t="n">
-        <v>0.01888923869</v>
+        <v>0.02001019556</v>
       </c>
     </row>
     <row r="197">
@@ -9255,41 +9145,39 @@
         <v>94</v>
       </c>
       <c r="B197" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C197" t="s">
         <v>20</v>
       </c>
-      <c r="D197"/>
-      <c r="E197" t="s">
-        <v>103</v>
-      </c>
-      <c r="F197" t="s">
-        <v>100</v>
-      </c>
+      <c r="D197" t="s">
+        <v>118</v>
+      </c>
+      <c r="E197"/>
+      <c r="F197"/>
       <c r="G197" t="n">
-        <v>1.56850155</v>
+        <v>0</v>
       </c>
       <c r="H197" t="s">
         <v>19</v>
       </c>
       <c r="I197" t="n">
-        <v>0.000877</v>
+        <v>0.008325</v>
       </c>
       <c r="J197" t="n">
-        <v>0.999991</v>
+        <v>0.998937</v>
       </c>
       <c r="K197" t="n">
-        <v>56.63966</v>
+        <v>1.411798</v>
       </c>
       <c r="L197" t="n">
-        <v>0.522487</v>
+        <v>9.061024</v>
       </c>
       <c r="M197" t="n">
-        <v>0.222327507022611</v>
+        <v>0.337010940756141</v>
       </c>
       <c r="N197" t="n">
-        <v>0.365391935785552</v>
+        <v>0.612368331889417</v>
       </c>
       <c r="O197"/>
     </row>
@@ -9298,44 +9186,42 @@
         <v>94</v>
       </c>
       <c r="B198" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C198" t="s">
         <v>17</v>
       </c>
-      <c r="D198"/>
-      <c r="E198" t="s">
-        <v>114</v>
-      </c>
-      <c r="F198" t="s">
-        <v>97</v>
-      </c>
+      <c r="D198" t="s">
+        <v>118</v>
+      </c>
+      <c r="E198"/>
+      <c r="F198"/>
       <c r="G198" t="n">
-        <v>4.472384192</v>
+        <v>0</v>
       </c>
       <c r="H198" t="s">
         <v>19</v>
       </c>
       <c r="I198" t="n">
-        <v>0.005991581983</v>
+        <v>0.005798404857</v>
       </c>
       <c r="J198" t="n">
-        <v>0.9935653584</v>
+        <v>0.9995526362</v>
       </c>
       <c r="K198" t="n">
-        <v>32.39424855</v>
+        <v>0.7939433263</v>
       </c>
       <c r="L198" t="n">
-        <v>0.3265020617</v>
+        <v>0.3392058576</v>
       </c>
       <c r="M198" t="n">
-        <v>1.729337224</v>
+        <v>0.2180543091</v>
       </c>
       <c r="N198" t="n">
-        <v>5.076058089</v>
+        <v>0.56499408</v>
       </c>
       <c r="O198" t="n">
-        <v>0.01742296809</v>
+        <v>0.01790213881</v>
       </c>
     </row>
     <row r="199">
@@ -9343,41 +9229,39 @@
         <v>94</v>
       </c>
       <c r="B199" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C199" t="s">
         <v>20</v>
       </c>
-      <c r="D199"/>
-      <c r="E199" t="s">
-        <v>114</v>
-      </c>
-      <c r="F199" t="s">
-        <v>97</v>
-      </c>
+      <c r="D199" t="s">
+        <v>118</v>
+      </c>
+      <c r="E199"/>
+      <c r="F199"/>
       <c r="G199" t="n">
-        <v>4.472384192</v>
+        <v>0</v>
       </c>
       <c r="H199" t="s">
         <v>19</v>
       </c>
       <c r="I199" t="n">
-        <v>0.001071</v>
+        <v>0.007068</v>
       </c>
       <c r="J199" t="n">
-        <v>0.999975</v>
+        <v>0.998756</v>
       </c>
       <c r="K199" t="n">
-        <v>64.33913</v>
+        <v>0.835239</v>
       </c>
       <c r="L199" t="n">
-        <v>0.439034</v>
+        <v>7.488449</v>
       </c>
       <c r="M199" t="n">
-        <v>0.315241986039948</v>
+        <v>0.337935189806155</v>
       </c>
       <c r="N199" t="n">
-        <v>0.445221422149737</v>
+        <v>0.547816120011355</v>
       </c>
       <c r="O199"/>
     </row>
@@ -9386,44 +9270,42 @@
         <v>94</v>
       </c>
       <c r="B200" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C200" t="s">
         <v>17</v>
       </c>
-      <c r="D200"/>
-      <c r="E200" t="s">
-        <v>114</v>
-      </c>
-      <c r="F200" t="s">
-        <v>97</v>
-      </c>
+      <c r="D200" t="s">
+        <v>118</v>
+      </c>
+      <c r="E200"/>
+      <c r="F200"/>
       <c r="G200" t="n">
-        <v>2.646177519</v>
+        <v>0</v>
       </c>
       <c r="H200" t="s">
         <v>19</v>
       </c>
       <c r="I200" t="n">
-        <v>0.004799624641</v>
+        <v>0.001323686662</v>
       </c>
       <c r="J200" t="n">
-        <v>0.9971702309</v>
+        <v>0.9978898699</v>
       </c>
       <c r="K200" t="n">
-        <v>29.63050783</v>
+        <v>3.132384629</v>
       </c>
       <c r="L200" t="n">
-        <v>0.1650209267</v>
+        <v>0.3157072744</v>
       </c>
       <c r="M200" t="n">
-        <v>1.201036473</v>
+        <v>1.167792107</v>
       </c>
       <c r="N200" t="n">
-        <v>1.738915693</v>
+        <v>1.877344641</v>
       </c>
       <c r="O200" t="n">
-        <v>0.01764294591</v>
+        <v>0.01826430911</v>
       </c>
     </row>
     <row r="201">
@@ -9431,41 +9313,39 @@
         <v>94</v>
       </c>
       <c r="B201" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C201" t="s">
         <v>20</v>
       </c>
-      <c r="D201"/>
-      <c r="E201" t="s">
-        <v>114</v>
-      </c>
-      <c r="F201" t="s">
-        <v>97</v>
-      </c>
+      <c r="D201" t="s">
+        <v>118</v>
+      </c>
+      <c r="E201"/>
+      <c r="F201"/>
       <c r="G201" t="n">
-        <v>2.646177519</v>
+        <v>0</v>
       </c>
       <c r="H201" t="s">
         <v>19</v>
       </c>
       <c r="I201" t="n">
-        <v>0.001423</v>
+        <v>0.002892</v>
       </c>
       <c r="J201" t="n">
-        <v>0.999965</v>
+        <v>0.984352</v>
       </c>
       <c r="K201" t="n">
-        <v>41.857799</v>
+        <v>2.822621</v>
       </c>
       <c r="L201" t="n">
-        <v>0.177791</v>
+        <v>108.133207</v>
       </c>
       <c r="M201" t="n">
-        <v>0.438126459948937</v>
+        <v>0.52249840131962</v>
       </c>
       <c r="N201" t="n">
-        <v>0.578898706408148</v>
+        <v>1.18065825708156</v>
       </c>
       <c r="O201"/>
     </row>
@@ -9474,44 +9354,42 @@
         <v>94</v>
       </c>
       <c r="B202" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C202" t="s">
         <v>17</v>
       </c>
-      <c r="D202"/>
-      <c r="E202" t="s">
-        <v>114</v>
-      </c>
-      <c r="F202" t="s">
-        <v>100</v>
-      </c>
+      <c r="D202" t="s">
+        <v>129</v>
+      </c>
+      <c r="E202"/>
+      <c r="F202"/>
       <c r="G202" t="n">
-        <v>0.3271206442</v>
+        <v>0</v>
       </c>
       <c r="H202" t="s">
         <v>19</v>
       </c>
       <c r="I202" t="n">
-        <v>0.006006712705</v>
+        <v>0.00451576597</v>
       </c>
       <c r="J202" t="n">
-        <v>0.987344213</v>
+        <v>0.99875398</v>
       </c>
       <c r="K202" t="n">
-        <v>5.671158448</v>
+        <v>1.189109554</v>
       </c>
       <c r="L202" t="n">
-        <v>9.899664123</v>
+        <v>0.3398121559</v>
       </c>
       <c r="M202" t="n">
-        <v>0.8618896844</v>
+        <v>0.4077317081</v>
       </c>
       <c r="N202" t="n">
-        <v>1.591850998</v>
+        <v>0.6931127501</v>
       </c>
       <c r="O202" t="n">
-        <v>0.02010935307</v>
+        <v>0.0171851908</v>
       </c>
     </row>
     <row r="203">
@@ -9519,41 +9397,39 @@
         <v>94</v>
       </c>
       <c r="B203" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C203" t="s">
         <v>20</v>
       </c>
-      <c r="D203"/>
-      <c r="E203" t="s">
-        <v>114</v>
-      </c>
-      <c r="F203" t="s">
-        <v>100</v>
-      </c>
+      <c r="D203" t="s">
+        <v>129</v>
+      </c>
+      <c r="E203"/>
+      <c r="F203"/>
       <c r="G203" t="n">
-        <v>0.3271206442</v>
+        <v>0</v>
       </c>
       <c r="H203" t="s">
         <v>19</v>
       </c>
       <c r="I203" t="n">
-        <v>0.001266</v>
+        <v>0.00534</v>
       </c>
       <c r="J203" t="n">
-        <v>0.99999</v>
+        <v>0.999569</v>
       </c>
       <c r="K203" t="n">
-        <v>34.42806</v>
+        <v>1.13163</v>
       </c>
       <c r="L203" t="n">
-        <v>0.232217</v>
+        <v>0.133366</v>
       </c>
       <c r="M203" t="n">
-        <v>0.427487314222482</v>
+        <v>0.352241738374962</v>
       </c>
       <c r="N203" t="n">
-        <v>0.62889135193001</v>
+        <v>0.620414833061923</v>
       </c>
       <c r="O203"/>
     </row>
@@ -9562,44 +9438,42 @@
         <v>94</v>
       </c>
       <c r="B204" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C204" t="s">
         <v>17</v>
       </c>
-      <c r="D204"/>
-      <c r="E204" t="s">
-        <v>114</v>
-      </c>
-      <c r="F204" t="s">
-        <v>100</v>
-      </c>
+      <c r="D204" t="s">
+        <v>129</v>
+      </c>
+      <c r="E204"/>
+      <c r="F204"/>
       <c r="G204" t="n">
-        <v>1.731628025</v>
+        <v>0</v>
       </c>
       <c r="H204" t="s">
         <v>19</v>
       </c>
       <c r="I204" t="n">
-        <v>0.004158419251</v>
+        <v>0.001674513564</v>
       </c>
       <c r="J204" t="n">
-        <v>0.9947795113</v>
+        <v>0.9996968092</v>
       </c>
       <c r="K204" t="n">
-        <v>9.493842319</v>
+        <v>2.867317628</v>
       </c>
       <c r="L204" t="n">
-        <v>2.099446266</v>
+        <v>1.90339541</v>
       </c>
       <c r="M204" t="n">
-        <v>0.7595441881</v>
+        <v>0.1468215736</v>
       </c>
       <c r="N204" t="n">
-        <v>3.567648922</v>
+        <v>0.4120698957</v>
       </c>
       <c r="O204" t="n">
-        <v>0.01937457119</v>
+        <v>0.01697968866</v>
       </c>
     </row>
     <row r="205">
@@ -9607,56 +9481,54 @@
         <v>94</v>
       </c>
       <c r="B205" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C205" t="s">
         <v>20</v>
       </c>
-      <c r="D205"/>
-      <c r="E205" t="s">
-        <v>114</v>
-      </c>
-      <c r="F205" t="s">
-        <v>100</v>
-      </c>
+      <c r="D205" t="s">
+        <v>129</v>
+      </c>
+      <c r="E205"/>
+      <c r="F205"/>
       <c r="G205" t="n">
-        <v>1.731628025</v>
+        <v>0</v>
       </c>
       <c r="H205" t="s">
         <v>19</v>
       </c>
       <c r="I205" t="n">
-        <v>0.001913</v>
+        <v>0.001722</v>
       </c>
       <c r="J205" t="n">
-        <v>0.999926</v>
+        <v>0.999857</v>
       </c>
       <c r="K205" t="n">
-        <v>62.819747</v>
+        <v>2.787743</v>
       </c>
       <c r="L205" t="n">
-        <v>0.232217</v>
+        <v>0.533464</v>
       </c>
       <c r="M205" t="n">
-        <v>0.253453603819773</v>
+        <v>0.129403156797401</v>
       </c>
       <c r="N205" t="n">
-        <v>0.404761912725326</v>
+        <v>0.391031500843556</v>
       </c>
       <c r="O205"/>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="B206" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C206" t="s">
         <v>17</v>
       </c>
       <c r="D206" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E206"/>
       <c r="F206"/>
@@ -9667,39 +9539,39 @@
         <v>19</v>
       </c>
       <c r="I206" t="n">
-        <v>0.00249736901</v>
+        <v>0.007887921169</v>
       </c>
       <c r="J206" t="n">
-        <v>0.9986400762</v>
+        <v>0.9990912635</v>
       </c>
       <c r="K206" t="n">
-        <v>10.737686</v>
+        <v>0.85543084</v>
       </c>
       <c r="L206" t="n">
-        <v>12.28573282</v>
+        <v>2.725353175</v>
       </c>
       <c r="M206" t="n">
-        <v>1.440181705</v>
+        <v>0.2463532555</v>
       </c>
       <c r="N206" t="n">
-        <v>2.348140732</v>
+        <v>0.4548710229</v>
       </c>
       <c r="O206" t="n">
-        <v>0.01865612928</v>
+        <v>0.01766117694</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="B207" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C207" t="s">
         <v>20</v>
       </c>
       <c r="D207" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E207"/>
       <c r="F207"/>
@@ -9710,37 +9582,37 @@
         <v>19</v>
       </c>
       <c r="I207" t="n">
-        <v>0.001922</v>
+        <v>0.008293</v>
       </c>
       <c r="J207" t="n">
-        <v>0.999544</v>
+        <v>0.999598</v>
       </c>
       <c r="K207" t="n">
-        <v>9.562123</v>
+        <v>0.873244</v>
       </c>
       <c r="L207" t="n">
-        <v>2.695842</v>
+        <v>0.833537</v>
       </c>
       <c r="M207" t="n">
-        <v>1.32961447881624</v>
+        <v>0.251046940767273</v>
       </c>
       <c r="N207" t="n">
-        <v>2.05741521677801</v>
+        <v>0.438062476089958</v>
       </c>
       <c r="O207"/>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="B208" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C208" t="s">
         <v>17</v>
       </c>
       <c r="D208" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E208"/>
       <c r="F208"/>
@@ -9751,39 +9623,39 @@
         <v>19</v>
       </c>
       <c r="I208" t="n">
-        <v>0.001207926056</v>
+        <v>0.006700542038</v>
       </c>
       <c r="J208" t="n">
-        <v>0.9987381341</v>
+        <v>0.9994250184</v>
       </c>
       <c r="K208" t="n">
-        <v>2.300115158</v>
+        <v>0.8323418807</v>
       </c>
       <c r="L208" t="n">
-        <v>3.3742984</v>
+        <v>1.648813401</v>
       </c>
       <c r="M208" t="n">
-        <v>0.2884126033</v>
+        <v>0.2266678492</v>
       </c>
       <c r="N208" t="n">
-        <v>0.8130148397</v>
+        <v>0.3846998791</v>
       </c>
       <c r="O208" t="n">
-        <v>0.01715131292</v>
+        <v>0.01685242918</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="B209" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C209" t="s">
         <v>20</v>
       </c>
       <c r="D209" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E209"/>
       <c r="F209"/>
@@ -9794,37 +9666,37 @@
         <v>19</v>
       </c>
       <c r="I209" t="n">
-        <v>0.001416</v>
+        <v>0.006605</v>
       </c>
       <c r="J209" t="n">
-        <v>0.999859</v>
+        <v>0.999607</v>
       </c>
       <c r="K209" t="n">
-        <v>2.230088</v>
+        <v>0.837315</v>
       </c>
       <c r="L209" t="n">
-        <v>1.198152</v>
+        <v>0.408433</v>
       </c>
       <c r="M209" t="n">
-        <v>0.247640320329482</v>
+        <v>0.243967507385135</v>
       </c>
       <c r="N209" t="n">
-        <v>0.73573314598305</v>
+        <v>0.385914798480832</v>
       </c>
       <c r="O209"/>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="B210" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C210" t="s">
         <v>17</v>
       </c>
       <c r="D210" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E210"/>
       <c r="F210"/>
@@ -9835,39 +9707,39 @@
         <v>19</v>
       </c>
       <c r="I210" t="n">
-        <v>0.002741180913</v>
+        <v>0.003714558856</v>
       </c>
       <c r="J210" t="n">
-        <v>0.9973668344</v>
+        <v>0.999026571</v>
       </c>
       <c r="K210" t="n">
-        <v>6.665880271</v>
+        <v>1.327527764</v>
       </c>
       <c r="L210" t="n">
-        <v>2.720490556</v>
+        <v>0.220885081</v>
       </c>
       <c r="M210" t="n">
-        <v>0.5665925384</v>
+        <v>0.246360792</v>
       </c>
       <c r="N210" t="n">
-        <v>2.063353896</v>
+        <v>0.51189897</v>
       </c>
       <c r="O210" t="n">
-        <v>0.01843510845</v>
+        <v>0.01764824366</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="B211" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C211" t="s">
         <v>20</v>
       </c>
       <c r="D211" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E211"/>
       <c r="F211"/>
@@ -9878,37 +9750,37 @@
         <v>19</v>
       </c>
       <c r="I211" t="n">
-        <v>0.002431</v>
+        <v>0.004944</v>
       </c>
       <c r="J211" t="n">
-        <v>0.999686</v>
+        <v>0.998998</v>
       </c>
       <c r="K211" t="n">
-        <v>5.877414</v>
+        <v>1.245215</v>
       </c>
       <c r="L211" t="n">
-        <v>1.198152</v>
+        <v>0.075018</v>
       </c>
       <c r="M211" t="n">
-        <v>0.483163144536915</v>
+        <v>0.230885127314988</v>
       </c>
       <c r="N211" t="n">
-        <v>1.84533177529235</v>
+        <v>0.456833703043507</v>
       </c>
       <c r="O211"/>
     </row>
     <row r="212">
       <c r="A212" t="s">
+        <v>94</v>
+      </c>
+      <c r="B212" t="s">
         <v>134</v>
       </c>
-      <c r="B212" t="s">
-        <v>139</v>
-      </c>
       <c r="C212" t="s">
         <v>17</v>
       </c>
       <c r="D212" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E212"/>
       <c r="F212"/>
@@ -9919,39 +9791,39 @@
         <v>19</v>
       </c>
       <c r="I212" t="n">
-        <v>0.001527963598</v>
+        <v>0.005346323534</v>
       </c>
       <c r="J212" t="n">
-        <v>0.9994838334</v>
+        <v>0.9982377485</v>
       </c>
       <c r="K212" t="n">
-        <v>2.934908739</v>
+        <v>8.348868372</v>
       </c>
       <c r="L212" t="n">
-        <v>5.577438205</v>
+        <v>0.1913413681</v>
       </c>
       <c r="M212" t="n">
-        <v>0.2964396812</v>
+        <v>0.4207267812</v>
       </c>
       <c r="N212" t="n">
-        <v>0.8028658428</v>
+        <v>0.7145951027</v>
       </c>
       <c r="O212" t="n">
-        <v>0.01774636867</v>
+        <v>0.01876502383</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
+        <v>94</v>
+      </c>
+      <c r="B213" t="s">
         <v>134</v>
       </c>
-      <c r="B213" t="s">
-        <v>139</v>
-      </c>
       <c r="C213" t="s">
         <v>20</v>
       </c>
       <c r="D213" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E213"/>
       <c r="F213"/>
@@ -9962,37 +9834,37 @@
         <v>19</v>
       </c>
       <c r="I213" t="n">
-        <v>0.000174</v>
+        <v>0.004251</v>
       </c>
       <c r="J213" t="n">
-        <v>0.999297</v>
+        <v>0.999452</v>
       </c>
       <c r="K213" t="n">
-        <v>2.869425</v>
+        <v>6.578257</v>
       </c>
       <c r="L213" t="n">
-        <v>1.630818</v>
+        <v>0.075018</v>
       </c>
       <c r="M213" t="n">
-        <v>0.302847433211672</v>
+        <v>0.376686962637075</v>
       </c>
       <c r="N213" t="n">
-        <v>0.694714417131445</v>
+        <v>0.604153777395749</v>
       </c>
       <c r="O213"/>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="B214" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C214" t="s">
         <v>17</v>
       </c>
       <c r="D214" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E214"/>
       <c r="F214"/>
@@ -10003,39 +9875,39 @@
         <v>19</v>
       </c>
       <c r="I214" t="n">
-        <v>0.001611833672</v>
+        <v>0.005882298625</v>
       </c>
       <c r="J214" t="n">
-        <v>0.9993711665</v>
+        <v>0.9984011385</v>
       </c>
       <c r="K214" t="n">
-        <v>12.22969371</v>
+        <v>1.943527718</v>
       </c>
       <c r="L214" t="n">
-        <v>0.8028019096</v>
+        <v>0.1913413681</v>
       </c>
       <c r="M214" t="n">
-        <v>0.55549291</v>
+        <v>1.139163136</v>
       </c>
       <c r="N214" t="n">
-        <v>1.630628021</v>
+        <v>1.346246106</v>
       </c>
       <c r="O214" t="n">
-        <v>0.01801825487</v>
+        <v>0.0185811976</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="B215" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C215" t="s">
         <v>20</v>
       </c>
       <c r="D215" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E215"/>
       <c r="F215"/>
@@ -10046,37 +9918,37 @@
         <v>19</v>
       </c>
       <c r="I215" t="n">
-        <v>0.000728</v>
+        <v>0.002599</v>
       </c>
       <c r="J215" t="n">
-        <v>0.999932</v>
+        <v>0.999541</v>
       </c>
       <c r="K215" t="n">
-        <v>10.236008</v>
+        <v>1.672554</v>
       </c>
       <c r="L215" t="n">
-        <v>0.133128</v>
+        <v>0.075018</v>
       </c>
       <c r="M215" t="n">
-        <v>0.462619939691624</v>
+        <v>0.785956933323434</v>
       </c>
       <c r="N215" t="n">
-        <v>1.37048464218388</v>
+        <v>1.01185348169271</v>
       </c>
       <c r="O215"/>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="B216" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C216" t="s">
         <v>17</v>
       </c>
       <c r="D216" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E216"/>
       <c r="F216"/>
@@ -10087,39 +9959,39 @@
         <v>19</v>
       </c>
       <c r="I216" t="n">
-        <v>0.00255723947</v>
+        <v>0.0003355399204</v>
       </c>
       <c r="J216" t="n">
-        <v>0.9992650937</v>
+        <v>0.996824313</v>
       </c>
       <c r="K216" t="n">
-        <v>2.855472131</v>
+        <v>1.828119937</v>
       </c>
       <c r="L216" t="n">
-        <v>0.7471875767</v>
+        <v>4.192714753</v>
       </c>
       <c r="M216" t="n">
-        <v>0.2271429298</v>
+        <v>0.8282796919</v>
       </c>
       <c r="N216" t="n">
-        <v>0.8501932621</v>
+        <v>1.123493299</v>
       </c>
       <c r="O216" t="n">
-        <v>0.01744671518</v>
+        <v>0.01769705167</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="B217" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C217" t="s">
         <v>20</v>
       </c>
       <c r="D217" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E217"/>
       <c r="F217"/>
@@ -10130,37 +10002,37 @@
         <v>19</v>
       </c>
       <c r="I217" t="n">
-        <v>0.002977</v>
+        <v>0.004424</v>
       </c>
       <c r="J217" t="n">
-        <v>0.999886</v>
+        <v>0.99936</v>
       </c>
       <c r="K217" t="n">
-        <v>2.565167</v>
+        <v>1.819802</v>
       </c>
       <c r="L217" t="n">
-        <v>0.299538</v>
+        <v>1.408678</v>
       </c>
       <c r="M217" t="n">
-        <v>0.237940874487442</v>
+        <v>0.836560010920305</v>
       </c>
       <c r="N217" t="n">
-        <v>0.784999277129195</v>
+        <v>1.11170575018857</v>
       </c>
       <c r="O217"/>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="B218" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C218" t="s">
         <v>17</v>
       </c>
       <c r="D218" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E218"/>
       <c r="F218"/>
@@ -10171,39 +10043,39 @@
         <v>19</v>
       </c>
       <c r="I218" t="n">
-        <v>0.006248850204</v>
+        <v>0.003402700285</v>
       </c>
       <c r="J218" t="n">
-        <v>0.9988076935</v>
+        <v>0.9988499029</v>
       </c>
       <c r="K218" t="n">
-        <v>1.903044494</v>
+        <v>2.864831406</v>
       </c>
       <c r="L218" t="n">
-        <v>0.3392058576</v>
+        <v>0.4865558324</v>
       </c>
       <c r="M218" t="n">
-        <v>0.5066210542</v>
+        <v>0.6374994163</v>
       </c>
       <c r="N218" t="n">
-        <v>1.397041149</v>
+        <v>1.538942513</v>
       </c>
       <c r="O218" t="n">
-        <v>0.020194359</v>
+        <v>0.01897771794</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="B219" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C219" t="s">
         <v>20</v>
       </c>
       <c r="D219" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E219"/>
       <c r="F219"/>
@@ -10214,37 +10086,37 @@
         <v>19</v>
       </c>
       <c r="I219" t="n">
-        <v>0.00612</v>
+        <v>0.003139</v>
       </c>
       <c r="J219" t="n">
-        <v>0.999825</v>
+        <v>0.999739</v>
       </c>
       <c r="K219" t="n">
-        <v>1.688368</v>
+        <v>2.758297</v>
       </c>
       <c r="L219" t="n">
-        <v>0.133128</v>
+        <v>0.133366</v>
       </c>
       <c r="M219" t="n">
-        <v>0.417914872878647</v>
+        <v>0.955699412279703</v>
       </c>
       <c r="N219" t="n">
-        <v>1.20481249102725</v>
+        <v>1.8317207798495</v>
       </c>
       <c r="O219"/>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="B220" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C220" t="s">
         <v>17</v>
       </c>
       <c r="D220" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E220"/>
       <c r="F220"/>
@@ -10255,39 +10127,39 @@
         <v>19</v>
       </c>
       <c r="I220" t="n">
-        <v>0.003363863486</v>
+        <v>0.001219624955</v>
       </c>
       <c r="J220" t="n">
-        <v>0.9986555146</v>
+        <v>0.9994785208</v>
       </c>
       <c r="K220" t="n">
-        <v>7.497434226</v>
+        <v>1.481662424</v>
       </c>
       <c r="L220" t="n">
-        <v>12.28573282</v>
+        <v>1.237247232</v>
       </c>
       <c r="M220" t="n">
-        <v>1.58581125</v>
+        <v>0.3706908731</v>
       </c>
       <c r="N220" t="n">
-        <v>2.586812072</v>
+        <v>0.8041382014</v>
       </c>
       <c r="O220" t="n">
-        <v>0.0186411527</v>
+        <v>0.01749796943</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="B221" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C221" t="s">
         <v>20</v>
       </c>
       <c r="D221" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E221"/>
       <c r="F221"/>
@@ -10298,1960 +10170,2052 @@
         <v>19</v>
       </c>
       <c r="I221" t="n">
-        <v>0.003025</v>
+        <v>0.000703</v>
       </c>
       <c r="J221" t="n">
-        <v>0.998483</v>
+        <v>0.999857</v>
       </c>
       <c r="K221" t="n">
-        <v>6.654225</v>
+        <v>1.432148</v>
       </c>
       <c r="L221" t="n">
-        <v>4.027122</v>
+        <v>0.408433</v>
       </c>
       <c r="M221" t="n">
-        <v>1.60703342609644</v>
+        <v>0.346111253053922</v>
       </c>
       <c r="N221" t="n">
-        <v>2.89811164415487</v>
+        <v>0.839946048729549</v>
       </c>
       <c r="O221"/>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B222" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C222" t="s">
         <v>17</v>
       </c>
-      <c r="D222" t="s">
-        <v>136</v>
-      </c>
-      <c r="E222"/>
-      <c r="F222"/>
+      <c r="D222"/>
+      <c r="E222" t="s">
+        <v>141</v>
+      </c>
+      <c r="F222" t="s">
+        <v>142</v>
+      </c>
       <c r="G222" t="n">
-        <v>0</v>
+        <v>1.766335786</v>
       </c>
       <c r="H222" t="s">
         <v>19</v>
       </c>
       <c r="I222" t="n">
-        <v>0.002936613868</v>
+        <v>0.002819223341</v>
       </c>
       <c r="J222" t="n">
-        <v>0.9989236431</v>
+        <v>0.9989831778</v>
       </c>
       <c r="K222" t="n">
-        <v>3.209267571</v>
+        <v>44.6740719</v>
       </c>
       <c r="L222" t="n">
-        <v>0.1909999738</v>
+        <v>0.1004648173</v>
       </c>
       <c r="M222" t="n">
-        <v>0.4766514882</v>
+        <v>0.07663489617</v>
       </c>
       <c r="N222" t="n">
-        <v>0.8742275689</v>
+        <v>0.2368160362</v>
       </c>
       <c r="O222" t="n">
-        <v>0.01879094064</v>
+        <v>0.01654115803</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B223" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C223" t="s">
         <v>20</v>
       </c>
-      <c r="D223" t="s">
-        <v>136</v>
-      </c>
-      <c r="E223"/>
-      <c r="F223"/>
+      <c r="D223"/>
+      <c r="E223" t="s">
+        <v>141</v>
+      </c>
+      <c r="F223" t="s">
+        <v>142</v>
+      </c>
       <c r="G223" t="n">
-        <v>0</v>
+        <v>1.766335786</v>
       </c>
       <c r="H223" t="s">
         <v>19</v>
       </c>
       <c r="I223" t="n">
-        <v>0.002672</v>
+        <v>0.002693</v>
       </c>
       <c r="J223" t="n">
-        <v>0.99929</v>
+        <v>0.999842</v>
       </c>
       <c r="K223" t="n">
-        <v>2.720829</v>
+        <v>37.182009</v>
       </c>
       <c r="L223" t="n">
-        <v>0.074884</v>
+        <v>0.014514</v>
       </c>
       <c r="M223" t="n">
-        <v>0.354657334138285</v>
+        <v>0.0819297245978834</v>
       </c>
       <c r="N223" t="n">
-        <v>1.07378403686271</v>
+        <v>0.167676762761206</v>
       </c>
       <c r="O223"/>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B224" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C224" t="s">
         <v>17</v>
       </c>
-      <c r="D224" t="s">
-        <v>136</v>
-      </c>
-      <c r="E224"/>
-      <c r="F224"/>
+      <c r="D224"/>
+      <c r="E224" t="s">
+        <v>141</v>
+      </c>
+      <c r="F224" t="s">
+        <v>142</v>
+      </c>
       <c r="G224" t="n">
-        <v>0</v>
+        <v>1.92280994</v>
       </c>
       <c r="H224" t="s">
         <v>19</v>
       </c>
       <c r="I224" t="n">
-        <v>0.0003988616117</v>
+        <v>0.002529152347</v>
       </c>
       <c r="J224" t="n">
-        <v>0.9991424111</v>
+        <v>0.9991156514</v>
       </c>
       <c r="K224" t="n">
-        <v>11.66273782</v>
+        <v>43.74263502</v>
       </c>
       <c r="L224" t="n">
-        <v>3.3742984</v>
+        <v>0.1004648173</v>
       </c>
       <c r="M224" t="n">
-        <v>0.8241344421</v>
+        <v>0.09994383088</v>
       </c>
       <c r="N224" t="n">
-        <v>1.460159596</v>
+        <v>0.2608171702</v>
       </c>
       <c r="O224" t="n">
-        <v>0.01764819729</v>
+        <v>0.01702858706</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B225" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C225" t="s">
         <v>20</v>
       </c>
-      <c r="D225" t="s">
-        <v>136</v>
-      </c>
-      <c r="E225"/>
-      <c r="F225"/>
+      <c r="D225"/>
+      <c r="E225" t="s">
+        <v>141</v>
+      </c>
+      <c r="F225" t="s">
+        <v>142</v>
+      </c>
       <c r="G225" t="n">
-        <v>0</v>
+        <v>1.92280994</v>
       </c>
       <c r="H225" t="s">
         <v>19</v>
       </c>
       <c r="I225" t="n">
-        <v>0.000292</v>
+        <v>0.002211</v>
       </c>
       <c r="J225" t="n">
-        <v>0.999927</v>
+        <v>0.99972</v>
       </c>
       <c r="K225" t="n">
-        <v>10.0163</v>
+        <v>36.541066</v>
       </c>
       <c r="L225" t="n">
-        <v>0.208012</v>
+        <v>0.014514</v>
       </c>
       <c r="M225" t="n">
-        <v>0.481016823781729</v>
+        <v>0.0880630245579665</v>
       </c>
       <c r="N225" t="n">
-        <v>1.44140376048936</v>
+        <v>0.219674444929301</v>
       </c>
       <c r="O225"/>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B226" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C226" t="s">
         <v>17</v>
       </c>
-      <c r="D226" t="s">
-        <v>147</v>
-      </c>
-      <c r="E226"/>
-      <c r="F226"/>
+      <c r="D226"/>
+      <c r="E226" t="s">
+        <v>141</v>
+      </c>
+      <c r="F226" t="s">
+        <v>145</v>
+      </c>
       <c r="G226" t="n">
-        <v>0</v>
+        <v>2.211462816</v>
       </c>
       <c r="H226" t="s">
         <v>19</v>
       </c>
       <c r="I226" t="n">
-        <v>0.002015098422</v>
+        <v>0.002683911906</v>
       </c>
       <c r="J226" t="n">
-        <v>0.999072208</v>
+        <v>0.9986471806</v>
       </c>
       <c r="K226" t="n">
-        <v>4.178203193</v>
+        <v>45.72611112</v>
       </c>
       <c r="L226" t="n">
-        <v>0.5616815931</v>
+        <v>0.1004648173</v>
       </c>
       <c r="M226" t="n">
-        <v>0.601763689</v>
+        <v>0.0925234176</v>
       </c>
       <c r="N226" t="n">
-        <v>1.018629486</v>
+        <v>0.1887983624</v>
       </c>
       <c r="O226" t="n">
-        <v>0.01777668228</v>
+        <v>0.01664714141</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B227" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C227" t="s">
         <v>20</v>
       </c>
-      <c r="D227" t="s">
-        <v>147</v>
-      </c>
-      <c r="E227"/>
-      <c r="F227"/>
+      <c r="D227"/>
+      <c r="E227" t="s">
+        <v>141</v>
+      </c>
+      <c r="F227" t="s">
+        <v>145</v>
+      </c>
       <c r="G227" t="n">
-        <v>0</v>
+        <v>2.211462816</v>
       </c>
       <c r="H227" t="s">
         <v>19</v>
       </c>
       <c r="I227" t="n">
-        <v>0.000718</v>
+        <v>0.002752</v>
       </c>
       <c r="J227" t="n">
-        <v>0.999869</v>
+        <v>0.999838</v>
       </c>
       <c r="K227" t="n">
-        <v>3.726956</v>
+        <v>38.805949</v>
       </c>
       <c r="L227" t="n">
-        <v>0.300073</v>
+        <v>0.014514</v>
       </c>
       <c r="M227" t="n">
-        <v>0.552678060824554</v>
+        <v>0.0956187692539749</v>
       </c>
       <c r="N227" t="n">
-        <v>0.925261739150984</v>
+        <v>0.146022944367763</v>
       </c>
       <c r="O227"/>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B228" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C228" t="s">
         <v>17</v>
       </c>
-      <c r="D228" t="s">
-        <v>147</v>
-      </c>
-      <c r="E228"/>
-      <c r="F228"/>
+      <c r="D228"/>
+      <c r="E228" t="s">
+        <v>141</v>
+      </c>
+      <c r="F228" t="s">
+        <v>145</v>
+      </c>
       <c r="G228" t="n">
-        <v>0</v>
+        <v>2.06106252</v>
       </c>
       <c r="H228" t="s">
         <v>19</v>
       </c>
       <c r="I228" t="n">
-        <v>0.001374148085</v>
+        <v>0.001469931208</v>
       </c>
       <c r="J228" t="n">
-        <v>0.9990151875</v>
+        <v>0.9992655104</v>
       </c>
       <c r="K228" t="n">
-        <v>3.477760265</v>
+        <v>42.69693339</v>
       </c>
       <c r="L228" t="n">
-        <v>0.9284135559</v>
+        <v>0.1004648173</v>
       </c>
       <c r="M228" t="n">
-        <v>0.3644793402</v>
+        <v>0.1675429529</v>
       </c>
       <c r="N228" t="n">
-        <v>0.6986570444</v>
+        <v>0.2165747253</v>
       </c>
       <c r="O228" t="n">
-        <v>0.01731278487</v>
+        <v>0.01736527476</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B229" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C229" t="s">
         <v>20</v>
       </c>
-      <c r="D229" t="s">
-        <v>147</v>
-      </c>
-      <c r="E229"/>
-      <c r="F229"/>
+      <c r="D229"/>
+      <c r="E229" t="s">
+        <v>141</v>
+      </c>
+      <c r="F229" t="s">
+        <v>145</v>
+      </c>
       <c r="G229" t="n">
-        <v>0</v>
+        <v>2.06106252</v>
       </c>
       <c r="H229" t="s">
         <v>19</v>
       </c>
       <c r="I229" t="n">
-        <v>0.00123</v>
+        <v>0.001379</v>
       </c>
       <c r="J229" t="n">
-        <v>0.999876</v>
+        <v>0.999841</v>
       </c>
       <c r="K229" t="n">
-        <v>3.122407</v>
+        <v>36.210491</v>
       </c>
       <c r="L229" t="n">
-        <v>0.300073</v>
+        <v>0.014514</v>
       </c>
       <c r="M229" t="n">
-        <v>0.323810086157053</v>
+        <v>0.133480196486471</v>
       </c>
       <c r="N229" t="n">
-        <v>0.604045639672665</v>
+        <v>0.177528463157301</v>
       </c>
       <c r="O229"/>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B230" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C230" t="s">
         <v>17</v>
       </c>
-      <c r="D230" t="s">
-        <v>147</v>
-      </c>
-      <c r="E230"/>
-      <c r="F230"/>
+      <c r="D230"/>
+      <c r="E230" t="s">
+        <v>148</v>
+      </c>
+      <c r="F230" t="s">
+        <v>142</v>
+      </c>
       <c r="G230" t="n">
-        <v>0</v>
+        <v>4.101011153</v>
       </c>
       <c r="H230" t="s">
         <v>19</v>
       </c>
       <c r="I230" t="n">
-        <v>0.001598970816</v>
+        <v>0.001557564455</v>
       </c>
       <c r="J230" t="n">
-        <v>0.9994193867</v>
+        <v>0.9981923748</v>
       </c>
       <c r="K230" t="n">
-        <v>5.749629498</v>
+        <v>55.58561369</v>
       </c>
       <c r="L230" t="n">
-        <v>0.5616815931</v>
+        <v>0.1004648173</v>
       </c>
       <c r="M230" t="n">
-        <v>0.4150545339</v>
+        <v>0.1004931439</v>
       </c>
       <c r="N230" t="n">
-        <v>0.9561412692</v>
+        <v>0.2276005903</v>
       </c>
       <c r="O230" t="n">
-        <v>0.01758878535</v>
+        <v>0.01701517743</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B231" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C231" t="s">
         <v>20</v>
       </c>
-      <c r="D231" t="s">
-        <v>147</v>
-      </c>
-      <c r="E231"/>
-      <c r="F231"/>
+      <c r="D231"/>
+      <c r="E231" t="s">
+        <v>148</v>
+      </c>
+      <c r="F231" t="s">
+        <v>142</v>
+      </c>
       <c r="G231" t="n">
-        <v>0</v>
+        <v>4.101011153</v>
       </c>
       <c r="H231" t="s">
         <v>19</v>
       </c>
       <c r="I231" t="n">
-        <v>0.001238</v>
+        <v>0.001734</v>
       </c>
       <c r="J231" t="n">
-        <v>0.999902</v>
+        <v>0.999473</v>
       </c>
       <c r="K231" t="n">
-        <v>4.840015</v>
+        <v>47.532028</v>
       </c>
       <c r="L231" t="n">
-        <v>0.133366</v>
+        <v>0.014514</v>
       </c>
       <c r="M231" t="n">
-        <v>0.353445501296442</v>
+        <v>0.0735873258428672</v>
       </c>
       <c r="N231" t="n">
-        <v>0.807450516869959</v>
+        <v>0.157849469795838</v>
       </c>
       <c r="O231"/>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B232" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C232" t="s">
         <v>17</v>
       </c>
-      <c r="D232" t="s">
-        <v>147</v>
-      </c>
-      <c r="E232"/>
-      <c r="F232"/>
+      <c r="D232"/>
+      <c r="E232" t="s">
+        <v>148</v>
+      </c>
+      <c r="F232" t="s">
+        <v>142</v>
+      </c>
       <c r="G232" t="n">
-        <v>0</v>
+        <v>3.985318617</v>
       </c>
       <c r="H232" t="s">
         <v>19</v>
       </c>
       <c r="I232" t="n">
-        <v>0.002319587693</v>
+        <v>0.002058489711</v>
       </c>
       <c r="J232" t="n">
-        <v>0.9989206348</v>
+        <v>0.9976132387</v>
       </c>
       <c r="K232" t="n">
-        <v>6.721419692</v>
+        <v>54.09233552</v>
       </c>
       <c r="L232" t="n">
-        <v>0.5227709394</v>
+        <v>0.1004648173</v>
       </c>
       <c r="M232" t="n">
-        <v>0.5151187548</v>
+        <v>0.1102780491</v>
       </c>
       <c r="N232" t="n">
-        <v>1.136253648</v>
+        <v>0.1951037382</v>
       </c>
       <c r="O232" t="n">
-        <v>0.01772829343</v>
+        <v>0.01674657191</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B233" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C233" t="s">
         <v>20</v>
       </c>
-      <c r="D233" t="s">
-        <v>147</v>
-      </c>
-      <c r="E233"/>
-      <c r="F233"/>
+      <c r="D233"/>
+      <c r="E233" t="s">
+        <v>148</v>
+      </c>
+      <c r="F233" t="s">
+        <v>142</v>
+      </c>
       <c r="G233" t="n">
-        <v>0</v>
+        <v>3.985318617</v>
       </c>
       <c r="H233" t="s">
         <v>19</v>
       </c>
       <c r="I233" t="n">
-        <v>0.001317</v>
+        <v>0.001916</v>
       </c>
       <c r="J233" t="n">
-        <v>0.999944</v>
+        <v>0.999563</v>
       </c>
       <c r="K233" t="n">
-        <v>5.832863</v>
+        <v>45.84588</v>
       </c>
       <c r="L233" t="n">
-        <v>0.208384</v>
+        <v>0.014514</v>
       </c>
       <c r="M233" t="n">
-        <v>0.478337570366347</v>
+        <v>0.0841014091340657</v>
       </c>
       <c r="N233" t="n">
-        <v>0.999923478563902</v>
+        <v>0.139404927919054</v>
       </c>
       <c r="O233"/>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B234" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C234" t="s">
         <v>17</v>
       </c>
-      <c r="D234" t="s">
-        <v>147</v>
-      </c>
-      <c r="E234"/>
-      <c r="F234"/>
+      <c r="D234"/>
+      <c r="E234" t="s">
+        <v>148</v>
+      </c>
+      <c r="F234" t="s">
+        <v>145</v>
+      </c>
       <c r="G234" t="n">
-        <v>0</v>
+        <v>4.444617983</v>
       </c>
       <c r="H234" t="s">
         <v>19</v>
       </c>
       <c r="I234" t="n">
-        <v>0.004003783605</v>
+        <v>0.00300110989</v>
       </c>
       <c r="J234" t="n">
-        <v>0.9985396332</v>
+        <v>0.9988839764</v>
       </c>
       <c r="K234" t="n">
-        <v>2.765267512</v>
+        <v>29.39500228</v>
       </c>
       <c r="L234" t="n">
-        <v>0.3162715712</v>
+        <v>0.1755818616</v>
       </c>
       <c r="M234" t="n">
-        <v>0.266925965</v>
+        <v>0.2557165867</v>
       </c>
       <c r="N234" t="n">
-        <v>0.8148832458</v>
+        <v>0.6205777856</v>
       </c>
       <c r="O234" t="n">
-        <v>0.01613178951</v>
+        <v>0.01679243852</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B235" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C235" t="s">
         <v>20</v>
       </c>
-      <c r="D235" t="s">
-        <v>147</v>
-      </c>
-      <c r="E235"/>
-      <c r="F235"/>
+      <c r="D235"/>
+      <c r="E235" t="s">
+        <v>148</v>
+      </c>
+      <c r="F235" t="s">
+        <v>145</v>
+      </c>
       <c r="G235" t="n">
-        <v>0</v>
+        <v>4.444617983</v>
       </c>
       <c r="H235" t="s">
         <v>19</v>
       </c>
       <c r="I235" t="n">
-        <v>0.004065</v>
+        <v>0.002325</v>
       </c>
       <c r="J235" t="n">
-        <v>0.999851</v>
+        <v>0.999789</v>
       </c>
       <c r="K235" t="n">
-        <v>2.487666</v>
+        <v>25.736776</v>
       </c>
       <c r="L235" t="n">
-        <v>0.133366</v>
+        <v>0.09071</v>
       </c>
       <c r="M235" t="n">
-        <v>0.272495727822723</v>
+        <v>0.27164246141105</v>
       </c>
       <c r="N235" t="n">
-        <v>0.712786945432692</v>
+        <v>0.611057829981862</v>
       </c>
       <c r="O235"/>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B236" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C236" t="s">
         <v>17</v>
       </c>
-      <c r="D236" t="s">
-        <v>147</v>
-      </c>
-      <c r="E236"/>
-      <c r="F236"/>
+      <c r="D236"/>
+      <c r="E236" t="s">
+        <v>148</v>
+      </c>
+      <c r="F236" t="s">
+        <v>145</v>
+      </c>
       <c r="G236" t="n">
-        <v>0</v>
+        <v>4.661541487</v>
       </c>
       <c r="H236" t="s">
         <v>19</v>
       </c>
       <c r="I236" t="n">
-        <v>0.002164641667</v>
+        <v>0.0003305038118</v>
       </c>
       <c r="J236" t="n">
-        <v>0.9994226963</v>
+        <v>0.9984045283</v>
       </c>
       <c r="K236" t="n">
-        <v>5.719707063</v>
+        <v>52.04521745</v>
       </c>
       <c r="L236" t="n">
-        <v>0.8042368418</v>
+        <v>0.1004648173</v>
       </c>
       <c r="M236" t="n">
-        <v>0.5735814754</v>
+        <v>0.160685842</v>
       </c>
       <c r="N236" t="n">
-        <v>1.167099988</v>
+        <v>0.2179132886</v>
       </c>
       <c r="O236" t="n">
-        <v>0.0184560074</v>
+        <v>0.01767655377</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B237" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C237" t="s">
         <v>20</v>
       </c>
-      <c r="D237" t="s">
-        <v>147</v>
-      </c>
-      <c r="E237"/>
-      <c r="F237"/>
+      <c r="D237"/>
+      <c r="E237" t="s">
+        <v>148</v>
+      </c>
+      <c r="F237" t="s">
+        <v>145</v>
+      </c>
       <c r="G237" t="n">
-        <v>0</v>
+        <v>4.661541487</v>
       </c>
       <c r="H237" t="s">
         <v>19</v>
       </c>
       <c r="I237" t="n">
-        <v>0.002308</v>
+        <v>0.000644</v>
       </c>
       <c r="J237" t="n">
-        <v>0.999861</v>
+        <v>0.999045</v>
       </c>
       <c r="K237" t="n">
-        <v>4.998245</v>
+        <v>44.129257</v>
       </c>
       <c r="L237" t="n">
-        <v>0.133366</v>
+        <v>0.014514</v>
       </c>
       <c r="M237" t="n">
-        <v>0.555264307410258</v>
+        <v>0.103363088185532</v>
       </c>
       <c r="N237" t="n">
-        <v>1.04959654329811</v>
+        <v>0.158442470474773</v>
       </c>
       <c r="O237"/>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B238" t="s">
+        <v>152</v>
+      </c>
+      <c r="C238" t="s">
+        <v>17</v>
+      </c>
+      <c r="D238"/>
+      <c r="E238" t="s">
         <v>153</v>
       </c>
-      <c r="C238" t="s">
-        <v>17</v>
-      </c>
-      <c r="D238" t="s">
-        <v>147</v>
-      </c>
-      <c r="E238"/>
-      <c r="F238"/>
+      <c r="F238" t="s">
+        <v>142</v>
+      </c>
       <c r="G238" t="n">
-        <v>0</v>
+        <v>45.75842242</v>
       </c>
       <c r="H238" t="s">
-        <v>19</v>
+        <v>154</v>
       </c>
       <c r="I238" t="n">
-        <v>0.001964860107</v>
+        <v>0.002191890821</v>
       </c>
       <c r="J238" t="n">
-        <v>0.9973720806</v>
+        <v>0.9971472533</v>
       </c>
       <c r="K238" t="n">
-        <v>2.295127417</v>
+        <v>68.22224309</v>
       </c>
       <c r="L238" t="n">
-        <v>4.192714753</v>
+        <v>0.3068635466</v>
       </c>
       <c r="M238" t="n">
-        <v>0.5649856533</v>
+        <v>0.1617157036</v>
       </c>
       <c r="N238" t="n">
-        <v>1.193106753</v>
+        <v>0.2868278611</v>
       </c>
       <c r="O238" t="n">
-        <v>0.01760359512</v>
+        <v>0.01710405668</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B239" t="s">
+        <v>152</v>
+      </c>
+      <c r="C239" t="s">
+        <v>20</v>
+      </c>
+      <c r="D239"/>
+      <c r="E239" t="s">
         <v>153</v>
       </c>
-      <c r="C239" t="s">
-        <v>20</v>
-      </c>
-      <c r="D239" t="s">
-        <v>147</v>
-      </c>
-      <c r="E239"/>
-      <c r="F239"/>
+      <c r="F239" t="s">
+        <v>142</v>
+      </c>
       <c r="G239" t="n">
-        <v>0</v>
+        <v>45.75842242</v>
       </c>
       <c r="H239" t="s">
-        <v>19</v>
+        <v>154</v>
       </c>
       <c r="I239" t="n">
-        <v>0.002616</v>
+        <v>0.002427</v>
       </c>
       <c r="J239" t="n">
-        <v>0.999305</v>
+        <v>0.999645</v>
       </c>
       <c r="K239" t="n">
-        <v>2.148054</v>
+        <v>56.316945</v>
       </c>
       <c r="L239" t="n">
-        <v>0.533464</v>
+        <v>0.058054</v>
       </c>
       <c r="M239" t="n">
-        <v>0.504129104906153</v>
+        <v>0.115188511626691</v>
       </c>
       <c r="N239" t="n">
-        <v>1.04408395752118</v>
+        <v>0.213858546040502</v>
       </c>
       <c r="O239"/>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B240" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C240" t="s">
         <v>17</v>
       </c>
-      <c r="D240" t="s">
-        <v>147</v>
-      </c>
-      <c r="E240"/>
-      <c r="F240"/>
+      <c r="D240"/>
+      <c r="E240" t="s">
+        <v>153</v>
+      </c>
+      <c r="F240" t="s">
+        <v>142</v>
+      </c>
       <c r="G240" t="n">
-        <v>0</v>
+        <v>3.00077514</v>
       </c>
       <c r="H240" t="s">
         <v>19</v>
       </c>
       <c r="I240" t="n">
-        <v>0.008242304939</v>
+        <v>0.001807816103</v>
       </c>
       <c r="J240" t="n">
-        <v>0.9984611787</v>
+        <v>0.9989563198</v>
       </c>
       <c r="K240" t="n">
-        <v>3.279549914</v>
+        <v>45.01255794</v>
       </c>
       <c r="L240" t="n">
-        <v>1.329337467</v>
+        <v>0.1004648173</v>
       </c>
       <c r="M240" t="n">
-        <v>0.387290184</v>
+        <v>0.1510845649</v>
       </c>
       <c r="N240" t="n">
-        <v>1.054638023</v>
+        <v>0.2939818514</v>
       </c>
       <c r="O240" t="n">
-        <v>0.01809470653</v>
+        <v>0.01804825752</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B241" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C241" t="s">
         <v>20</v>
       </c>
-      <c r="D241" t="s">
-        <v>147</v>
-      </c>
-      <c r="E241"/>
-      <c r="F241"/>
+      <c r="D241"/>
+      <c r="E241" t="s">
+        <v>153</v>
+      </c>
+      <c r="F241" t="s">
+        <v>142</v>
+      </c>
       <c r="G241" t="n">
-        <v>0</v>
+        <v>3.00077514</v>
       </c>
       <c r="H241" t="s">
         <v>19</v>
       </c>
       <c r="I241" t="n">
-        <v>0.00502</v>
+        <v>0.001887</v>
       </c>
       <c r="J241" t="n">
-        <v>0.999942</v>
+        <v>0.999617</v>
       </c>
       <c r="K241" t="n">
-        <v>2.841467</v>
+        <v>37.446294</v>
       </c>
       <c r="L241" t="n">
-        <v>0.208384</v>
+        <v>0.014514</v>
       </c>
       <c r="M241" t="n">
-        <v>0.337725021214594</v>
+        <v>0.111434934399158</v>
       </c>
       <c r="N241" t="n">
-        <v>0.867656357276639</v>
+        <v>0.219598515582635</v>
       </c>
       <c r="O241"/>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B242" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C242" t="s">
         <v>17</v>
       </c>
-      <c r="D242" t="s">
-        <v>147</v>
-      </c>
-      <c r="E242"/>
-      <c r="F242"/>
+      <c r="D242"/>
+      <c r="E242" t="s">
+        <v>153</v>
+      </c>
+      <c r="F242" t="s">
+        <v>145</v>
+      </c>
       <c r="G242" t="n">
-        <v>0</v>
+        <v>4.866895738</v>
       </c>
       <c r="H242" t="s">
         <v>19</v>
       </c>
       <c r="I242" t="n">
-        <v>0.001314585174</v>
+        <v>0.002728691803</v>
       </c>
       <c r="J242" t="n">
-        <v>0.9992944577</v>
+        <v>0.9991144199</v>
       </c>
       <c r="K242" t="n">
-        <v>2.745796162</v>
+        <v>44.88858642</v>
       </c>
       <c r="L242" t="n">
-        <v>0.3651049029</v>
+        <v>0.1004648173</v>
       </c>
       <c r="M242" t="n">
-        <v>0.527614108</v>
+        <v>0.1753363325</v>
       </c>
       <c r="N242" t="n">
-        <v>1.03958464</v>
+        <v>0.4217616841</v>
       </c>
       <c r="O242" t="n">
-        <v>0.0180213882</v>
+        <v>0.01660217518</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B243" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C243" t="s">
         <v>20</v>
       </c>
-      <c r="D243" t="s">
-        <v>147</v>
-      </c>
-      <c r="E243"/>
-      <c r="F243"/>
+      <c r="D243"/>
+      <c r="E243" t="s">
+        <v>153</v>
+      </c>
+      <c r="F243" t="s">
+        <v>145</v>
+      </c>
       <c r="G243" t="n">
-        <v>0</v>
+        <v>4.866895738</v>
       </c>
       <c r="H243" t="s">
         <v>19</v>
       </c>
       <c r="I243" t="n">
-        <v>0.003206</v>
+        <v>0.001949</v>
       </c>
       <c r="J243" t="n">
-        <v>0.999925</v>
+        <v>0.999392</v>
       </c>
       <c r="K243" t="n">
-        <v>2.404424</v>
+        <v>38.639005</v>
       </c>
       <c r="L243" t="n">
-        <v>0.133366</v>
+        <v>0.014514</v>
       </c>
       <c r="M243" t="n">
-        <v>0.505202861304572</v>
+        <v>0.142359129935648</v>
       </c>
       <c r="N243" t="n">
-        <v>0.899763729912879</v>
+        <v>0.369209162788562</v>
       </c>
       <c r="O243"/>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B244" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C244" t="s">
         <v>17</v>
       </c>
-      <c r="D244" t="s">
-        <v>147</v>
-      </c>
-      <c r="E244"/>
-      <c r="F244"/>
+      <c r="D244"/>
+      <c r="E244" t="s">
+        <v>153</v>
+      </c>
+      <c r="F244" t="s">
+        <v>145</v>
+      </c>
       <c r="G244" t="n">
-        <v>0</v>
+        <v>2.416527836</v>
       </c>
       <c r="H244" t="s">
         <v>19</v>
       </c>
       <c r="I244" t="n">
-        <v>0.005221995624</v>
+        <v>0.002668108526</v>
       </c>
       <c r="J244" t="n">
-        <v>0.9986646851</v>
+        <v>0.9991010445</v>
       </c>
       <c r="K244" t="n">
-        <v>3.910485123</v>
+        <v>49.1789018</v>
       </c>
       <c r="L244" t="n">
-        <v>0.3398121559</v>
+        <v>0.1004648173</v>
       </c>
       <c r="M244" t="n">
-        <v>0.5120974341</v>
+        <v>0.2174554207</v>
       </c>
       <c r="N244" t="n">
-        <v>2.070839882</v>
+        <v>0.3175200085</v>
       </c>
       <c r="O244" t="n">
-        <v>0.01876294872</v>
+        <v>0.0178567085</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B245" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C245" t="s">
         <v>20</v>
       </c>
-      <c r="D245" t="s">
-        <v>147</v>
-      </c>
-      <c r="E245"/>
-      <c r="F245"/>
+      <c r="D245"/>
+      <c r="E245" t="s">
+        <v>153</v>
+      </c>
+      <c r="F245" t="s">
+        <v>145</v>
+      </c>
       <c r="G245" t="n">
-        <v>0</v>
+        <v>2.416527836</v>
       </c>
       <c r="H245" t="s">
         <v>19</v>
       </c>
       <c r="I245" t="n">
-        <v>0.003178</v>
+        <v>0.001742</v>
       </c>
       <c r="J245" t="n">
-        <v>0.999459</v>
+        <v>0.999792</v>
       </c>
       <c r="K245" t="n">
-        <v>3.320289</v>
+        <v>41.260755</v>
       </c>
       <c r="L245" t="n">
-        <v>0.075018</v>
+        <v>0.014514</v>
       </c>
       <c r="M245" t="n">
-        <v>0.395099260084971</v>
+        <v>0.156531665581518</v>
       </c>
       <c r="N245" t="n">
-        <v>1.46471802196887</v>
+        <v>0.238377296804313</v>
       </c>
       <c r="O245"/>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B246" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C246" t="s">
         <v>17</v>
       </c>
-      <c r="D246" t="s">
-        <v>158</v>
-      </c>
-      <c r="E246"/>
-      <c r="F246"/>
+      <c r="D246"/>
+      <c r="E246" t="s">
+        <v>159</v>
+      </c>
+      <c r="F246" t="s">
+        <v>142</v>
+      </c>
       <c r="G246" t="n">
-        <v>0</v>
+        <v>4.923874312</v>
       </c>
       <c r="H246" t="s">
         <v>19</v>
       </c>
       <c r="I246" t="n">
-        <v>0.003165474784</v>
+        <v>0.001342898516</v>
       </c>
       <c r="J246" t="n">
-        <v>0.9991768222</v>
+        <v>0.9984697808</v>
       </c>
       <c r="K246" t="n">
-        <v>2.539149066</v>
+        <v>38.57628413</v>
       </c>
       <c r="L246" t="n">
-        <v>1.531853337</v>
+        <v>0.1004648173</v>
       </c>
       <c r="M246" t="n">
-        <v>0.6043730212</v>
+        <v>0.2535209046</v>
       </c>
       <c r="N246" t="n">
-        <v>0.9874378915</v>
+        <v>0.3645124038</v>
       </c>
       <c r="O246" t="n">
-        <v>0.01685220944</v>
+        <v>0.01708514642</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B247" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C247" t="s">
         <v>20</v>
       </c>
-      <c r="D247" t="s">
-        <v>158</v>
-      </c>
-      <c r="E247"/>
-      <c r="F247"/>
+      <c r="D247"/>
+      <c r="E247" t="s">
+        <v>159</v>
+      </c>
+      <c r="F247" t="s">
+        <v>142</v>
+      </c>
       <c r="G247" t="n">
-        <v>0</v>
+        <v>4.923874312</v>
       </c>
       <c r="H247" t="s">
         <v>19</v>
       </c>
       <c r="I247" t="n">
-        <v>0.00273</v>
+        <v>0.00185</v>
       </c>
       <c r="J247" t="n">
-        <v>0.999535</v>
+        <v>0.998981</v>
       </c>
       <c r="K247" t="n">
-        <v>2.380929</v>
+        <v>31.253457</v>
       </c>
       <c r="L247" t="n">
-        <v>0.532512</v>
+        <v>0.014514</v>
       </c>
       <c r="M247" t="n">
-        <v>0.579015745663545</v>
+        <v>0.201824967734304</v>
       </c>
       <c r="N247" t="n">
-        <v>1.01306963824792</v>
+        <v>0.310755181580856</v>
       </c>
       <c r="O247"/>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B248" t="s">
+        <v>160</v>
+      </c>
+      <c r="C248" t="s">
+        <v>17</v>
+      </c>
+      <c r="D248"/>
+      <c r="E248" t="s">
         <v>159</v>
       </c>
-      <c r="C248" t="s">
-        <v>17</v>
-      </c>
-      <c r="D248" t="s">
-        <v>158</v>
-      </c>
-      <c r="E248"/>
-      <c r="F248"/>
+      <c r="F248" t="s">
+        <v>142</v>
+      </c>
       <c r="G248" t="n">
-        <v>0</v>
+        <v>3.842438336</v>
       </c>
       <c r="H248" t="s">
         <v>19</v>
       </c>
       <c r="I248" t="n">
-        <v>0.002151629233</v>
+        <v>0.002142569443</v>
       </c>
       <c r="J248" t="n">
-        <v>0.999306976</v>
+        <v>0.9988323968</v>
       </c>
       <c r="K248" t="n">
-        <v>7.198562961</v>
+        <v>44.85846689</v>
       </c>
       <c r="L248" t="n">
-        <v>0.1155532132</v>
+        <v>0.1004648173</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1980738304</v>
+        <v>0.09025540084</v>
       </c>
       <c r="N248" t="n">
-        <v>0.5600416498</v>
+        <v>0.2586428146</v>
       </c>
       <c r="O248" t="n">
-        <v>0.01772072223</v>
+        <v>0.01715710311</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B249" t="s">
+        <v>160</v>
+      </c>
+      <c r="C249" t="s">
+        <v>20</v>
+      </c>
+      <c r="D249"/>
+      <c r="E249" t="s">
         <v>159</v>
       </c>
-      <c r="C249" t="s">
-        <v>20</v>
-      </c>
-      <c r="D249" t="s">
-        <v>158</v>
-      </c>
-      <c r="E249"/>
-      <c r="F249"/>
+      <c r="F249" t="s">
+        <v>142</v>
+      </c>
       <c r="G249" t="n">
-        <v>0</v>
+        <v>3.842438336</v>
       </c>
       <c r="H249" t="s">
         <v>19</v>
       </c>
       <c r="I249" t="n">
-        <v>0.002529</v>
+        <v>0.001843</v>
       </c>
       <c r="J249" t="n">
-        <v>0.999214</v>
+        <v>0.999603</v>
       </c>
       <c r="K249" t="n">
-        <v>5.497821</v>
+        <v>38.331227</v>
       </c>
       <c r="L249" t="n">
-        <v>0.033282</v>
+        <v>0.014514</v>
       </c>
       <c r="M249" t="n">
-        <v>0.167418682001339</v>
+        <v>0.0808756703113495</v>
       </c>
       <c r="N249" t="n">
-        <v>0.472458315278303</v>
+        <v>0.214061442351137</v>
       </c>
       <c r="O249"/>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B250" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C250" t="s">
         <v>17</v>
       </c>
-      <c r="D250" t="s">
-        <v>158</v>
-      </c>
-      <c r="E250"/>
-      <c r="F250"/>
+      <c r="D250"/>
+      <c r="E250" t="s">
+        <v>159</v>
+      </c>
+      <c r="F250" t="s">
+        <v>145</v>
+      </c>
       <c r="G250" t="n">
-        <v>0</v>
+        <v>3.293766486</v>
       </c>
       <c r="H250" t="s">
         <v>19</v>
       </c>
       <c r="I250" t="n">
-        <v>0.001145127177</v>
+        <v>0.0002049663924</v>
       </c>
       <c r="J250" t="n">
-        <v>0.9990255912</v>
+        <v>0.9985162009</v>
       </c>
       <c r="K250" t="n">
-        <v>3.613273565</v>
+        <v>52.35611571</v>
       </c>
       <c r="L250" t="n">
-        <v>0.1909999738</v>
+        <v>0.1004648173</v>
       </c>
       <c r="M250" t="n">
-        <v>0.7981042339</v>
+        <v>0.145071985</v>
       </c>
       <c r="N250" t="n">
-        <v>1.417331934</v>
+        <v>0.2414260519</v>
       </c>
       <c r="O250" t="n">
-        <v>0.01809090569</v>
+        <v>0.01764098897</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B251" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C251" t="s">
         <v>20</v>
       </c>
-      <c r="D251" t="s">
-        <v>158</v>
-      </c>
-      <c r="E251"/>
-      <c r="F251"/>
+      <c r="D251"/>
+      <c r="E251" t="s">
+        <v>159</v>
+      </c>
+      <c r="F251" t="s">
+        <v>145</v>
+      </c>
       <c r="G251" t="n">
-        <v>0</v>
+        <v>3.293766486</v>
       </c>
       <c r="H251" t="s">
         <v>19</v>
       </c>
       <c r="I251" t="n">
-        <v>0.001133</v>
+        <v>0.000446</v>
       </c>
       <c r="J251" t="n">
-        <v>0.999376</v>
+        <v>0.999635</v>
       </c>
       <c r="K251" t="n">
-        <v>2.952668</v>
+        <v>44.994782</v>
       </c>
       <c r="L251" t="n">
-        <v>0.074884</v>
+        <v>0.014514</v>
       </c>
       <c r="M251" t="n">
-        <v>0.711564006328185</v>
+        <v>0.129058820401383</v>
       </c>
       <c r="N251" t="n">
-        <v>1.15776771183526</v>
+        <v>0.176915122211384</v>
       </c>
       <c r="O251"/>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B252" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C252" t="s">
         <v>17</v>
       </c>
-      <c r="D252" t="s">
-        <v>158</v>
-      </c>
-      <c r="E252"/>
-      <c r="F252"/>
+      <c r="D252"/>
+      <c r="E252" t="s">
+        <v>159</v>
+      </c>
+      <c r="F252" t="s">
+        <v>145</v>
+      </c>
       <c r="G252" t="n">
-        <v>0</v>
+        <v>4.891769633</v>
       </c>
       <c r="H252" t="s">
         <v>19</v>
       </c>
       <c r="I252" t="n">
-        <v>0.001605707116</v>
+        <v>0.001819059379</v>
       </c>
       <c r="J252" t="n">
-        <v>0.9992786625</v>
+        <v>0.9984722474</v>
       </c>
       <c r="K252" t="n">
-        <v>5.652352991</v>
+        <v>48.21311649</v>
       </c>
       <c r="L252" t="n">
-        <v>0.5606794318</v>
+        <v>0.1004648173</v>
       </c>
       <c r="M252" t="n">
-        <v>0.4633463765</v>
+        <v>0.1539020721</v>
       </c>
       <c r="N252" t="n">
-        <v>1.267067915</v>
+        <v>0.2728563063</v>
       </c>
       <c r="O252" t="n">
-        <v>0.01795147839</v>
+        <v>0.01698677161</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B253" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C253" t="s">
         <v>20</v>
       </c>
-      <c r="D253" t="s">
-        <v>158</v>
-      </c>
-      <c r="E253"/>
-      <c r="F253"/>
+      <c r="D253"/>
+      <c r="E253" t="s">
+        <v>159</v>
+      </c>
+      <c r="F253" t="s">
+        <v>145</v>
+      </c>
       <c r="G253" t="n">
-        <v>0</v>
+        <v>4.891769633</v>
       </c>
       <c r="H253" t="s">
         <v>19</v>
       </c>
       <c r="I253" t="n">
-        <v>0.000857</v>
+        <v>0.00162</v>
       </c>
       <c r="J253" t="n">
-        <v>0.999754</v>
+        <v>0.999134</v>
       </c>
       <c r="K253" t="n">
-        <v>4.900965</v>
+        <v>40.911674</v>
       </c>
       <c r="L253" t="n">
-        <v>0.133128</v>
+        <v>0.014514</v>
       </c>
       <c r="M253" t="n">
-        <v>0.425704019177969</v>
+        <v>0.0990716962168577</v>
       </c>
       <c r="N253" t="n">
-        <v>1.03907830502327</v>
+        <v>0.207498080476309</v>
       </c>
       <c r="O253"/>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B254" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C254" t="s">
         <v>17</v>
       </c>
-      <c r="D254" t="s">
-        <v>158</v>
-      </c>
-      <c r="E254"/>
-      <c r="F254"/>
+      <c r="D254"/>
+      <c r="E254" t="s">
+        <v>141</v>
+      </c>
+      <c r="F254" t="s">
+        <v>142</v>
+      </c>
       <c r="G254" t="n">
-        <v>0</v>
+        <v>57.46477162</v>
       </c>
       <c r="H254" t="s">
-        <v>19</v>
+        <v>154</v>
       </c>
       <c r="I254" t="n">
-        <v>0.004730906524</v>
+        <v>0.005744431158</v>
       </c>
       <c r="J254" t="n">
-        <v>0.9982473017</v>
+        <v>0.9868055389</v>
       </c>
       <c r="K254" t="n">
-        <v>0.8747848739</v>
+        <v>57.26896146</v>
       </c>
       <c r="L254" t="n">
-        <v>6.917848242</v>
+        <v>0.03723607985</v>
       </c>
       <c r="M254" t="n">
-        <v>0.2417329464</v>
+        <v>0.081692759</v>
       </c>
       <c r="N254" t="n">
-        <v>0.6842474124</v>
+        <v>0.2352776998</v>
       </c>
       <c r="O254" t="n">
-        <v>0.01702415473</v>
+        <v>0.01544707514</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B255" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C255" t="s">
         <v>20</v>
       </c>
-      <c r="D255" t="s">
-        <v>158</v>
-      </c>
-      <c r="E255"/>
-      <c r="F255"/>
+      <c r="D255"/>
+      <c r="E255" t="s">
+        <v>141</v>
+      </c>
+      <c r="F255" t="s">
+        <v>142</v>
+      </c>
       <c r="G255" t="n">
-        <v>0</v>
+        <v>57.46477162</v>
       </c>
       <c r="H255" t="s">
-        <v>19</v>
+        <v>154</v>
       </c>
       <c r="I255" t="n">
-        <v>0.005172</v>
+        <v>0.005426</v>
       </c>
       <c r="J255" t="n">
-        <v>0.999205</v>
+        <v>0.98301</v>
       </c>
       <c r="K255" t="n">
-        <v>0.888104</v>
+        <v>37.643126</v>
       </c>
       <c r="L255" t="n">
-        <v>1.630818</v>
+        <v>0.014514</v>
       </c>
       <c r="M255" t="n">
-        <v>0.24319601629669</v>
+        <v>0.27295621724758</v>
       </c>
       <c r="N255" t="n">
-        <v>0.70011941175665</v>
+        <v>0.297382541495459</v>
       </c>
       <c r="O255"/>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B256" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C256" t="s">
         <v>17</v>
       </c>
-      <c r="D256" t="s">
-        <v>158</v>
-      </c>
-      <c r="E256"/>
-      <c r="F256"/>
+      <c r="D256"/>
+      <c r="E256" t="s">
+        <v>141</v>
+      </c>
+      <c r="F256" t="s">
+        <v>142</v>
+      </c>
       <c r="G256" t="n">
-        <v>0</v>
+        <v>55.29409043</v>
       </c>
       <c r="H256" t="s">
-        <v>19</v>
+        <v>154</v>
       </c>
       <c r="I256" t="n">
-        <v>0.005048872863</v>
+        <v>0.006778044121</v>
       </c>
       <c r="J256" t="n">
-        <v>0.9968872433</v>
+        <v>0.9770901387</v>
       </c>
       <c r="K256" t="n">
-        <v>3.366696049</v>
+        <v>60.77623934</v>
       </c>
       <c r="L256" t="n">
-        <v>0.1909999738</v>
+        <v>0.03499639624</v>
       </c>
       <c r="M256" t="n">
-        <v>0.4014150683</v>
+        <v>0.2011823972</v>
       </c>
       <c r="N256" t="n">
-        <v>1.052229883</v>
+        <v>0.2521953865</v>
       </c>
       <c r="O256" t="n">
-        <v>0.01983974679</v>
+        <v>0.02046846467</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B257" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C257" t="s">
         <v>20</v>
       </c>
-      <c r="D257" t="s">
-        <v>158</v>
-      </c>
-      <c r="E257"/>
-      <c r="F257"/>
+      <c r="D257"/>
+      <c r="E257" t="s">
+        <v>141</v>
+      </c>
+      <c r="F257" t="s">
+        <v>142</v>
+      </c>
       <c r="G257" t="n">
-        <v>0</v>
+        <v>55.29409043</v>
       </c>
       <c r="H257" t="s">
-        <v>19</v>
+        <v>154</v>
       </c>
       <c r="I257" t="n">
-        <v>0.005982</v>
+        <v>0.006865</v>
       </c>
       <c r="J257" t="n">
-        <v>0.999679</v>
+        <v>0.981503</v>
       </c>
       <c r="K257" t="n">
-        <v>2.810316</v>
+        <v>37.089792</v>
       </c>
       <c r="L257" t="n">
-        <v>0.074884</v>
+        <v>0.014514</v>
       </c>
       <c r="M257" t="n">
-        <v>0.364781997758686</v>
+        <v>0.102416813228951</v>
       </c>
       <c r="N257" t="n">
-        <v>0.823448280999521</v>
+        <v>0.20086601338756</v>
       </c>
       <c r="O257"/>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B258" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C258" t="s">
         <v>17</v>
       </c>
-      <c r="D258" t="s">
-        <v>158</v>
-      </c>
-      <c r="E258"/>
-      <c r="F258"/>
+      <c r="D258"/>
+      <c r="E258" t="s">
+        <v>141</v>
+      </c>
+      <c r="F258" t="s">
+        <v>145</v>
+      </c>
       <c r="G258" t="n">
-        <v>0</v>
+        <v>0.2796867046</v>
       </c>
       <c r="H258" t="s">
         <v>19</v>
       </c>
       <c r="I258" t="n">
-        <v>0.006600089147</v>
+        <v>0.004537845783</v>
       </c>
       <c r="J258" t="n">
-        <v>0.9985589468</v>
+        <v>0.9971920728</v>
       </c>
       <c r="K258" t="n">
-        <v>1.955166534</v>
+        <v>4.795822322</v>
       </c>
       <c r="L258" t="n">
-        <v>0.1777683958</v>
+        <v>0.08340500545</v>
       </c>
       <c r="M258" t="n">
-        <v>0.489765532</v>
+        <v>0.6360268217</v>
       </c>
       <c r="N258" t="n">
-        <v>1.014794327</v>
+        <v>1.683337179</v>
       </c>
       <c r="O258" t="n">
-        <v>0.01917068037</v>
+        <v>0.01708371491</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B259" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C259" t="s">
         <v>20</v>
       </c>
-      <c r="D259" t="s">
-        <v>158</v>
-      </c>
-      <c r="E259"/>
-      <c r="F259"/>
+      <c r="D259"/>
+      <c r="E259" t="s">
+        <v>141</v>
+      </c>
+      <c r="F259" t="s">
+        <v>145</v>
+      </c>
       <c r="G259" t="n">
-        <v>0</v>
+        <v>0.2796867046</v>
       </c>
       <c r="H259" t="s">
         <v>19</v>
       </c>
       <c r="I259" t="n">
-        <v>0.006405</v>
+        <v>0.006151</v>
       </c>
       <c r="J259" t="n">
-        <v>0.999488</v>
+        <v>0.999316</v>
       </c>
       <c r="K259" t="n">
-        <v>1.727449</v>
+        <v>4.104455</v>
       </c>
       <c r="L259" t="n">
-        <v>0.074884</v>
+        <v>0.032655</v>
       </c>
       <c r="M259" t="n">
-        <v>0.426289405759263</v>
+        <v>0.549041810844091</v>
       </c>
       <c r="N259" t="n">
-        <v>0.803732270385557</v>
+        <v>1.59130841927121</v>
       </c>
       <c r="O259"/>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B260" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C260" t="s">
         <v>17</v>
       </c>
-      <c r="D260" t="s">
-        <v>158</v>
-      </c>
-      <c r="E260"/>
-      <c r="F260"/>
+      <c r="D260"/>
+      <c r="E260" t="s">
+        <v>141</v>
+      </c>
+      <c r="F260" t="s">
+        <v>145</v>
+      </c>
       <c r="G260" t="n">
-        <v>0</v>
+        <v>5.800245268</v>
       </c>
       <c r="H260" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="I260" t="n">
-        <v>0.007925134399</v>
+        <v>0.003140677635</v>
       </c>
       <c r="J260" t="n">
-        <v>0.9982346822</v>
+        <v>0.9963200889</v>
       </c>
       <c r="K260" t="n">
-        <v>1.355702738</v>
+        <v>41.82057545</v>
       </c>
       <c r="L260" t="n">
-        <v>44.73203402</v>
+        <v>0.1868186706</v>
       </c>
       <c r="M260" t="n">
-        <v>0.3011009454</v>
+        <v>0.4646806483</v>
       </c>
       <c r="N260" t="n">
-        <v>0.6856977165</v>
+        <v>0.6964868487</v>
       </c>
       <c r="O260" t="n">
-        <v>0.02001019556</v>
+        <v>0.01873237941</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B261" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C261" t="s">
         <v>20</v>
       </c>
-      <c r="D261" t="s">
-        <v>158</v>
-      </c>
-      <c r="E261"/>
-      <c r="F261"/>
+      <c r="D261"/>
+      <c r="E261" t="s">
+        <v>141</v>
+      </c>
+      <c r="F261" t="s">
+        <v>145</v>
+      </c>
       <c r="G261" t="n">
-        <v>0</v>
+        <v>5.800245268</v>
       </c>
       <c r="H261" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="I261" t="n">
-        <v>0.008325</v>
+        <v>0.002031</v>
       </c>
       <c r="J261" t="n">
-        <v>0.998937</v>
+        <v>0.999047</v>
       </c>
       <c r="K261" t="n">
-        <v>1.411798</v>
+        <v>34.331812</v>
       </c>
       <c r="L261" t="n">
-        <v>9.061024</v>
+        <v>0.032655</v>
       </c>
       <c r="M261" t="n">
-        <v>0.337010940756141</v>
+        <v>0.226601855757112</v>
       </c>
       <c r="N261" t="n">
-        <v>0.612368331889417</v>
+        <v>0.543975668752222</v>
       </c>
       <c r="O261"/>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B262" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C262" t="s">
         <v>17</v>
       </c>
-      <c r="D262" t="s">
-        <v>158</v>
-      </c>
-      <c r="E262"/>
-      <c r="F262"/>
+      <c r="D262"/>
+      <c r="E262" t="s">
+        <v>153</v>
+      </c>
+      <c r="F262" t="s">
+        <v>142</v>
+      </c>
       <c r="G262" t="n">
-        <v>0</v>
+        <v>0.9327710676</v>
       </c>
       <c r="H262" t="s">
         <v>19</v>
       </c>
       <c r="I262" t="n">
-        <v>0.005798404857</v>
+        <v>0.005482672202</v>
       </c>
       <c r="J262" t="n">
-        <v>0.9995526362</v>
+        <v>0.9941755437</v>
       </c>
       <c r="K262" t="n">
-        <v>0.7939433263</v>
+        <v>8.888780751</v>
       </c>
       <c r="L262" t="n">
-        <v>0.3392058576</v>
+        <v>0.1004648173</v>
       </c>
       <c r="M262" t="n">
-        <v>0.2180543091</v>
+        <v>1.407488469</v>
       </c>
       <c r="N262" t="n">
-        <v>0.56499408</v>
+        <v>2.632780996</v>
       </c>
       <c r="O262" t="n">
-        <v>0.01790213881</v>
+        <v>0.01924373071</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B263" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C263" t="s">
         <v>20</v>
       </c>
-      <c r="D263" t="s">
-        <v>158</v>
-      </c>
-      <c r="E263"/>
-      <c r="F263"/>
+      <c r="D263"/>
+      <c r="E263" t="s">
+        <v>153</v>
+      </c>
+      <c r="F263" t="s">
+        <v>142</v>
+      </c>
       <c r="G263" t="n">
-        <v>0</v>
+        <v>0.9327710676</v>
       </c>
       <c r="H263" t="s">
         <v>19</v>
       </c>
       <c r="I263" t="n">
-        <v>0.007068</v>
+        <v>0.005578</v>
       </c>
       <c r="J263" t="n">
-        <v>0.998756</v>
+        <v>0.999471</v>
       </c>
       <c r="K263" t="n">
-        <v>0.835239</v>
+        <v>7.059912</v>
       </c>
       <c r="L263" t="n">
-        <v>7.488449</v>
+        <v>0.032655</v>
       </c>
       <c r="M263" t="n">
-        <v>0.337935189806155</v>
+        <v>1.48972468617703</v>
       </c>
       <c r="N263" t="n">
-        <v>0.547816120011355</v>
+        <v>2.16855673664184</v>
       </c>
       <c r="O263"/>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B264" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C264" t="s">
         <v>17</v>
       </c>
-      <c r="D264" t="s">
-        <v>158</v>
-      </c>
-      <c r="E264"/>
-      <c r="F264"/>
+      <c r="D264"/>
+      <c r="E264" t="s">
+        <v>153</v>
+      </c>
+      <c r="F264" t="s">
+        <v>142</v>
+      </c>
       <c r="G264" t="n">
-        <v>0</v>
+        <v>0.6123027442</v>
       </c>
       <c r="H264" t="s">
         <v>19</v>
       </c>
       <c r="I264" t="n">
-        <v>0.001323686662</v>
+        <v>0.005356562427</v>
       </c>
       <c r="J264" t="n">
-        <v>0.9978898699</v>
+        <v>0.9948452665</v>
       </c>
       <c r="K264" t="n">
-        <v>3.132384629</v>
+        <v>14.4856052</v>
       </c>
       <c r="L264" t="n">
-        <v>0.3157072744</v>
+        <v>0.08340500545</v>
       </c>
       <c r="M264" t="n">
-        <v>1.167792107</v>
+        <v>0.4161490901</v>
       </c>
       <c r="N264" t="n">
-        <v>1.877344641</v>
+        <v>0.7531074991</v>
       </c>
       <c r="O264" t="n">
-        <v>0.01826430911</v>
+        <v>0.01777009452</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B265" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C265" t="s">
         <v>20</v>
       </c>
-      <c r="D265" t="s">
-        <v>158</v>
-      </c>
-      <c r="E265"/>
-      <c r="F265"/>
+      <c r="D265"/>
+      <c r="E265" t="s">
+        <v>153</v>
+      </c>
+      <c r="F265" t="s">
+        <v>142</v>
+      </c>
       <c r="G265" t="n">
-        <v>0</v>
+        <v>0.6123027442</v>
       </c>
       <c r="H265" t="s">
         <v>19</v>
       </c>
       <c r="I265" t="n">
-        <v>0.002892</v>
+        <v>0.006957</v>
       </c>
       <c r="J265" t="n">
-        <v>0.982629</v>
+        <v>0.996996</v>
       </c>
       <c r="K265" t="n">
-        <v>2.787373</v>
+        <v>10.71697</v>
       </c>
       <c r="L265" t="n">
-        <v>89.994519</v>
+        <v>0.032655</v>
       </c>
       <c r="M265" t="n">
-        <v>0.519972519195427</v>
+        <v>0.43690283821214</v>
       </c>
       <c r="N265" t="n">
-        <v>1.18065825708156</v>
+        <v>0.666416813355729</v>
       </c>
       <c r="O265"/>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B266" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C266" t="s">
         <v>17</v>
       </c>
-      <c r="D266" t="s">
-        <v>169</v>
-      </c>
-      <c r="E266"/>
-      <c r="F266"/>
+      <c r="D266"/>
+      <c r="E266" t="s">
+        <v>153</v>
+      </c>
+      <c r="F266" t="s">
+        <v>145</v>
+      </c>
       <c r="G266" t="n">
-        <v>0</v>
+        <v>4.364211671</v>
       </c>
       <c r="H266" t="s">
         <v>19</v>
       </c>
       <c r="I266" t="n">
-        <v>0.00451576597</v>
+        <v>0.004004750868</v>
       </c>
       <c r="J266" t="n">
-        <v>0.99875398</v>
+        <v>0.9977511148</v>
       </c>
       <c r="K266" t="n">
-        <v>1.189109554</v>
+        <v>23.12678438</v>
       </c>
       <c r="L266" t="n">
-        <v>0.3398121559</v>
+        <v>0.2250309019</v>
       </c>
       <c r="M266" t="n">
-        <v>0.4077317081</v>
+        <v>0.5028448109</v>
       </c>
       <c r="N266" t="n">
-        <v>0.6931127501</v>
+        <v>1.396798224</v>
       </c>
       <c r="O266" t="n">
-        <v>0.0171851908</v>
+        <v>0.01869619765</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B267" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C267" t="s">
         <v>20</v>
       </c>
-      <c r="D267" t="s">
-        <v>169</v>
-      </c>
-      <c r="E267"/>
-      <c r="F267"/>
+      <c r="D267"/>
+      <c r="E267" t="s">
+        <v>153</v>
+      </c>
+      <c r="F267" t="s">
+        <v>145</v>
+      </c>
       <c r="G267" t="n">
-        <v>0</v>
+        <v>4.364211671</v>
       </c>
       <c r="H267" t="s">
         <v>19</v>
       </c>
       <c r="I267" t="n">
-        <v>0.00534</v>
+        <v>0.003852</v>
       </c>
       <c r="J267" t="n">
-        <v>0.999569</v>
+        <v>0.999474</v>
       </c>
       <c r="K267" t="n">
-        <v>1.13163</v>
+        <v>18.715348</v>
       </c>
       <c r="L267" t="n">
-        <v>0.133366</v>
+        <v>0.09071</v>
       </c>
       <c r="M267" t="n">
-        <v>0.352241738374962</v>
+        <v>0.528262619000145</v>
       </c>
       <c r="N267" t="n">
-        <v>0.620414833061923</v>
+        <v>1.21972848907303</v>
       </c>
       <c r="O267"/>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B268" t="s">
         <v>170</v>
@@ -12259,42 +12223,44 @@
       <c r="C268" t="s">
         <v>17</v>
       </c>
-      <c r="D268" t="s">
-        <v>169</v>
-      </c>
-      <c r="E268"/>
-      <c r="F268"/>
+      <c r="D268"/>
+      <c r="E268" t="s">
+        <v>153</v>
+      </c>
+      <c r="F268" t="s">
+        <v>145</v>
+      </c>
       <c r="G268" t="n">
-        <v>0</v>
+        <v>0.2394835485</v>
       </c>
       <c r="H268" t="s">
         <v>19</v>
       </c>
       <c r="I268" t="n">
-        <v>0.001674513564</v>
+        <v>0.002003087339</v>
       </c>
       <c r="J268" t="n">
-        <v>0.9996968092</v>
+        <v>0.9934198948</v>
       </c>
       <c r="K268" t="n">
-        <v>2.867317628</v>
+        <v>2.445318468</v>
       </c>
       <c r="L268" t="n">
-        <v>1.90339541</v>
+        <v>0.07838834353</v>
       </c>
       <c r="M268" t="n">
-        <v>0.1468215736</v>
+        <v>0.7292764348</v>
       </c>
       <c r="N268" t="n">
-        <v>0.4120698957</v>
+        <v>1.478204278</v>
       </c>
       <c r="O268" t="n">
-        <v>0.01697968866</v>
+        <v>0.01846974714</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B269" t="s">
         <v>170</v>
@@ -12302,40 +12268,42 @@
       <c r="C269" t="s">
         <v>20</v>
       </c>
-      <c r="D269" t="s">
-        <v>169</v>
-      </c>
-      <c r="E269"/>
-      <c r="F269"/>
+      <c r="D269"/>
+      <c r="E269" t="s">
+        <v>153</v>
+      </c>
+      <c r="F269" t="s">
+        <v>145</v>
+      </c>
       <c r="G269" t="n">
-        <v>0</v>
+        <v>0.2394835485</v>
       </c>
       <c r="H269" t="s">
         <v>19</v>
       </c>
       <c r="I269" t="n">
-        <v>0.001722</v>
+        <v>0.004307</v>
       </c>
       <c r="J269" t="n">
-        <v>0.999857</v>
+        <v>0.999254</v>
       </c>
       <c r="K269" t="n">
-        <v>2.787743</v>
+        <v>2.314131</v>
       </c>
       <c r="L269" t="n">
-        <v>0.533464</v>
+        <v>0.032655</v>
       </c>
       <c r="M269" t="n">
-        <v>0.129403156797401</v>
+        <v>0.627918961281224</v>
       </c>
       <c r="N269" t="n">
-        <v>0.391031500843556</v>
+        <v>1.26792759112418</v>
       </c>
       <c r="O269"/>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B270" t="s">
         <v>171</v>
@@ -12343,42 +12311,44 @@
       <c r="C270" t="s">
         <v>17</v>
       </c>
-      <c r="D270" t="s">
-        <v>169</v>
-      </c>
-      <c r="E270"/>
-      <c r="F270"/>
+      <c r="D270"/>
+      <c r="E270" t="s">
+        <v>148</v>
+      </c>
+      <c r="F270" t="s">
+        <v>142</v>
+      </c>
       <c r="G270" t="n">
-        <v>0</v>
+        <v>0.2889421075</v>
       </c>
       <c r="H270" t="s">
         <v>19</v>
       </c>
       <c r="I270" t="n">
-        <v>0.007887921169</v>
+        <v>0.007075581839</v>
       </c>
       <c r="J270" t="n">
-        <v>0.9990912635</v>
+        <v>0.9828937575</v>
       </c>
       <c r="K270" t="n">
-        <v>0.85543084</v>
+        <v>1.6949705</v>
       </c>
       <c r="L270" t="n">
-        <v>2.725353175</v>
+        <v>0.08340500545</v>
       </c>
       <c r="M270" t="n">
-        <v>0.2463532555</v>
+        <v>0.9689837622</v>
       </c>
       <c r="N270" t="n">
-        <v>0.4548710229</v>
+        <v>5.795778268</v>
       </c>
       <c r="O270" t="n">
-        <v>0.01766117694</v>
+        <v>0.01649338863</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B271" t="s">
         <v>171</v>
@@ -12386,40 +12356,42 @@
       <c r="C271" t="s">
         <v>20</v>
       </c>
-      <c r="D271" t="s">
-        <v>169</v>
-      </c>
-      <c r="E271"/>
-      <c r="F271"/>
+      <c r="D271"/>
+      <c r="E271" t="s">
+        <v>148</v>
+      </c>
+      <c r="F271" t="s">
+        <v>142</v>
+      </c>
       <c r="G271" t="n">
-        <v>0</v>
+        <v>0.2889421075</v>
       </c>
       <c r="H271" t="s">
         <v>19</v>
       </c>
       <c r="I271" t="n">
-        <v>0.008293</v>
+        <v>0.009166</v>
       </c>
       <c r="J271" t="n">
-        <v>0.999598</v>
+        <v>0.998619</v>
       </c>
       <c r="K271" t="n">
-        <v>0.873244</v>
+        <v>1.453198</v>
       </c>
       <c r="L271" t="n">
-        <v>0.833537</v>
+        <v>0.032655</v>
       </c>
       <c r="M271" t="n">
-        <v>0.251046940767273</v>
+        <v>1.239681121025</v>
       </c>
       <c r="N271" t="n">
-        <v>0.438062476089958</v>
+        <v>3.61698198637879</v>
       </c>
       <c r="O271"/>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B272" t="s">
         <v>172</v>
@@ -12427,42 +12399,44 @@
       <c r="C272" t="s">
         <v>17</v>
       </c>
-      <c r="D272" t="s">
-        <v>169</v>
-      </c>
-      <c r="E272"/>
-      <c r="F272"/>
+      <c r="D272"/>
+      <c r="E272" t="s">
+        <v>148</v>
+      </c>
+      <c r="F272" t="s">
+        <v>142</v>
+      </c>
       <c r="G272" t="n">
-        <v>0</v>
+        <v>3.092172243</v>
       </c>
       <c r="H272" t="s">
         <v>19</v>
       </c>
       <c r="I272" t="n">
-        <v>0.006700542038</v>
+        <v>0.004994924945</v>
       </c>
       <c r="J272" t="n">
-        <v>0.9994250184</v>
+        <v>0.9233653816</v>
       </c>
       <c r="K272" t="n">
-        <v>0.8323418807</v>
+        <v>10.86390999</v>
       </c>
       <c r="L272" t="n">
-        <v>1.648813401</v>
+        <v>0.9972802751</v>
       </c>
       <c r="M272" t="n">
-        <v>0.2266678492</v>
+        <v>10.32469331</v>
       </c>
       <c r="N272" t="n">
-        <v>0.3846998791</v>
+        <v>36.41591664</v>
       </c>
       <c r="O272" t="n">
-        <v>0.01685242918</v>
+        <v>0.01795356794</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B273" t="s">
         <v>172</v>
@@ -12470,40 +12444,42 @@
       <c r="C273" t="s">
         <v>20</v>
       </c>
-      <c r="D273" t="s">
-        <v>169</v>
-      </c>
-      <c r="E273"/>
-      <c r="F273"/>
+      <c r="D273"/>
+      <c r="E273" t="s">
+        <v>148</v>
+      </c>
+      <c r="F273" t="s">
+        <v>142</v>
+      </c>
       <c r="G273" t="n">
-        <v>0</v>
+        <v>3.092172243</v>
       </c>
       <c r="H273" t="s">
         <v>19</v>
       </c>
       <c r="I273" t="n">
-        <v>0.006605</v>
+        <v>0.002139</v>
       </c>
       <c r="J273" t="n">
-        <v>0.999607</v>
+        <v>0.996661</v>
       </c>
       <c r="K273" t="n">
-        <v>0.837315</v>
+        <v>11.549277</v>
       </c>
       <c r="L273" t="n">
-        <v>0.408433</v>
+        <v>0.928866</v>
       </c>
       <c r="M273" t="n">
-        <v>0.243967507385135</v>
+        <v>3.63859440283608</v>
       </c>
       <c r="N273" t="n">
-        <v>0.385914798480832</v>
+        <v>6.98551143117234</v>
       </c>
       <c r="O273"/>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B274" t="s">
         <v>173</v>
@@ -12511,42 +12487,44 @@
       <c r="C274" t="s">
         <v>17</v>
       </c>
-      <c r="D274" t="s">
-        <v>169</v>
-      </c>
-      <c r="E274"/>
-      <c r="F274"/>
+      <c r="D274"/>
+      <c r="E274" t="s">
+        <v>148</v>
+      </c>
+      <c r="F274" t="s">
+        <v>145</v>
+      </c>
       <c r="G274" t="n">
-        <v>0</v>
+        <v>0.2736128465</v>
       </c>
       <c r="H274" t="s">
         <v>19</v>
       </c>
       <c r="I274" t="n">
-        <v>0.003714558856</v>
+        <v>0.005932849513</v>
       </c>
       <c r="J274" t="n">
-        <v>0.999026571</v>
+        <v>0.9963978123</v>
       </c>
       <c r="K274" t="n">
-        <v>1.327527764</v>
+        <v>4.197067473</v>
       </c>
       <c r="L274" t="n">
-        <v>0.220885081</v>
+        <v>0.07838834353</v>
       </c>
       <c r="M274" t="n">
-        <v>0.246360792</v>
+        <v>2.234426012</v>
       </c>
       <c r="N274" t="n">
-        <v>0.51189897</v>
+        <v>2.30287169</v>
       </c>
       <c r="O274" t="n">
-        <v>0.01764824366</v>
+        <v>0.01595719018</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B275" t="s">
         <v>173</v>
@@ -12554,40 +12532,42 @@
       <c r="C275" t="s">
         <v>20</v>
       </c>
-      <c r="D275" t="s">
-        <v>169</v>
-      </c>
-      <c r="E275"/>
-      <c r="F275"/>
+      <c r="D275"/>
+      <c r="E275" t="s">
+        <v>148</v>
+      </c>
+      <c r="F275" t="s">
+        <v>145</v>
+      </c>
       <c r="G275" t="n">
-        <v>0</v>
+        <v>0.2736128465</v>
       </c>
       <c r="H275" t="s">
         <v>19</v>
       </c>
       <c r="I275" t="n">
-        <v>0.004944</v>
+        <v>0.009006</v>
       </c>
       <c r="J275" t="n">
-        <v>0.998998</v>
+        <v>0.998834</v>
       </c>
       <c r="K275" t="n">
-        <v>1.245215</v>
+        <v>3.616868</v>
       </c>
       <c r="L275" t="n">
-        <v>0.075018</v>
+        <v>0.032655</v>
       </c>
       <c r="M275" t="n">
-        <v>0.230885127314988</v>
+        <v>2.47437143252195</v>
       </c>
       <c r="N275" t="n">
-        <v>0.456833703043507</v>
+        <v>2.54630030255689</v>
       </c>
       <c r="O275"/>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B276" t="s">
         <v>174</v>
@@ -12595,42 +12575,44 @@
       <c r="C276" t="s">
         <v>17</v>
       </c>
-      <c r="D276" t="s">
-        <v>169</v>
-      </c>
-      <c r="E276"/>
-      <c r="F276"/>
+      <c r="D276"/>
+      <c r="E276" t="s">
+        <v>148</v>
+      </c>
+      <c r="F276" t="s">
+        <v>145</v>
+      </c>
       <c r="G276" t="n">
-        <v>0</v>
+        <v>1.56850155</v>
       </c>
       <c r="H276" t="s">
         <v>19</v>
       </c>
       <c r="I276" t="n">
-        <v>0.005346323534</v>
+        <v>0.006599490184</v>
       </c>
       <c r="J276" t="n">
-        <v>0.9982377485</v>
+        <v>0.9097145607</v>
       </c>
       <c r="K276" t="n">
-        <v>8.348868372</v>
+        <v>4.793902568</v>
       </c>
       <c r="L276" t="n">
-        <v>0.1913413681</v>
+        <v>3.04613068</v>
       </c>
       <c r="M276" t="n">
-        <v>0.4207267812</v>
+        <v>5.640511661</v>
       </c>
       <c r="N276" t="n">
-        <v>0.7145951027</v>
+        <v>10.21086867</v>
       </c>
       <c r="O276" t="n">
-        <v>0.01876502383</v>
+        <v>0.01888923869</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B277" t="s">
         <v>174</v>
@@ -12638,40 +12620,42 @@
       <c r="C277" t="s">
         <v>20</v>
       </c>
-      <c r="D277" t="s">
-        <v>169</v>
-      </c>
-      <c r="E277"/>
-      <c r="F277"/>
+      <c r="D277"/>
+      <c r="E277" t="s">
+        <v>148</v>
+      </c>
+      <c r="F277" t="s">
+        <v>145</v>
+      </c>
       <c r="G277" t="n">
-        <v>0</v>
+        <v>1.56850155</v>
       </c>
       <c r="H277" t="s">
         <v>19</v>
       </c>
       <c r="I277" t="n">
-        <v>0.004251</v>
+        <v>0.002785</v>
       </c>
       <c r="J277" t="n">
-        <v>0.999452</v>
+        <v>0.99525</v>
       </c>
       <c r="K277" t="n">
-        <v>6.578257</v>
+        <v>4.940782</v>
       </c>
       <c r="L277" t="n">
-        <v>0.075018</v>
+        <v>0.928866</v>
       </c>
       <c r="M277" t="n">
-        <v>0.376686962637075</v>
+        <v>3.07404466664286</v>
       </c>
       <c r="N277" t="n">
-        <v>0.604153777395749</v>
+        <v>4.34188139028749</v>
       </c>
       <c r="O277"/>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B278" t="s">
         <v>175</v>
@@ -12679,42 +12663,44 @@
       <c r="C278" t="s">
         <v>17</v>
       </c>
-      <c r="D278" t="s">
-        <v>169</v>
-      </c>
-      <c r="E278"/>
-      <c r="F278"/>
+      <c r="D278"/>
+      <c r="E278" t="s">
+        <v>159</v>
+      </c>
+      <c r="F278" t="s">
+        <v>142</v>
+      </c>
       <c r="G278" t="n">
-        <v>0</v>
+        <v>4.472384192</v>
       </c>
       <c r="H278" t="s">
         <v>19</v>
       </c>
       <c r="I278" t="n">
-        <v>0.005882298625</v>
+        <v>0.005991581983</v>
       </c>
       <c r="J278" t="n">
-        <v>0.9984011385</v>
+        <v>0.9935653584</v>
       </c>
       <c r="K278" t="n">
-        <v>1.943527718</v>
+        <v>32.39424855</v>
       </c>
       <c r="L278" t="n">
-        <v>0.1913413681</v>
+        <v>0.3265020617</v>
       </c>
       <c r="M278" t="n">
-        <v>1.139163136</v>
+        <v>1.729337224</v>
       </c>
       <c r="N278" t="n">
-        <v>1.346246106</v>
+        <v>5.076058089</v>
       </c>
       <c r="O278" t="n">
-        <v>0.0185811976</v>
+        <v>0.01742296809</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B279" t="s">
         <v>175</v>
@@ -12722,40 +12708,42 @@
       <c r="C279" t="s">
         <v>20</v>
       </c>
-      <c r="D279" t="s">
-        <v>169</v>
-      </c>
-      <c r="E279"/>
-      <c r="F279"/>
+      <c r="D279"/>
+      <c r="E279" t="s">
+        <v>159</v>
+      </c>
+      <c r="F279" t="s">
+        <v>142</v>
+      </c>
       <c r="G279" t="n">
-        <v>0</v>
+        <v>4.472384192</v>
       </c>
       <c r="H279" t="s">
         <v>19</v>
       </c>
       <c r="I279" t="n">
-        <v>0.002599</v>
+        <v>0.002678</v>
       </c>
       <c r="J279" t="n">
-        <v>0.999541</v>
+        <v>0.999569</v>
       </c>
       <c r="K279" t="n">
-        <v>1.672554</v>
+        <v>26.404524</v>
       </c>
       <c r="L279" t="n">
-        <v>0.075018</v>
+        <v>0.09071</v>
       </c>
       <c r="M279" t="n">
-        <v>0.785956933323434</v>
+        <v>1.15120732776973</v>
       </c>
       <c r="N279" t="n">
-        <v>1.01185348169271</v>
+        <v>2.25215131553443</v>
       </c>
       <c r="O279"/>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B280" t="s">
         <v>176</v>
@@ -12763,42 +12751,44 @@
       <c r="C280" t="s">
         <v>17</v>
       </c>
-      <c r="D280" t="s">
-        <v>169</v>
-      </c>
-      <c r="E280"/>
-      <c r="F280"/>
+      <c r="D280"/>
+      <c r="E280" t="s">
+        <v>159</v>
+      </c>
+      <c r="F280" t="s">
+        <v>142</v>
+      </c>
       <c r="G280" t="n">
-        <v>0</v>
+        <v>2.646177519</v>
       </c>
       <c r="H280" t="s">
         <v>19</v>
       </c>
       <c r="I280" t="n">
-        <v>0.0003355399204</v>
+        <v>0.004799624641</v>
       </c>
       <c r="J280" t="n">
-        <v>0.996824313</v>
+        <v>0.9971702309</v>
       </c>
       <c r="K280" t="n">
-        <v>1.828119937</v>
+        <v>29.63050783</v>
       </c>
       <c r="L280" t="n">
-        <v>4.192714753</v>
+        <v>0.1650209267</v>
       </c>
       <c r="M280" t="n">
-        <v>0.8282796919</v>
+        <v>1.201036473</v>
       </c>
       <c r="N280" t="n">
-        <v>1.123493299</v>
+        <v>1.738915693</v>
       </c>
       <c r="O280" t="n">
-        <v>0.01769705167</v>
+        <v>0.01764294591</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B281" t="s">
         <v>176</v>
@@ -12806,40 +12796,42 @@
       <c r="C281" t="s">
         <v>20</v>
       </c>
-      <c r="D281" t="s">
-        <v>169</v>
-      </c>
-      <c r="E281"/>
-      <c r="F281"/>
+      <c r="D281"/>
+      <c r="E281" t="s">
+        <v>159</v>
+      </c>
+      <c r="F281" t="s">
+        <v>142</v>
+      </c>
       <c r="G281" t="n">
-        <v>0</v>
+        <v>2.646177519</v>
       </c>
       <c r="H281" t="s">
         <v>19</v>
       </c>
       <c r="I281" t="n">
-        <v>0.004424</v>
+        <v>0.002035</v>
       </c>
       <c r="J281" t="n">
-        <v>0.99936</v>
+        <v>0.99893</v>
       </c>
       <c r="K281" t="n">
-        <v>1.819802</v>
+        <v>23.258608</v>
       </c>
       <c r="L281" t="n">
-        <v>1.408678</v>
+        <v>0.058054</v>
       </c>
       <c r="M281" t="n">
-        <v>0.836560010920305</v>
+        <v>1.01302995017199</v>
       </c>
       <c r="N281" t="n">
-        <v>1.11170575018857</v>
+        <v>1.4654930422544</v>
       </c>
       <c r="O281"/>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B282" t="s">
         <v>177</v>
@@ -12847,42 +12839,44 @@
       <c r="C282" t="s">
         <v>17</v>
       </c>
-      <c r="D282" t="s">
-        <v>169</v>
-      </c>
-      <c r="E282"/>
-      <c r="F282"/>
+      <c r="D282"/>
+      <c r="E282" t="s">
+        <v>159</v>
+      </c>
+      <c r="F282" t="s">
+        <v>145</v>
+      </c>
       <c r="G282" t="n">
-        <v>0</v>
+        <v>0.3271206442</v>
       </c>
       <c r="H282" t="s">
         <v>19</v>
       </c>
       <c r="I282" t="n">
-        <v>0.003402700285</v>
+        <v>0.006006712705</v>
       </c>
       <c r="J282" t="n">
-        <v>0.9988499029</v>
+        <v>0.987344213</v>
       </c>
       <c r="K282" t="n">
-        <v>2.864831406</v>
+        <v>5.671158448</v>
       </c>
       <c r="L282" t="n">
-        <v>0.4865558324</v>
+        <v>9.899664123</v>
       </c>
       <c r="M282" t="n">
-        <v>0.6374994163</v>
+        <v>0.8618896844</v>
       </c>
       <c r="N282" t="n">
-        <v>1.538942513</v>
+        <v>1.591850998</v>
       </c>
       <c r="O282" t="n">
-        <v>0.01897771794</v>
+        <v>0.02010935307</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B283" t="s">
         <v>177</v>
@@ -12890,40 +12884,42 @@
       <c r="C283" t="s">
         <v>20</v>
       </c>
-      <c r="D283" t="s">
-        <v>169</v>
-      </c>
-      <c r="E283"/>
-      <c r="F283"/>
+      <c r="D283"/>
+      <c r="E283" t="s">
+        <v>159</v>
+      </c>
+      <c r="F283" t="s">
+        <v>145</v>
+      </c>
       <c r="G283" t="n">
-        <v>0</v>
+        <v>0.3271206442</v>
       </c>
       <c r="H283" t="s">
         <v>19</v>
       </c>
       <c r="I283" t="n">
-        <v>0.003139</v>
+        <v>0.005429</v>
       </c>
       <c r="J283" t="n">
-        <v>0.999739</v>
+        <v>0.995536</v>
       </c>
       <c r="K283" t="n">
-        <v>2.758297</v>
+        <v>5.658399</v>
       </c>
       <c r="L283" t="n">
-        <v>0.133366</v>
+        <v>3.051471</v>
       </c>
       <c r="M283" t="n">
-        <v>0.955699412279703</v>
+        <v>0.55320553793548</v>
       </c>
       <c r="N283" t="n">
-        <v>1.8317207798495</v>
+        <v>2.17175270991109</v>
       </c>
       <c r="O283"/>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B284" t="s">
         <v>178</v>
@@ -12931,42 +12927,44 @@
       <c r="C284" t="s">
         <v>17</v>
       </c>
-      <c r="D284" t="s">
-        <v>169</v>
-      </c>
-      <c r="E284"/>
-      <c r="F284"/>
+      <c r="D284"/>
+      <c r="E284" t="s">
+        <v>159</v>
+      </c>
+      <c r="F284" t="s">
+        <v>145</v>
+      </c>
       <c r="G284" t="n">
-        <v>0</v>
+        <v>1.731628025</v>
       </c>
       <c r="H284" t="s">
         <v>19</v>
       </c>
       <c r="I284" t="n">
-        <v>0.001219624955</v>
+        <v>0.004158419251</v>
       </c>
       <c r="J284" t="n">
-        <v>0.9994785208</v>
+        <v>0.9947795113</v>
       </c>
       <c r="K284" t="n">
-        <v>1.481662424</v>
+        <v>9.493842319</v>
       </c>
       <c r="L284" t="n">
-        <v>1.237247232</v>
+        <v>2.099446266</v>
       </c>
       <c r="M284" t="n">
-        <v>0.3706908731</v>
+        <v>0.7595441881</v>
       </c>
       <c r="N284" t="n">
-        <v>0.8041382014</v>
+        <v>3.567648922</v>
       </c>
       <c r="O284" t="n">
-        <v>0.01749796943</v>
+        <v>0.01937457119</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B285" t="s">
         <v>178</v>
@@ -12974,34 +12972,36 @@
       <c r="C285" t="s">
         <v>20</v>
       </c>
-      <c r="D285" t="s">
-        <v>169</v>
-      </c>
-      <c r="E285"/>
-      <c r="F285"/>
+      <c r="D285"/>
+      <c r="E285" t="s">
+        <v>159</v>
+      </c>
+      <c r="F285" t="s">
+        <v>145</v>
+      </c>
       <c r="G285" t="n">
-        <v>0</v>
+        <v>1.731628025</v>
       </c>
       <c r="H285" t="s">
         <v>19</v>
       </c>
       <c r="I285" t="n">
-        <v>0.000703</v>
+        <v>0.004068</v>
       </c>
       <c r="J285" t="n">
-        <v>0.999857</v>
+        <v>0.995806</v>
       </c>
       <c r="K285" t="n">
-        <v>1.432148</v>
+        <v>9.415896</v>
       </c>
       <c r="L285" t="n">
-        <v>0.408433</v>
+        <v>1.048603</v>
       </c>
       <c r="M285" t="n">
-        <v>0.346111253053922</v>
+        <v>0.648381916637629</v>
       </c>
       <c r="N285" t="n">
-        <v>0.839946048729549</v>
+        <v>3.79000022437559</v>
       </c>
       <c r="O285"/>
     </row>
